--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90983009-A44F-4F4B-A1A6-50226E09A27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309ACDA0-A6AD-4336-8E21-2D8EC5CB3DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>9E82889C248D6BEF848E1AFB27808B21</t>
+  </si>
+  <si>
+    <t>بررسی برنامه تست</t>
   </si>
 </sst>
 </file>
@@ -283,6 +286,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,9 +305,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,41 +627,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="16"/>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
@@ -671,7 +674,9 @@
       <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
@@ -740,7 +745,7 @@
       </c>
     </row>
     <row r="3" spans="1:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4681,7 +4686,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="16"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -4708,7 +4713,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="16"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -4734,7 +4739,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="10"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -4760,7 +4765,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="16"/>
+      <c r="B156" s="10"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -4787,7 +4792,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="10"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4813,7 +4818,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="10"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -4839,7 +4844,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="10"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -4865,7 +4870,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="10"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -4891,7 +4896,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="10"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4917,7 +4922,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="16"/>
+      <c r="B162" s="10"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -18473,20 +18478,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="U2:U3"/>
@@ -18503,6 +18494,20 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B1:AB1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9B259-13E5-4D37-ADC5-B62BC7F8D963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765AF59B-9C47-4ED0-B5DF-53C10231F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -600,7 +600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,8 @@
     <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="19.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
     <col min="12" max="13" width="9.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
@@ -695,7 +696,9 @@
       <c r="G2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765AF59B-9C47-4ED0-B5DF-53C10231F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568764A2-F024-44D6-81EA-B0127FEC10AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">اتصال تغذیه 4 ولت </t>
+  </si>
+  <si>
+    <t>بررسی ولتاژ باتری ساعت</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
   <dimension ref="A1:CT1504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +616,8 @@
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
     <col min="12" max="13" width="9.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
@@ -699,7 +703,9 @@
       <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
         <v>13</v>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C25541-D9A1-4336-A14B-8588A30D91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3123FA68-FEC7-4A15-B722-67118D7B9C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>بررسی ولتاژ باتری ساعت</t>
+  </si>
+  <si>
+    <t>عملکرد ایپرام خارجی</t>
   </si>
 </sst>
 </file>
@@ -298,9 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,6 +317,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,48 +646,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
@@ -712,7 +715,9 @@
       <c r="J2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="10" t="s">
@@ -780,7 +785,7 @@
       </c>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -790,7 +795,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="11"/>
@@ -5770,7 +5775,7 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="12"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5804,7 +5809,7 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="12"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="12"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5870,7 +5875,7 @@
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="12"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5904,7 +5909,7 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="12"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5937,7 +5942,7 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="12"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5970,7 +5975,7 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="12"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6003,7 +6008,7 @@
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="12"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6036,7 +6041,7 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="12"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6069,7 +6074,7 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="12"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -22760,7 +22765,25 @@
       <c r="A1504" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="A1:A3"/>
@@ -22777,23 +22800,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3123FA68-FEC7-4A15-B722-67118D7B9C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19C123-0C67-401D-A938-1F11D21ADA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19C123-0C67-401D-A938-1F11D21ADA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C480070C-FA3F-43E5-A5BB-D3C5879E7BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>عملکرد ایپرام خارجی</t>
+  </si>
+  <si>
+    <t>عملکرد نمایشگر</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +623,9 @@
     <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
     <col min="15" max="16" width="9.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
@@ -718,7 +723,9 @@
       <c r="K2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="10" t="s">
         <v>13</v>
@@ -796,7 +803,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="9"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -22765,7 +22772,7 @@
       <c r="A1504" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="B153:B162"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="O2:O3"/>
@@ -22779,6 +22786,7 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="B1:AI1"/>
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="Y2:Y3"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C480070C-FA3F-43E5-A5BB-D3C5879E7BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90193A3-DCE2-4DA0-866A-437D7A6A9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestResult" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>عملکرد نمایشگر</t>
+  </si>
+  <si>
+    <t>01C6F547C9CC1AD2CF0B89B443D4CDC2</t>
   </si>
 </sst>
 </file>
@@ -298,19 +301,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,7 +319,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,181 +654,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="15"/>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
     </row>
     <row r="4" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -846,7 +849,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -863,9 +868,15 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+      <c r="Z4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -5782,7 +5793,7 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5816,7 +5827,7 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5849,7 +5860,7 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="10"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5882,7 +5893,7 @@
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="10"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5916,7 +5927,7 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="10"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5949,7 +5960,7 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="10"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5982,7 +5993,7 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="10"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6015,7 +6026,7 @@
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="10"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6048,7 +6059,7 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="10"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6081,7 +6092,7 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="10"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -22773,6 +22784,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="B153:B162"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="O2:O3"/>
@@ -22787,27 +22819,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90193A3-DCE2-4DA0-866A-437D7A6A9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7035B20-75E3-4653-BF8A-04B2D7649795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -130,7 +130,10 @@
     <t>عملکرد نمایشگر</t>
   </si>
   <si>
-    <t>01C6F547C9CC1AD2CF0B89B443D4CDC2</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>6EF93ED4BA3BF4E5F964716C038332F9</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,13 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,181 +657,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
     </row>
     <row r="4" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -853,7 +856,9 @@
         <v>29</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -869,10 +874,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>27</v>
@@ -5793,7 +5798,7 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="10"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5827,7 +5832,7 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="10"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5860,7 +5865,7 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="10"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5893,7 +5898,7 @@
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="10"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5927,7 +5932,7 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="10"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5960,7 +5965,7 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="10"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5993,7 +5998,7 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="10"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6026,7 +6031,7 @@
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="10"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6059,7 +6064,7 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="10"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6092,7 +6097,7 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="10"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -22784,6 +22789,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="S2:S3"/>
@@ -22800,25 +22824,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B1:AI1"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7035B20-75E3-4653-BF8A-04B2D7649795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15737130-DBE0-4DB7-8611-33B955E94D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -130,10 +130,7 @@
     <t>عملکرد نمایشگر</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>6EF93ED4BA3BF4E5F964716C038332F9</t>
+    <t>5F1699288FA263B80CA16E2004BEFE0A</t>
   </si>
 </sst>
 </file>
@@ -304,6 +301,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,12 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,9 +326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,181 +654,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AH2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AI2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
     </row>
     <row r="4" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -850,14 +847,20 @@
         <v>29</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5" t="s">
-        <v>36</v>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -874,10 +877,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>27</v>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5865,7 +5868,7 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="10"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5898,7 +5901,7 @@
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="10"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5932,7 +5935,7 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="10"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5965,7 +5968,7 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="10"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5998,7 +6001,7 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="10"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6031,7 +6034,7 @@
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="10"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6064,7 +6067,7 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="10"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6097,7 +6100,7 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="10"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -22789,21 +22792,9 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="I2:I3"/>
@@ -22820,10 +22811,22 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="AH2:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15737130-DBE0-4DB7-8611-33B955E94D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418C947E-8E2C-4B58-BB1F-9AAB4B811FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -130,7 +130,7 @@
     <t>عملکرد نمایشگر</t>
   </si>
   <si>
-    <t>5F1699288FA263B80CA16E2004BEFE0A</t>
+    <t>264A2460CB7AED800865797C274D3CCA</t>
   </si>
 </sst>
 </file>
@@ -301,13 +301,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,13 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,181 +654,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
     </row>
     <row r="4" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -862,7 +862,9 @@
       <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -877,7 +879,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>36</v>
@@ -5801,7 +5803,7 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="10"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5835,7 +5837,7 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="10"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5868,7 +5870,7 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="10"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5901,7 +5903,7 @@
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="10"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5935,7 +5937,7 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="10"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5968,7 +5970,7 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="10"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6001,7 +6003,7 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="10"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6034,7 +6036,7 @@
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="10"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6067,7 +6069,7 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="10"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6100,7 +6102,7 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="10"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -22792,25 +22794,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="B153:B162"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="O2:O3"/>
@@ -22827,6 +22810,25 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AI2:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418C947E-8E2C-4B58-BB1F-9AAB4B811FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9301B0A-D421-48EF-A5BD-6BE2B7FCE468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -130,7 +130,10 @@
     <t>عملکرد نمایشگر</t>
   </si>
   <si>
-    <t>264A2460CB7AED800865797C274D3CCA</t>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>A99972914C727B8D14DA58CD21011571</t>
   </si>
 </sst>
 </file>
@@ -316,16 +319,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,16 +611,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW1504"/>
+  <dimension ref="A1:CW923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
@@ -654,7 +657,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -695,7 +698,7 @@
       <c r="AI1" s="14"/>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
@@ -795,7 +798,7 @@
       </c>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -831,8 +834,8 @@
       <c r="AI3" s="11"/>
     </row>
     <row r="4" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12345678</v>
+      <c r="A4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -879,10 +882,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>27</v>
@@ -904,7 +907,6 @@
       <c r="CW4" s="2"/>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -937,7 +939,6 @@
       <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -974,7 +975,6 @@
       <c r="AI6" s="3"/>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1007,7 +1007,6 @@
       <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1040,7 +1039,6 @@
       <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1073,7 +1071,6 @@
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1106,7 +1103,6 @@
       <c r="AE10" s="3"/>
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1140,7 +1136,6 @@
       <c r="AH11" s="6"/>
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1173,7 +1168,6 @@
       <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1206,7 +1200,6 @@
       <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1239,7 +1232,6 @@
       <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1272,7 +1264,6 @@
       <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1304,8 +1295,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1337,8 +1327,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1370,8 +1359,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1403,8 +1391,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1436,8 +1423,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1469,8 +1455,7 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1502,8 +1487,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1535,8 +1519,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1568,8 +1551,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1601,8 +1583,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1634,8 +1615,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1667,8 +1647,7 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1700,8 +1679,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1733,8 +1711,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1767,8 +1744,7 @@
       <c r="AE30" s="3"/>
       <c r="AH30" s="6"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1800,8 +1776,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1833,8 +1808,7 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1866,8 +1840,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1899,8 +1872,7 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1932,8 +1904,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1965,8 +1936,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1998,8 +1968,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2032,8 +2001,7 @@
       <c r="AE38" s="3"/>
       <c r="AH38" s="6"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2065,8 +2033,7 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2098,8 +2065,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2131,8 +2097,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2164,8 +2129,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2197,8 +2161,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2230,8 +2193,7 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2263,8 +2225,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2296,8 +2257,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2329,8 +2289,7 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2362,8 +2321,7 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2395,8 +2353,7 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2428,8 +2385,7 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2461,8 +2417,7 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2494,8 +2449,7 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2527,8 +2481,7 @@
       <c r="AD53" s="5"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2560,8 +2513,7 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2593,8 +2545,7 @@
       <c r="AD55" s="5"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2626,8 +2577,7 @@
       <c r="AD56" s="5"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2659,8 +2609,7 @@
       <c r="AD57" s="5"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2692,8 +2641,7 @@
       <c r="AD58" s="5"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2725,8 +2673,7 @@
       <c r="AD59" s="5"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2758,8 +2705,7 @@
       <c r="AD60" s="5"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2791,8 +2737,7 @@
       <c r="AD61" s="5"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2824,8 +2769,7 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="3"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2857,8 +2801,7 @@
       <c r="AD63" s="5"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2890,8 +2833,7 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2923,8 +2865,7 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2956,8 +2897,7 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2989,8 +2929,7 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3022,8 +2961,7 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3055,8 +2993,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3088,8 +3025,7 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3122,8 +3058,7 @@
       <c r="AE71" s="3"/>
       <c r="AH71" s="6"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3155,8 +3090,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3188,8 +3122,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3221,8 +3154,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3254,8 +3186,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3287,8 +3218,7 @@
       <c r="AD76" s="5"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3320,8 +3250,7 @@
       <c r="AD77" s="5"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3353,8 +3282,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3386,8 +3314,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3419,8 +3346,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3452,8 +3378,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3486,8 +3411,7 @@
       <c r="AE82" s="3"/>
       <c r="AH82" s="6"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3519,8 +3443,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3552,8 +3475,7 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3585,8 +3507,7 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3618,8 +3539,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3651,8 +3571,7 @@
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3684,8 +3603,7 @@
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3717,8 +3635,7 @@
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3750,8 +3667,7 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3783,8 +3699,7 @@
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3816,8 +3731,7 @@
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3849,8 +3763,7 @@
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3882,8 +3795,7 @@
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3915,8 +3827,7 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3948,8 +3859,7 @@
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3981,8 +3891,7 @@
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4014,8 +3923,7 @@
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4047,8 +3955,7 @@
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4080,8 +3987,7 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4113,8 +4019,7 @@
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4146,8 +4051,7 @@
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4179,8 +4083,7 @@
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4212,8 +4115,7 @@
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4245,8 +4147,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4278,8 +4179,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4311,8 +4211,7 @@
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4344,8 +4243,7 @@
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4377,8 +4275,7 @@
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4410,8 +4307,7 @@
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4444,8 +4340,7 @@
       <c r="AE111" s="3"/>
       <c r="AH111" s="6"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4477,8 +4372,7 @@
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
+    <row r="113" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4510,8 +4404,7 @@
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+    <row r="114" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4543,8 +4436,7 @@
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
+    <row r="115" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4576,8 +4468,7 @@
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
+    <row r="116" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4609,8 +4500,7 @@
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
+    <row r="117" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4642,8 +4532,7 @@
       <c r="AD117" s="3"/>
       <c r="AE117" s="3"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
+    <row r="118" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4675,8 +4564,7 @@
       <c r="AD118" s="3"/>
       <c r="AE118" s="3"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
+    <row r="119" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4708,8 +4596,7 @@
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
+    <row r="120" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4741,8 +4628,7 @@
       <c r="AD120" s="3"/>
       <c r="AE120" s="3"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
+    <row r="121" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4774,8 +4660,7 @@
       <c r="AD121" s="3"/>
       <c r="AE121" s="3"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
+    <row r="122" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4807,8 +4692,7 @@
       <c r="AD122" s="3"/>
       <c r="AE122" s="3"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+    <row r="123" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4840,8 +4724,7 @@
       <c r="AD123" s="3"/>
       <c r="AE123" s="3"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
+    <row r="124" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4873,8 +4756,7 @@
       <c r="AD124" s="3"/>
       <c r="AE124" s="3"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
+    <row r="125" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4906,8 +4788,7 @@
       <c r="AD125" s="3"/>
       <c r="AE125" s="3"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
+    <row r="126" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4939,8 +4820,7 @@
       <c r="AD126" s="3"/>
       <c r="AE126" s="3"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A127" s="7"/>
+    <row r="127" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4972,8 +4852,7 @@
       <c r="AD127" s="3"/>
       <c r="AE127" s="3"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
+    <row r="128" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -5005,8 +4884,7 @@
       <c r="AD128" s="3"/>
       <c r="AE128" s="3"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
+    <row r="129" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -5038,8 +4916,7 @@
       <c r="AD129" s="3"/>
       <c r="AE129" s="3"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
+    <row r="130" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -5071,8 +4948,7 @@
       <c r="AD130" s="3"/>
       <c r="AE130" s="3"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
+    <row r="131" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5104,8 +4980,7 @@
       <c r="AD131" s="3"/>
       <c r="AE131" s="3"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+    <row r="132" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5137,8 +5012,7 @@
       <c r="AD132" s="3"/>
       <c r="AE132" s="3"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
+    <row r="133" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5170,8 +5044,7 @@
       <c r="AD133" s="3"/>
       <c r="AE133" s="3"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
+    <row r="134" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5203,8 +5076,7 @@
       <c r="AD134" s="3"/>
       <c r="AE134" s="3"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
+    <row r="135" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5237,8 +5109,7 @@
       <c r="AE135" s="3"/>
       <c r="AH135" s="6"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="7"/>
+    <row r="136" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5270,8 +5141,7 @@
       <c r="AD136" s="5"/>
       <c r="AE136" s="3"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
+    <row r="137" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5303,8 +5173,7 @@
       <c r="AD137" s="3"/>
       <c r="AE137" s="3"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
+    <row r="138" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5336,8 +5205,7 @@
       <c r="AD138" s="3"/>
       <c r="AE138" s="3"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
+    <row r="139" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5369,8 +5237,7 @@
       <c r="AD139" s="3"/>
       <c r="AE139" s="3"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
+    <row r="140" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5403,8 +5270,7 @@
       <c r="AE140" s="3"/>
       <c r="AH140" s="6"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="7"/>
+    <row r="141" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5436,8 +5302,7 @@
       <c r="AD141" s="3"/>
       <c r="AE141" s="3"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
+    <row r="142" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5469,8 +5334,7 @@
       <c r="AD142" s="3"/>
       <c r="AE142" s="3"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
+    <row r="143" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5502,8 +5366,7 @@
       <c r="AD143" s="3"/>
       <c r="AE143" s="3"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+    <row r="144" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5535,8 +5398,7 @@
       <c r="AD144" s="3"/>
       <c r="AE144" s="3"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
+    <row r="145" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5568,8 +5430,7 @@
       <c r="AD145" s="3"/>
       <c r="AE145" s="3"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
+    <row r="146" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5601,8 +5462,7 @@
       <c r="AD146" s="3"/>
       <c r="AE146" s="3"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+    <row r="147" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5634,8 +5494,7 @@
       <c r="AD147" s="3"/>
       <c r="AE147" s="3"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
+    <row r="148" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5668,8 +5527,7 @@
       <c r="AE148" s="3"/>
       <c r="AH148" s="6"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
+    <row r="149" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5702,8 +5560,7 @@
       <c r="AE149" s="3"/>
       <c r="AH149" s="6"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
+    <row r="150" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5735,8 +5592,7 @@
       <c r="AD150" s="3"/>
       <c r="AE150" s="3"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+    <row r="151" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5768,8 +5624,7 @@
       <c r="AD151" s="3"/>
       <c r="AE151" s="3"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
+    <row r="152" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5801,9 +5656,8 @@
       <c r="AD152" s="3"/>
       <c r="AE152" s="3"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
-      <c r="B153" s="18"/>
+    <row r="153" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B153" s="15"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5835,9 +5689,8 @@
       <c r="AE153" s="3"/>
       <c r="AH153" s="6"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-      <c r="B154" s="18"/>
+    <row r="154" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B154" s="15"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5868,9 +5721,8 @@
       <c r="AD154" s="3"/>
       <c r="AE154" s="3"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
-      <c r="B155" s="18"/>
+    <row r="155" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B155" s="15"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5901,9 +5753,8 @@
       <c r="AD155" s="3"/>
       <c r="AE155" s="3"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-      <c r="B156" s="18"/>
+    <row r="156" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B156" s="15"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5935,9 +5786,8 @@
       <c r="AE156" s="3"/>
       <c r="AH156" s="6"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-      <c r="B157" s="18"/>
+    <row r="157" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B157" s="15"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5968,9 +5818,8 @@
       <c r="AD157" s="3"/>
       <c r="AE157" s="3"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-      <c r="B158" s="18"/>
+    <row r="158" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B158" s="15"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6001,9 +5850,8 @@
       <c r="AD158" s="3"/>
       <c r="AE158" s="3"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
-      <c r="B159" s="18"/>
+    <row r="159" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B159" s="15"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6034,9 +5882,8 @@
       <c r="AD159" s="3"/>
       <c r="AE159" s="3"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-      <c r="B160" s="18"/>
+    <row r="160" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B160" s="15"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6067,9 +5914,8 @@
       <c r="AD160" s="3"/>
       <c r="AE160" s="3"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
-      <c r="B161" s="18"/>
+    <row r="161" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B161" s="15"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6100,9 +5946,8 @@
       <c r="AD161" s="3"/>
       <c r="AE161" s="3"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
-      <c r="B162" s="18"/>
+    <row r="162" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B162" s="15"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6133,8 +5978,7 @@
       <c r="AD162" s="3"/>
       <c r="AE162" s="3"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
+    <row r="163" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -6166,8 +6010,7 @@
       <c r="AD163" s="3"/>
       <c r="AE163" s="3"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
+    <row r="164" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -6199,8 +6042,7 @@
       <c r="AD164" s="3"/>
       <c r="AE164" s="3"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+    <row r="165" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -6232,8 +6074,7 @@
       <c r="AD165" s="3"/>
       <c r="AE165" s="3"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+    <row r="166" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6265,8 +6106,7 @@
       <c r="AD166" s="5"/>
       <c r="AE166" s="3"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+    <row r="167" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6298,8 +6138,7 @@
       <c r="AD167" s="3"/>
       <c r="AE167" s="3"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
+    <row r="168" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6332,8 +6171,7 @@
       <c r="AE168" s="3"/>
       <c r="AH168" s="6"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
+    <row r="169" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6365,8 +6203,7 @@
       <c r="AD169" s="3"/>
       <c r="AE169" s="3"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
+    <row r="170" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -6374,8 +6211,7 @@
       <c r="AC170" s="3"/>
       <c r="AD170" s="3"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
+    <row r="171" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6407,8 +6243,7 @@
       <c r="AD171" s="5"/>
       <c r="AE171" s="3"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
+    <row r="172" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6440,8 +6275,7 @@
       <c r="AD172" s="3"/>
       <c r="AE172" s="3"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
+    <row r="173" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6473,8 +6307,7 @@
       <c r="AD173" s="3"/>
       <c r="AE173" s="3"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
+    <row r="174" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6506,8 +6339,7 @@
       <c r="AD174" s="3"/>
       <c r="AE174" s="3"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
+    <row r="175" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6539,8 +6371,7 @@
       <c r="AD175" s="3"/>
       <c r="AE175" s="3"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
+    <row r="176" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6572,8 +6403,7 @@
       <c r="AD176" s="3"/>
       <c r="AE176" s="3"/>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
+    <row r="177" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6605,8 +6435,7 @@
       <c r="AD177" s="3"/>
       <c r="AE177" s="3"/>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
+    <row r="178" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6638,8 +6467,7 @@
       <c r="AD178" s="3"/>
       <c r="AE178" s="3"/>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
+    <row r="179" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6671,8 +6499,7 @@
       <c r="AD179" s="3"/>
       <c r="AE179" s="3"/>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
+    <row r="180" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6704,8 +6531,7 @@
       <c r="AD180" s="3"/>
       <c r="AE180" s="3"/>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+    <row r="181" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6737,8 +6563,7 @@
       <c r="AD181" s="3"/>
       <c r="AE181" s="3"/>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
+    <row r="182" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6770,8 +6595,7 @@
       <c r="AD182" s="3"/>
       <c r="AE182" s="3"/>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
+    <row r="183" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6803,8 +6627,7 @@
       <c r="AD183" s="3"/>
       <c r="AE183" s="3"/>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
+    <row r="184" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6836,8 +6659,7 @@
       <c r="AD184" s="3"/>
       <c r="AE184" s="3"/>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+    <row r="185" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6869,8 +6691,7 @@
       <c r="AD185" s="3"/>
       <c r="AE185" s="3"/>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
+    <row r="186" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6902,8 +6723,7 @@
       <c r="AD186" s="3"/>
       <c r="AE186" s="3"/>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
+    <row r="187" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -6935,8 +6755,7 @@
       <c r="AD187" s="3"/>
       <c r="AE187" s="3"/>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
+    <row r="188" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -6968,8 +6787,7 @@
       <c r="AD188" s="3"/>
       <c r="AE188" s="3"/>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
+    <row r="189" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -7001,8 +6819,7 @@
       <c r="AD189" s="3"/>
       <c r="AE189" s="3"/>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
+    <row r="190" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -7034,8 +6851,7 @@
       <c r="AD190" s="3"/>
       <c r="AE190" s="3"/>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A191" s="7"/>
+    <row r="191" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -7067,8 +6883,7 @@
       <c r="AD191" s="3"/>
       <c r="AE191" s="3"/>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+    <row r="192" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -7100,8 +6915,7 @@
       <c r="AD192" s="3"/>
       <c r="AE192" s="3"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
+    <row r="193" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -7133,8 +6947,7 @@
       <c r="AD193" s="3"/>
       <c r="AE193" s="3"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A194" s="7"/>
+    <row r="194" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -7166,8 +6979,7 @@
       <c r="AD194" s="3"/>
       <c r="AE194" s="3"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
+    <row r="195" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -7195,8 +7007,7 @@
       <c r="AC195" s="3"/>
       <c r="AD195" s="3"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A196" s="7"/>
+    <row r="196" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -7223,8 +7034,7 @@
       <c r="AC196" s="3"/>
       <c r="AD196" s="3"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
+    <row r="197" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7251,8 +7061,7 @@
       <c r="AC197" s="3"/>
       <c r="AD197" s="3"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
+    <row r="198" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7279,8 +7088,7 @@
       <c r="AC198" s="3"/>
       <c r="AD198" s="3"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A199" s="7"/>
+    <row r="199" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7307,8 +7115,7 @@
       <c r="AC199" s="3"/>
       <c r="AD199" s="3"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
+    <row r="200" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7336,8 +7143,7 @@
       <c r="AC200" s="3"/>
       <c r="AD200" s="3"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
+    <row r="201" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7364,8 +7170,7 @@
       <c r="AC201" s="3"/>
       <c r="AD201" s="3"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
+    <row r="202" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7392,8 +7197,7 @@
       <c r="AC202" s="3"/>
       <c r="AD202" s="3"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
+    <row r="203" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7421,8 +7225,7 @@
       <c r="AC203" s="3"/>
       <c r="AD203" s="3"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
+    <row r="204" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7450,8 +7253,7 @@
       <c r="AC204" s="3"/>
       <c r="AD204" s="3"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
+    <row r="205" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7478,8 +7280,7 @@
       <c r="AC205" s="3"/>
       <c r="AD205" s="3"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
+    <row r="206" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7506,8 +7307,7 @@
       <c r="AC206" s="3"/>
       <c r="AD206" s="3"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
+    <row r="207" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7535,8 +7335,7 @@
       <c r="AC207" s="3"/>
       <c r="AD207" s="3"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
+    <row r="208" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7567,8 +7366,7 @@
       <c r="AD208" s="3"/>
       <c r="AH208" s="6"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
+    <row r="209" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7595,8 +7393,7 @@
       <c r="AC209" s="3"/>
       <c r="AD209" s="3"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
+    <row r="210" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7628,8 +7425,7 @@
       <c r="AD210" s="3"/>
       <c r="AE210" s="3"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+    <row r="211" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7661,8 +7457,7 @@
       <c r="AD211" s="3"/>
       <c r="AE211" s="3"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
+    <row r="212" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7694,8 +7489,7 @@
       <c r="AD212" s="3"/>
       <c r="AE212" s="3"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
+    <row r="213" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7727,8 +7521,7 @@
       <c r="AD213" s="3"/>
       <c r="AE213" s="3"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A214" s="7"/>
+    <row r="214" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7760,8 +7553,7 @@
       <c r="AD214" s="3"/>
       <c r="AE214" s="3"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A215" s="7"/>
+    <row r="215" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7793,8 +7585,7 @@
       <c r="AD215" s="3"/>
       <c r="AE215" s="3"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A216" s="7"/>
+    <row r="216" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7826,8 +7617,7 @@
       <c r="AD216" s="3"/>
       <c r="AE216" s="3"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A217" s="7"/>
+    <row r="217" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7859,8 +7649,7 @@
       <c r="AD217" s="3"/>
       <c r="AE217" s="3"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
+    <row r="218" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7892,8 +7681,7 @@
       <c r="AD218" s="3"/>
       <c r="AE218" s="3"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
+    <row r="219" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7925,8 +7713,7 @@
       <c r="AD219" s="3"/>
       <c r="AE219" s="3"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A220" s="7"/>
+    <row r="220" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7958,8 +7745,7 @@
       <c r="AD220" s="3"/>
       <c r="AE220" s="3"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A221" s="7"/>
+    <row r="221" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7992,8 +7778,7 @@
       <c r="AE221" s="3"/>
       <c r="AH221" s="6"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A222" s="7"/>
+    <row r="222" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -8025,8 +7810,7 @@
       <c r="AD222" s="3"/>
       <c r="AE222" s="3"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+    <row r="223" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -8058,8 +7842,7 @@
       <c r="AD223" s="3"/>
       <c r="AE223" s="3"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+    <row r="224" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -8091,8 +7874,7 @@
       <c r="AD224" s="3"/>
       <c r="AE224" s="3"/>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+    <row r="225" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -8124,8 +7906,7 @@
       <c r="AD225" s="3"/>
       <c r="AE225" s="3"/>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A226" s="7"/>
+    <row r="226" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -8157,8 +7938,7 @@
       <c r="AD226" s="3"/>
       <c r="AE226" s="3"/>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A227" s="7"/>
+    <row r="227" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -8190,8 +7970,7 @@
       <c r="AD227" s="3"/>
       <c r="AE227" s="3"/>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
+    <row r="228" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8223,8 +8002,7 @@
       <c r="AD228" s="3"/>
       <c r="AE228" s="3"/>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A229" s="7"/>
+    <row r="229" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8256,8 +8034,7 @@
       <c r="AD229" s="3"/>
       <c r="AE229" s="3"/>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A230" s="7"/>
+    <row r="230" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8289,8 +8066,7 @@
       <c r="AD230" s="3"/>
       <c r="AE230" s="3"/>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
+    <row r="231" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8322,8 +8098,7 @@
       <c r="AD231" s="3"/>
       <c r="AE231" s="3"/>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A232" s="7"/>
+    <row r="232" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8355,8 +8130,7 @@
       <c r="AD232" s="3"/>
       <c r="AE232" s="3"/>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A233" s="7"/>
+    <row r="233" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8388,8 +8162,7 @@
       <c r="AD233" s="3"/>
       <c r="AE233" s="3"/>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A234" s="7"/>
+    <row r="234" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8421,8 +8194,7 @@
       <c r="AD234" s="3"/>
       <c r="AE234" s="3"/>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A235" s="7"/>
+    <row r="235" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8449,8 +8221,7 @@
       <c r="AC235" s="3"/>
       <c r="AD235" s="3"/>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A236" s="7"/>
+    <row r="236" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8477,8 +8248,7 @@
       <c r="AC236" s="3"/>
       <c r="AD236" s="3"/>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A237" s="7"/>
+    <row r="237" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8510,8 +8280,7 @@
       <c r="AD237" s="3"/>
       <c r="AE237" s="3"/>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A238" s="7"/>
+    <row r="238" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8538,8 +8307,7 @@
       <c r="AC238" s="3"/>
       <c r="AD238" s="3"/>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A239" s="7"/>
+    <row r="239" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8571,8 +8339,7 @@
       <c r="AD239" s="3"/>
       <c r="AE239" s="3"/>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A240" s="7"/>
+    <row r="240" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8604,8 +8371,7 @@
       <c r="AD240" s="3"/>
       <c r="AE240" s="3"/>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A241" s="7"/>
+    <row r="241" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8637,11 +8403,7 @@
       <c r="AD241" s="3"/>
       <c r="AE241" s="3"/>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A242" s="7"/>
-    </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A243" s="7"/>
+    <row r="243" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8673,8 +8435,7 @@
       <c r="AD243" s="3"/>
       <c r="AE243" s="3"/>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A244" s="7"/>
+    <row r="244" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8702,8 +8463,7 @@
       <c r="AC244" s="3"/>
       <c r="AD244" s="3"/>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A245" s="7"/>
+    <row r="245" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8731,8 +8491,7 @@
       <c r="AC245" s="3"/>
       <c r="AD245" s="3"/>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A246" s="7"/>
+    <row r="246" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8760,8 +8519,7 @@
       <c r="AC246" s="3"/>
       <c r="AD246" s="3"/>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A247" s="7"/>
+    <row r="247" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8789,8 +8547,7 @@
       <c r="AC247" s="3"/>
       <c r="AD247" s="3"/>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A248" s="7"/>
+    <row r="248" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8818,8 +8575,7 @@
       <c r="AC248" s="3"/>
       <c r="AD248" s="3"/>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A249" s="7"/>
+    <row r="249" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8851,8 +8607,7 @@
       <c r="AD249" s="3"/>
       <c r="AE249" s="3"/>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A250" s="7"/>
+    <row r="250" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8884,8 +8639,7 @@
       <c r="AD250" s="3"/>
       <c r="AE250" s="3"/>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A251" s="7"/>
+    <row r="251" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8917,8 +8671,7 @@
       <c r="AD251" s="3"/>
       <c r="AE251" s="3"/>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A252" s="7"/>
+    <row r="252" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8950,8 +8703,7 @@
       <c r="AD252" s="3"/>
       <c r="AE252" s="3"/>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A253" s="7"/>
+    <row r="253" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8983,8 +8735,7 @@
       <c r="AD253" s="3"/>
       <c r="AE253" s="3"/>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A254" s="7"/>
+    <row r="254" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -9016,8 +8767,7 @@
       <c r="AD254" s="3"/>
       <c r="AE254" s="3"/>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A255" s="7"/>
+    <row r="255" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -9044,8 +8794,7 @@
       <c r="AC255" s="3"/>
       <c r="AD255" s="3"/>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A256" s="7"/>
+    <row r="256" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -9077,8 +8826,7 @@
       <c r="AD256" s="3"/>
       <c r="AE256" s="3"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A257" s="7"/>
+    <row r="257" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -9110,8 +8858,7 @@
       <c r="AD257" s="3"/>
       <c r="AE257" s="3"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A258" s="7"/>
+    <row r="258" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -9143,8 +8890,7 @@
       <c r="AD258" s="3"/>
       <c r="AE258" s="3"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A259" s="7"/>
+    <row r="259" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -9176,8 +8922,7 @@
       <c r="AD259" s="3"/>
       <c r="AE259" s="3"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A260" s="7"/>
+    <row r="260" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9209,8 +8954,7 @@
       <c r="AD260" s="3"/>
       <c r="AE260" s="3"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A261" s="7"/>
+    <row r="261" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9237,8 +8981,7 @@
       <c r="AC261" s="3"/>
       <c r="AD261" s="3"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A262" s="7"/>
+    <row r="262" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9267,8 +9010,7 @@
       <c r="AC262" s="3"/>
       <c r="AD262" s="3"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A263" s="7"/>
+    <row r="263" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9295,8 +9037,7 @@
       <c r="AC263" s="3"/>
       <c r="AD263" s="3"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A264" s="7"/>
+    <row r="264" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9324,8 +9065,7 @@
       <c r="AC264" s="3"/>
       <c r="AD264" s="3"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A265" s="7"/>
+    <row r="265" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -9352,8 +9092,7 @@
       <c r="AC265" s="3"/>
       <c r="AD265" s="3"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A266" s="7"/>
+    <row r="266" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -9380,8 +9119,7 @@
       <c r="AC266" s="3"/>
       <c r="AD266" s="3"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A267" s="7"/>
+    <row r="267" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9409,8 +9147,7 @@
       <c r="AC267" s="3"/>
       <c r="AD267" s="3"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A268" s="7"/>
+    <row r="268" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9437,8 +9174,7 @@
       <c r="AC268" s="3"/>
       <c r="AD268" s="3"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A269" s="7"/>
+    <row r="269" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9470,8 +9206,7 @@
       <c r="AD269" s="3"/>
       <c r="AE269" s="3"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A270" s="7"/>
+    <row r="270" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9503,8 +9238,7 @@
       <c r="AD270" s="3"/>
       <c r="AE270" s="3"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A271" s="7"/>
+    <row r="271" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9537,8 +9271,7 @@
       <c r="AE271" s="3"/>
       <c r="AH271" s="6"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A272" s="7"/>
+    <row r="272" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9570,8 +9303,7 @@
       <c r="AD272" s="3"/>
       <c r="AE272" s="3"/>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A273" s="7"/>
+    <row r="273" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9603,8 +9335,7 @@
       <c r="AD273" s="3"/>
       <c r="AE273" s="3"/>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A274" s="7"/>
+    <row r="274" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9636,8 +9367,7 @@
       <c r="AD274" s="3"/>
       <c r="AE274" s="3"/>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A275" s="7"/>
+    <row r="275" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -9669,8 +9399,7 @@
       <c r="AD275" s="3"/>
       <c r="AE275" s="3"/>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A276" s="7"/>
+    <row r="276" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -9702,8 +9431,7 @@
       <c r="AD276" s="3"/>
       <c r="AE276" s="3"/>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A277" s="7"/>
+    <row r="277" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -9730,8 +9458,7 @@
       <c r="AC277" s="3"/>
       <c r="AD277" s="3"/>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A278" s="7"/>
+    <row r="278" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -9763,8 +9490,7 @@
       <c r="AD278" s="3"/>
       <c r="AE278" s="3"/>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A279" s="7"/>
+    <row r="279" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -9792,8 +9518,7 @@
       <c r="AC279" s="3"/>
       <c r="AD279" s="3"/>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A280" s="7"/>
+    <row r="280" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9820,8 +9545,7 @@
       <c r="AC280" s="3"/>
       <c r="AD280" s="3"/>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+    <row r="281" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9848,8 +9572,7 @@
       <c r="AC281" s="3"/>
       <c r="AD281" s="3"/>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+    <row r="282" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9876,8 +9599,7 @@
       <c r="AC282" s="3"/>
       <c r="AD282" s="3"/>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+    <row r="283" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9905,8 +9627,7 @@
       <c r="AC283" s="3"/>
       <c r="AD283" s="3"/>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A284" s="7"/>
+    <row r="284" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -9935,8 +9656,7 @@
       <c r="AC284" s="3"/>
       <c r="AD284" s="3"/>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A285" s="7"/>
+    <row r="285" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -9968,8 +9688,7 @@
       <c r="AD285" s="3"/>
       <c r="AE285" s="3"/>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A286" s="7"/>
+    <row r="286" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9998,8 +9717,7 @@
       <c r="AC286" s="3"/>
       <c r="AD286" s="3"/>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A287" s="7"/>
+    <row r="287" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -10026,8 +9744,7 @@
       <c r="AC287" s="3"/>
       <c r="AD287" s="3"/>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A288" s="7"/>
+    <row r="288" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -10054,8 +9771,7 @@
       <c r="AC288" s="3"/>
       <c r="AD288" s="3"/>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A289" s="7"/>
+    <row r="289" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -10082,8 +9798,7 @@
       <c r="AC289" s="3"/>
       <c r="AD289" s="3"/>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A290" s="7"/>
+    <row r="290" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -10110,8 +9825,7 @@
       <c r="AC290" s="3"/>
       <c r="AD290" s="3"/>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A291" s="7"/>
+    <row r="291" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -10138,8 +9852,7 @@
       <c r="AC291" s="3"/>
       <c r="AD291" s="3"/>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A292" s="7"/>
+    <row r="292" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -10166,8 +9879,7 @@
       <c r="AC292" s="3"/>
       <c r="AD292" s="3"/>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A293" s="7"/>
+    <row r="293" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -10194,8 +9906,7 @@
       <c r="AC293" s="3"/>
       <c r="AD293" s="3"/>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A294" s="7"/>
+    <row r="294" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -10224,8 +9935,7 @@
       <c r="AC294" s="3"/>
       <c r="AD294" s="3"/>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A295" s="7"/>
+    <row r="295" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -10252,8 +9962,7 @@
       <c r="AC295" s="3"/>
       <c r="AD295" s="3"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A296" s="7"/>
+    <row r="296" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -10280,8 +9989,7 @@
       <c r="AC296" s="3"/>
       <c r="AD296" s="3"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A297" s="7"/>
+    <row r="297" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -10308,8 +10016,7 @@
       <c r="AC297" s="3"/>
       <c r="AD297" s="3"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A298" s="7"/>
+    <row r="298" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -10342,8 +10049,7 @@
       <c r="AE298" s="3"/>
       <c r="AH298" s="6"/>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A299" s="7"/>
+    <row r="299" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10375,8 +10081,7 @@
       <c r="AD299" s="3"/>
       <c r="AE299" s="3"/>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A300" s="7"/>
+    <row r="300" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10408,8 +10113,7 @@
       <c r="AD300" s="3"/>
       <c r="AE300" s="3"/>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A301" s="7"/>
+    <row r="301" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10441,8 +10145,7 @@
       <c r="AD301" s="3"/>
       <c r="AE301" s="3"/>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A302" s="7"/>
+    <row r="302" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10474,8 +10177,7 @@
       <c r="AD302" s="3"/>
       <c r="AE302" s="3"/>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A303" s="7"/>
+    <row r="303" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10507,8 +10209,7 @@
       <c r="AD303" s="3"/>
       <c r="AE303" s="3"/>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A304" s="7"/>
+    <row r="304" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10540,8 +10241,7 @@
       <c r="AD304" s="3"/>
       <c r="AE304" s="3"/>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A305" s="7"/>
+    <row r="305" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10573,8 +10273,7 @@
       <c r="AD305" s="3"/>
       <c r="AE305" s="3"/>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A306" s="7"/>
+    <row r="306" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -10606,8 +10305,7 @@
       <c r="AD306" s="3"/>
       <c r="AE306" s="3"/>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A307" s="7"/>
+    <row r="307" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -10639,8 +10337,7 @@
       <c r="AD307" s="3"/>
       <c r="AE307" s="3"/>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A308" s="7"/>
+    <row r="308" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -10672,8 +10369,7 @@
       <c r="AD308" s="3"/>
       <c r="AE308" s="3"/>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A309" s="7"/>
+    <row r="309" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10705,8 +10401,7 @@
       <c r="AD309" s="3"/>
       <c r="AE309" s="3"/>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A310" s="7"/>
+    <row r="310" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10738,8 +10433,7 @@
       <c r="AD310" s="3"/>
       <c r="AE310" s="3"/>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A311" s="7"/>
+    <row r="311" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -10771,8 +10465,7 @@
       <c r="AD311" s="3"/>
       <c r="AE311" s="3"/>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A312" s="7"/>
+    <row r="312" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10804,8 +10497,7 @@
       <c r="AD312" s="3"/>
       <c r="AE312" s="3"/>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A313" s="7"/>
+    <row r="313" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -10837,8 +10529,7 @@
       <c r="AD313" s="3"/>
       <c r="AE313" s="3"/>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A314" s="7"/>
+    <row r="314" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10870,8 +10561,7 @@
       <c r="AD314" s="3"/>
       <c r="AE314" s="3"/>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A315" s="7"/>
+    <row r="315" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -10903,8 +10593,7 @@
       <c r="AD315" s="3"/>
       <c r="AE315" s="3"/>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A316" s="7"/>
+    <row r="316" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -10936,8 +10625,7 @@
       <c r="AD316" s="3"/>
       <c r="AE316" s="3"/>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A317" s="7"/>
+    <row r="317" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -10969,8 +10657,7 @@
       <c r="AD317" s="3"/>
       <c r="AE317" s="3"/>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A318" s="7"/>
+    <row r="318" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -11002,8 +10689,7 @@
       <c r="AD318" s="3"/>
       <c r="AE318" s="3"/>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A319" s="7"/>
+    <row r="319" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -11035,8 +10721,7 @@
       <c r="AD319" s="3"/>
       <c r="AE319" s="3"/>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A320" s="7"/>
+    <row r="320" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -11068,8 +10753,7 @@
       <c r="AD320" s="3"/>
       <c r="AE320" s="3"/>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A321" s="7"/>
+    <row r="321" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -11101,8 +10785,7 @@
       <c r="AD321" s="3"/>
       <c r="AE321" s="3"/>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A322" s="7"/>
+    <row r="322" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -11134,8 +10817,7 @@
       <c r="AD322" s="3"/>
       <c r="AE322" s="3"/>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A323" s="7"/>
+    <row r="323" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -11167,8 +10849,7 @@
       <c r="AD323" s="3"/>
       <c r="AE323" s="3"/>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A324" s="7"/>
+    <row r="324" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -11200,8 +10881,7 @@
       <c r="AD324" s="3"/>
       <c r="AE324" s="3"/>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A325" s="7"/>
+    <row r="325" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -11233,8 +10913,7 @@
       <c r="AD325" s="3"/>
       <c r="AE325" s="3"/>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A326" s="7"/>
+    <row r="326" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -11266,8 +10945,7 @@
       <c r="AD326" s="3"/>
       <c r="AE326" s="3"/>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A327" s="7"/>
+    <row r="327" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -11299,8 +10977,7 @@
       <c r="AD327" s="3"/>
       <c r="AE327" s="3"/>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A328" s="7"/>
+    <row r="328" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -11332,8 +11009,7 @@
       <c r="AD328" s="3"/>
       <c r="AE328" s="3"/>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A329" s="7"/>
+    <row r="329" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -11365,8 +11041,7 @@
       <c r="AD329" s="3"/>
       <c r="AE329" s="3"/>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A330" s="7"/>
+    <row r="330" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11398,8 +11073,7 @@
       <c r="AD330" s="3"/>
       <c r="AE330" s="3"/>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A331" s="7"/>
+    <row r="331" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11431,8 +11105,7 @@
       <c r="AD331" s="3"/>
       <c r="AE331" s="3"/>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A332" s="7"/>
+    <row r="332" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11465,8 +11138,7 @@
       <c r="AE332" s="3"/>
       <c r="AH332" s="6"/>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A333" s="7"/>
+    <row r="333" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11498,527 +11170,7 @@
       <c r="AD333" s="3"/>
       <c r="AE333" s="3"/>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A334" s="7"/>
-    </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A335" s="7"/>
-    </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A336" s="7"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="7"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="7"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="7"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="7"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="7"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="7"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="7"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="7"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="7"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="7"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="7"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="7"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="7"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="7"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="7"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="7"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="7"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="7"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="7"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="7"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="7"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="7"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="7"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="7"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="7"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="7"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="7"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="7"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="7"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="7"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="7"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="7"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="7"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="7"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="7"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="7"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="7"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="7"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="7"/>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="7"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="7"/>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="7"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="7"/>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="7"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="7"/>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="7"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="7"/>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="7"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="7"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="7"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="7"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="7"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="7"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="7"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="7"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="7"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="7"/>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="7"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="7"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="7"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="7"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="7"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="7"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="7"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="7"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="7"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="7"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="7"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="7"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="7"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="7"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="7"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="7"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="7"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="7"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="7"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="7"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="7"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="7"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="7"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="7"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="7"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="7"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="7"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="7"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="7"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="7"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="7"/>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="7"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="7"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="7"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="7"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="7"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="7"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="7"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="7"/>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="7"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="7"/>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="7"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="7"/>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="7"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="7"/>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="7"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="7"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="7"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="7"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="7"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="7"/>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="7"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="7"/>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="7"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="7"/>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="7"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="7"/>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="7"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="7"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="7"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="7"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="7"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="7"/>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="7"/>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="7"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="7"/>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="7"/>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="7"/>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="7"/>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="7"/>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="7"/>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="7"/>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="7"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="7"/>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="7"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="7"/>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="7"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="7"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="7"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="7"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="7"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="7"/>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="7"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="7"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="7"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="7"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="7"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="7"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="7"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="7"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="7"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="7"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="7"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="7"/>
-    </row>
-    <row r="497" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A497" s="7"/>
-    </row>
-    <row r="498" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A498" s="7"/>
-    </row>
-    <row r="499" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A499" s="7"/>
-    </row>
-    <row r="500" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A500" s="7"/>
-    </row>
-    <row r="501" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A501" s="7"/>
-    </row>
-    <row r="502" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A502" s="7"/>
-    </row>
-    <row r="503" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A503" s="7"/>
-    </row>
-    <row r="504" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A504" s="7"/>
-    </row>
-    <row r="505" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A505" s="7"/>
-    </row>
-    <row r="506" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A506" s="7"/>
-    </row>
-    <row r="507" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A507" s="7"/>
+    <row r="507" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -12048,14 +11200,7 @@
       <c r="AC507" s="3"/>
       <c r="AD507" s="3"/>
     </row>
-    <row r="508" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A508" s="7"/>
-    </row>
-    <row r="509" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A509" s="7"/>
-    </row>
-    <row r="510" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A510" s="7"/>
+    <row r="510" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -12085,8 +11230,7 @@
       <c r="AC510" s="3"/>
       <c r="AD510" s="3"/>
     </row>
-    <row r="511" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A511" s="7"/>
+    <row r="511" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -12116,8 +11260,7 @@
       <c r="AC511" s="3"/>
       <c r="AD511" s="3"/>
     </row>
-    <row r="512" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A512" s="7"/>
+    <row r="512" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -12147,8 +11290,7 @@
       <c r="AC512" s="3"/>
       <c r="AD512" s="3"/>
     </row>
-    <row r="513" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A513" s="7"/>
+    <row r="513" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -12178,8 +11320,7 @@
       <c r="AC513" s="3"/>
       <c r="AD513" s="3"/>
     </row>
-    <row r="514" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A514" s="7"/>
+    <row r="514" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -12209,8 +11350,7 @@
       <c r="AC514" s="3"/>
       <c r="AD514" s="3"/>
     </row>
-    <row r="515" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A515" s="7"/>
+    <row r="515" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -12240,8 +11380,7 @@
       <c r="AC515" s="3"/>
       <c r="AD515" s="3"/>
     </row>
-    <row r="516" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A516" s="7"/>
+    <row r="516" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -12271,8 +11410,7 @@
       <c r="AC516" s="3"/>
       <c r="AD516" s="3"/>
     </row>
-    <row r="517" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A517" s="7"/>
+    <row r="517" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -12302,8 +11440,7 @@
       <c r="AC517" s="3"/>
       <c r="AD517" s="3"/>
     </row>
-    <row r="518" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A518" s="7"/>
+    <row r="518" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -12333,8 +11470,7 @@
       <c r="AC518" s="3"/>
       <c r="AD518" s="3"/>
     </row>
-    <row r="519" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A519" s="7"/>
+    <row r="519" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -12364,8 +11500,7 @@
       <c r="AC519" s="3"/>
       <c r="AD519" s="3"/>
     </row>
-    <row r="520" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A520" s="7"/>
+    <row r="520" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -12395,8 +11530,7 @@
       <c r="AC520" s="3"/>
       <c r="AD520" s="3"/>
     </row>
-    <row r="521" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A521" s="7"/>
+    <row r="521" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -12426,8 +11560,7 @@
       <c r="AC521" s="3"/>
       <c r="AD521" s="3"/>
     </row>
-    <row r="522" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A522" s="7"/>
+    <row r="522" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -12457,8 +11590,7 @@
       <c r="AC522" s="3"/>
       <c r="AD522" s="3"/>
     </row>
-    <row r="523" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A523" s="7"/>
+    <row r="523" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -12488,8 +11620,7 @@
       <c r="AC523" s="3"/>
       <c r="AD523" s="3"/>
     </row>
-    <row r="524" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A524" s="7"/>
+    <row r="524" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -12519,8 +11650,7 @@
       <c r="AC524" s="3"/>
       <c r="AD524" s="3"/>
     </row>
-    <row r="525" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A525" s="7"/>
+    <row r="525" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -12550,8 +11680,7 @@
       <c r="AC525" s="3"/>
       <c r="AD525" s="3"/>
     </row>
-    <row r="526" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A526" s="7"/>
+    <row r="526" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -12581,8 +11710,7 @@
       <c r="AC526" s="3"/>
       <c r="AD526" s="3"/>
     </row>
-    <row r="527" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A527" s="7"/>
+    <row r="527" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -12612,8 +11740,7 @@
       <c r="AC527" s="3"/>
       <c r="AD527" s="3"/>
     </row>
-    <row r="528" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A528" s="7"/>
+    <row r="528" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -12643,8 +11770,7 @@
       <c r="AC528" s="3"/>
       <c r="AD528" s="3"/>
     </row>
-    <row r="529" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A529" s="7"/>
+    <row r="529" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -12674,8 +11800,7 @@
       <c r="AC529" s="3"/>
       <c r="AD529" s="3"/>
     </row>
-    <row r="530" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A530" s="7"/>
+    <row r="530" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -12705,8 +11830,7 @@
       <c r="AC530" s="3"/>
       <c r="AD530" s="3"/>
     </row>
-    <row r="531" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A531" s="7"/>
+    <row r="531" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -12736,8 +11860,7 @@
       <c r="AC531" s="3"/>
       <c r="AD531" s="3"/>
     </row>
-    <row r="532" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A532" s="7"/>
+    <row r="532" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -12767,8 +11890,7 @@
       <c r="AC532" s="3"/>
       <c r="AD532" s="3"/>
     </row>
-    <row r="533" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A533" s="7"/>
+    <row r="533" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -12798,8 +11920,7 @@
       <c r="AC533" s="3"/>
       <c r="AD533" s="3"/>
     </row>
-    <row r="534" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A534" s="7"/>
+    <row r="534" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -12829,8 +11950,7 @@
       <c r="AC534" s="3"/>
       <c r="AD534" s="3"/>
     </row>
-    <row r="535" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A535" s="7"/>
+    <row r="535" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -12860,8 +11980,7 @@
       <c r="AC535" s="3"/>
       <c r="AD535" s="3"/>
     </row>
-    <row r="536" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A536" s="7"/>
+    <row r="536" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -12891,8 +12010,7 @@
       <c r="AC536" s="3"/>
       <c r="AD536" s="3"/>
     </row>
-    <row r="537" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A537" s="7"/>
+    <row r="537" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -12922,8 +12040,7 @@
       <c r="AC537" s="3"/>
       <c r="AD537" s="3"/>
     </row>
-    <row r="538" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A538" s="7"/>
+    <row r="538" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -12953,8 +12070,7 @@
       <c r="AC538" s="3"/>
       <c r="AD538" s="3"/>
     </row>
-    <row r="539" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A539" s="7"/>
+    <row r="539" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -12984,8 +12100,7 @@
       <c r="AC539" s="3"/>
       <c r="AD539" s="3"/>
     </row>
-    <row r="540" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A540" s="7"/>
+    <row r="540" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -13015,8 +12130,7 @@
       <c r="AC540" s="3"/>
       <c r="AD540" s="3"/>
     </row>
-    <row r="541" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A541" s="7"/>
+    <row r="541" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -13046,8 +12160,7 @@
       <c r="AC541" s="3"/>
       <c r="AD541" s="3"/>
     </row>
-    <row r="542" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A542" s="7"/>
+    <row r="542" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -13077,8 +12190,7 @@
       <c r="AC542" s="3"/>
       <c r="AD542" s="3"/>
     </row>
-    <row r="543" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A543" s="7"/>
+    <row r="543" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -13108,8 +12220,7 @@
       <c r="AC543" s="3"/>
       <c r="AD543" s="3"/>
     </row>
-    <row r="544" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A544" s="7"/>
+    <row r="544" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -13139,8 +12250,7 @@
       <c r="AC544" s="3"/>
       <c r="AD544" s="3"/>
     </row>
-    <row r="545" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A545" s="7"/>
+    <row r="545" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -13170,8 +12280,7 @@
       <c r="AC545" s="3"/>
       <c r="AD545" s="3"/>
     </row>
-    <row r="546" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A546" s="7"/>
+    <row r="546" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -13201,8 +12310,7 @@
       <c r="AC546" s="3"/>
       <c r="AD546" s="3"/>
     </row>
-    <row r="547" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A547" s="7"/>
+    <row r="547" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -13232,8 +12340,7 @@
       <c r="AC547" s="3"/>
       <c r="AD547" s="3"/>
     </row>
-    <row r="548" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A548" s="7"/>
+    <row r="548" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -13263,8 +12370,7 @@
       <c r="AC548" s="3"/>
       <c r="AD548" s="3"/>
     </row>
-    <row r="549" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A549" s="7"/>
+    <row r="549" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -13294,8 +12400,7 @@
       <c r="AC549" s="3"/>
       <c r="AD549" s="3"/>
     </row>
-    <row r="550" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A550" s="7"/>
+    <row r="550" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -13325,8 +12430,7 @@
       <c r="AC550" s="3"/>
       <c r="AD550" s="3"/>
     </row>
-    <row r="551" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A551" s="7"/>
+    <row r="551" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -13356,8 +12460,7 @@
       <c r="AC551" s="3"/>
       <c r="AD551" s="3"/>
     </row>
-    <row r="552" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A552" s="7"/>
+    <row r="552" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -13387,8 +12490,7 @@
       <c r="AC552" s="3"/>
       <c r="AD552" s="3"/>
     </row>
-    <row r="553" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A553" s="7"/>
+    <row r="553" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -13418,8 +12520,7 @@
       <c r="AC553" s="3"/>
       <c r="AD553" s="3"/>
     </row>
-    <row r="554" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A554" s="7"/>
+    <row r="554" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -13449,8 +12550,7 @@
       <c r="AC554" s="3"/>
       <c r="AD554" s="3"/>
     </row>
-    <row r="555" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A555" s="7"/>
+    <row r="555" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -13480,8 +12580,7 @@
       <c r="AC555" s="3"/>
       <c r="AD555" s="3"/>
     </row>
-    <row r="556" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A556" s="7"/>
+    <row r="556" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -13511,8 +12610,7 @@
       <c r="AC556" s="3"/>
       <c r="AD556" s="3"/>
     </row>
-    <row r="557" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A557" s="7"/>
+    <row r="557" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -13542,11 +12640,7 @@
       <c r="AC557" s="3"/>
       <c r="AD557" s="3"/>
     </row>
-    <row r="558" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A558" s="7"/>
-    </row>
-    <row r="559" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A559" s="7"/>
+    <row r="559" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -13576,8 +12670,7 @@
       <c r="AC559" s="3"/>
       <c r="AD559" s="3"/>
     </row>
-    <row r="560" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A560" s="7"/>
+    <row r="560" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -13607,8 +12700,7 @@
       <c r="AC560" s="3"/>
       <c r="AD560" s="3"/>
     </row>
-    <row r="561" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A561" s="7"/>
+    <row r="561" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -13638,8 +12730,7 @@
       <c r="AC561" s="3"/>
       <c r="AD561" s="3"/>
     </row>
-    <row r="562" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A562" s="7"/>
+    <row r="562" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -13669,8 +12760,7 @@
       <c r="AC562" s="3"/>
       <c r="AD562" s="3"/>
     </row>
-    <row r="563" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A563" s="7"/>
+    <row r="563" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -13700,8 +12790,7 @@
       <c r="AC563" s="3"/>
       <c r="AD563" s="3"/>
     </row>
-    <row r="564" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A564" s="7"/>
+    <row r="564" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -13731,8 +12820,7 @@
       <c r="AC564" s="3"/>
       <c r="AD564" s="3"/>
     </row>
-    <row r="565" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A565" s="7"/>
+    <row r="565" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -13762,8 +12850,7 @@
       <c r="AC565" s="3"/>
       <c r="AD565" s="3"/>
     </row>
-    <row r="566" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A566" s="7"/>
+    <row r="566" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -13793,8 +12880,7 @@
       <c r="AC566" s="3"/>
       <c r="AD566" s="3"/>
     </row>
-    <row r="567" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A567" s="7"/>
+    <row r="567" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -13824,8 +12910,7 @@
       <c r="AC567" s="3"/>
       <c r="AD567" s="3"/>
     </row>
-    <row r="568" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A568" s="7"/>
+    <row r="568" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -13855,8 +12940,7 @@
       <c r="AC568" s="3"/>
       <c r="AD568" s="3"/>
     </row>
-    <row r="569" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A569" s="7"/>
+    <row r="569" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -13886,8 +12970,7 @@
       <c r="AC569" s="3"/>
       <c r="AD569" s="3"/>
     </row>
-    <row r="570" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A570" s="7"/>
+    <row r="570" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -13918,8 +13001,7 @@
       <c r="AD570" s="3"/>
       <c r="AH570" s="6"/>
     </row>
-    <row r="571" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A571" s="7"/>
+    <row r="571" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -13949,8 +13031,7 @@
       <c r="AC571" s="3"/>
       <c r="AD571" s="3"/>
     </row>
-    <row r="572" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A572" s="7"/>
+    <row r="572" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -13981,8 +13062,7 @@
       <c r="AD572" s="3"/>
       <c r="AH572" s="6"/>
     </row>
-    <row r="573" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A573" s="7"/>
+    <row r="573" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -14012,8 +13092,7 @@
       <c r="AC573" s="3"/>
       <c r="AD573" s="3"/>
     </row>
-    <row r="574" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A574" s="7"/>
+    <row r="574" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -14043,8 +13122,7 @@
       <c r="AC574" s="3"/>
       <c r="AD574" s="3"/>
     </row>
-    <row r="575" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A575" s="7"/>
+    <row r="575" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -14074,8 +13152,7 @@
       <c r="AC575" s="3"/>
       <c r="AD575" s="3"/>
     </row>
-    <row r="576" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A576" s="7"/>
+    <row r="576" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -14105,8 +13182,7 @@
       <c r="AC576" s="3"/>
       <c r="AD576" s="3"/>
     </row>
-    <row r="577" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A577" s="7"/>
+    <row r="577" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -14136,8 +13212,7 @@
       <c r="AC577" s="3"/>
       <c r="AD577" s="3"/>
     </row>
-    <row r="578" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A578" s="7"/>
+    <row r="578" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -14167,8 +13242,7 @@
       <c r="AC578" s="3"/>
       <c r="AD578" s="3"/>
     </row>
-    <row r="579" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A579" s="7"/>
+    <row r="579" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -14198,8 +13272,7 @@
       <c r="AC579" s="3"/>
       <c r="AD579" s="3"/>
     </row>
-    <row r="580" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A580" s="7"/>
+    <row r="580" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -14229,8 +13302,7 @@
       <c r="AC580" s="3"/>
       <c r="AD580" s="3"/>
     </row>
-    <row r="581" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A581" s="7"/>
+    <row r="581" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -14260,8 +13332,7 @@
       <c r="AC581" s="3"/>
       <c r="AD581" s="3"/>
     </row>
-    <row r="582" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A582" s="7"/>
+    <row r="582" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -14291,8 +13362,7 @@
       <c r="AC582" s="3"/>
       <c r="AD582" s="3"/>
     </row>
-    <row r="583" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A583" s="7"/>
+    <row r="583" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -14322,8 +13392,7 @@
       <c r="AC583" s="3"/>
       <c r="AD583" s="3"/>
     </row>
-    <row r="584" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A584" s="7"/>
+    <row r="584" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -14353,8 +13422,7 @@
       <c r="AC584" s="3"/>
       <c r="AD584" s="3"/>
     </row>
-    <row r="585" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A585" s="7"/>
+    <row r="585" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -14384,8 +13452,7 @@
       <c r="AC585" s="3"/>
       <c r="AD585" s="3"/>
     </row>
-    <row r="586" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A586" s="7"/>
+    <row r="586" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -14415,8 +13482,7 @@
       <c r="AC586" s="3"/>
       <c r="AD586" s="3"/>
     </row>
-    <row r="587" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A587" s="7"/>
+    <row r="587" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -14446,8 +13512,7 @@
       <c r="AC587" s="3"/>
       <c r="AD587" s="3"/>
     </row>
-    <row r="588" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A588" s="7"/>
+    <row r="588" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -14477,8 +13542,7 @@
       <c r="AC588" s="3"/>
       <c r="AD588" s="3"/>
     </row>
-    <row r="589" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A589" s="7"/>
+    <row r="589" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -14508,8 +13572,7 @@
       <c r="AC589" s="3"/>
       <c r="AD589" s="3"/>
     </row>
-    <row r="590" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A590" s="7"/>
+    <row r="590" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -14539,8 +13602,7 @@
       <c r="AC590" s="3"/>
       <c r="AD590" s="3"/>
     </row>
-    <row r="591" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A591" s="7"/>
+    <row r="591" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -14570,8 +13632,7 @@
       <c r="AC591" s="3"/>
       <c r="AD591" s="3"/>
     </row>
-    <row r="592" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A592" s="7"/>
+    <row r="592" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -14601,8 +13662,7 @@
       <c r="AC592" s="3"/>
       <c r="AD592" s="3"/>
     </row>
-    <row r="593" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A593" s="7"/>
+    <row r="593" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -14632,8 +13692,7 @@
       <c r="AC593" s="3"/>
       <c r="AD593" s="3"/>
     </row>
-    <row r="594" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A594" s="7"/>
+    <row r="594" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -14663,8 +13722,7 @@
       <c r="AC594" s="3"/>
       <c r="AD594" s="3"/>
     </row>
-    <row r="595" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A595" s="7"/>
+    <row r="595" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -14694,8 +13752,7 @@
       <c r="AC595" s="3"/>
       <c r="AD595" s="3"/>
     </row>
-    <row r="596" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A596" s="7"/>
+    <row r="596" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -14725,8 +13782,7 @@
       <c r="AC596" s="3"/>
       <c r="AD596" s="3"/>
     </row>
-    <row r="597" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A597" s="7"/>
+    <row r="597" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -14756,8 +13812,7 @@
       <c r="AC597" s="3"/>
       <c r="AD597" s="3"/>
     </row>
-    <row r="598" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A598" s="7"/>
+    <row r="598" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -14787,8 +13842,7 @@
       <c r="AC598" s="3"/>
       <c r="AD598" s="3"/>
     </row>
-    <row r="599" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A599" s="7"/>
+    <row r="599" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -14818,8 +13872,7 @@
       <c r="AC599" s="3"/>
       <c r="AD599" s="3"/>
     </row>
-    <row r="600" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A600" s="7"/>
+    <row r="600" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -14849,8 +13902,7 @@
       <c r="AC600" s="3"/>
       <c r="AD600" s="3"/>
     </row>
-    <row r="601" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A601" s="7"/>
+    <row r="601" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -14880,8 +13932,7 @@
       <c r="AC601" s="3"/>
       <c r="AD601" s="3"/>
     </row>
-    <row r="602" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A602" s="7"/>
+    <row r="602" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -14911,8 +13962,7 @@
       <c r="AC602" s="3"/>
       <c r="AD602" s="3"/>
     </row>
-    <row r="603" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A603" s="7"/>
+    <row r="603" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -14942,8 +13992,7 @@
       <c r="AC603" s="3"/>
       <c r="AD603" s="3"/>
     </row>
-    <row r="604" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A604" s="7"/>
+    <row r="604" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -14973,8 +14022,7 @@
       <c r="AC604" s="3"/>
       <c r="AD604" s="3"/>
     </row>
-    <row r="605" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A605" s="7"/>
+    <row r="605" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -15004,8 +14052,7 @@
       <c r="AC605" s="3"/>
       <c r="AD605" s="3"/>
     </row>
-    <row r="606" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A606" s="7"/>
+    <row r="606" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -15035,8 +14082,7 @@
       <c r="AC606" s="3"/>
       <c r="AD606" s="3"/>
     </row>
-    <row r="607" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A607" s="7"/>
+    <row r="607" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -15066,8 +14112,7 @@
       <c r="AC607" s="3"/>
       <c r="AD607" s="3"/>
     </row>
-    <row r="608" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A608" s="7"/>
+    <row r="608" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -15097,8 +14142,7 @@
       <c r="AC608" s="3"/>
       <c r="AD608" s="3"/>
     </row>
-    <row r="609" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A609" s="7"/>
+    <row r="609" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -15127,8 +14171,7 @@
       <c r="AC609" s="3"/>
       <c r="AD609" s="3"/>
     </row>
-    <row r="610" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A610" s="7"/>
+    <row r="610" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -15158,8 +14201,7 @@
       <c r="AC610" s="3"/>
       <c r="AD610" s="3"/>
     </row>
-    <row r="611" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A611" s="7"/>
+    <row r="611" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -15189,8 +14231,7 @@
       <c r="AC611" s="3"/>
       <c r="AD611" s="3"/>
     </row>
-    <row r="612" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A612" s="7"/>
+    <row r="612" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -15220,8 +14261,7 @@
       <c r="AC612" s="3"/>
       <c r="AD612" s="3"/>
     </row>
-    <row r="613" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A613" s="7"/>
+    <row r="613" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -15251,8 +14291,7 @@
       <c r="AC613" s="3"/>
       <c r="AD613" s="3"/>
     </row>
-    <row r="614" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A614" s="7"/>
+    <row r="614" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -15282,16 +14321,14 @@
       <c r="AC614" s="3"/>
       <c r="AD614" s="3"/>
     </row>
-    <row r="615" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A615" s="7"/>
+    <row r="615" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
       <c r="AA615" s="3"/>
       <c r="AC615" s="3"/>
       <c r="AD615" s="3"/>
     </row>
-    <row r="616" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A616" s="7"/>
+    <row r="616" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -15321,8 +14358,7 @@
       <c r="AC616" s="3"/>
       <c r="AD616" s="3"/>
     </row>
-    <row r="617" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A617" s="7"/>
+    <row r="617" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -15352,8 +14388,7 @@
       <c r="AC617" s="3"/>
       <c r="AD617" s="3"/>
     </row>
-    <row r="618" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A618" s="7"/>
+    <row r="618" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -15383,8 +14418,7 @@
       <c r="AC618" s="3"/>
       <c r="AD618" s="3"/>
     </row>
-    <row r="619" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A619" s="7"/>
+    <row r="619" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -15414,8 +14448,7 @@
       <c r="AC619" s="3"/>
       <c r="AD619" s="3"/>
     </row>
-    <row r="620" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A620" s="7"/>
+    <row r="620" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -15445,16 +14478,14 @@
       <c r="AC620" s="3"/>
       <c r="AD620" s="3"/>
     </row>
-    <row r="621" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A621" s="7"/>
+    <row r="621" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
       <c r="AA621" s="3"/>
       <c r="AC621" s="3"/>
       <c r="AD621" s="3"/>
     </row>
-    <row r="622" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A622" s="7"/>
+    <row r="622" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -15484,8 +14515,7 @@
       <c r="AC622" s="3"/>
       <c r="AD622" s="3"/>
     </row>
-    <row r="623" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A623" s="7"/>
+    <row r="623" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -15515,8 +14545,7 @@
       <c r="AC623" s="3"/>
       <c r="AD623" s="3"/>
     </row>
-    <row r="624" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A624" s="7"/>
+    <row r="624" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -15546,8 +14575,7 @@
       <c r="AC624" s="3"/>
       <c r="AD624" s="3"/>
     </row>
-    <row r="625" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A625" s="7"/>
+    <row r="625" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -15577,8 +14605,7 @@
       <c r="AC625" s="3"/>
       <c r="AD625" s="3"/>
     </row>
-    <row r="626" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A626" s="7"/>
+    <row r="626" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -15608,8 +14635,7 @@
       <c r="AC626" s="3"/>
       <c r="AD626" s="3"/>
     </row>
-    <row r="627" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A627" s="7"/>
+    <row r="627" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -15639,8 +14665,7 @@
       <c r="AC627" s="3"/>
       <c r="AD627" s="3"/>
     </row>
-    <row r="628" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A628" s="7"/>
+    <row r="628" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -15670,8 +14695,7 @@
       <c r="AC628" s="3"/>
       <c r="AD628" s="3"/>
     </row>
-    <row r="629" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A629" s="7"/>
+    <row r="629" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -15701,8 +14725,7 @@
       <c r="AC629" s="3"/>
       <c r="AD629" s="3"/>
     </row>
-    <row r="630" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A630" s="7"/>
+    <row r="630" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -15732,8 +14755,7 @@
       <c r="AC630" s="3"/>
       <c r="AD630" s="3"/>
     </row>
-    <row r="631" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A631" s="7"/>
+    <row r="631" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -15763,8 +14785,7 @@
       <c r="AC631" s="3"/>
       <c r="AD631" s="3"/>
     </row>
-    <row r="632" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A632" s="7"/>
+    <row r="632" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -15794,8 +14815,7 @@
       <c r="AC632" s="3"/>
       <c r="AD632" s="3"/>
     </row>
-    <row r="633" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A633" s="7"/>
+    <row r="633" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -15825,8 +14845,7 @@
       <c r="AC633" s="3"/>
       <c r="AD633" s="3"/>
     </row>
-    <row r="634" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A634" s="7"/>
+    <row r="634" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -15856,8 +14875,7 @@
       <c r="AC634" s="3"/>
       <c r="AD634" s="3"/>
     </row>
-    <row r="635" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A635" s="7"/>
+    <row r="635" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -15887,8 +14905,7 @@
       <c r="AC635" s="3"/>
       <c r="AD635" s="3"/>
     </row>
-    <row r="636" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A636" s="7"/>
+    <row r="636" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -15918,8 +14935,7 @@
       <c r="AC636" s="3"/>
       <c r="AD636" s="3"/>
     </row>
-    <row r="637" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A637" s="7"/>
+    <row r="637" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -15949,8 +14965,7 @@
       <c r="AC637" s="3"/>
       <c r="AD637" s="3"/>
     </row>
-    <row r="638" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A638" s="7"/>
+    <row r="638" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -15980,8 +14995,7 @@
       <c r="AC638" s="3"/>
       <c r="AD638" s="3"/>
     </row>
-    <row r="639" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A639" s="7"/>
+    <row r="639" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -16011,8 +15025,7 @@
       <c r="AC639" s="3"/>
       <c r="AD639" s="3"/>
     </row>
-    <row r="640" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A640" s="7"/>
+    <row r="640" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -16042,8 +15055,7 @@
       <c r="AC640" s="3"/>
       <c r="AD640" s="3"/>
     </row>
-    <row r="641" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A641" s="7"/>
+    <row r="641" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -16073,8 +15085,7 @@
       <c r="AC641" s="3"/>
       <c r="AD641" s="3"/>
     </row>
-    <row r="642" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A642" s="7"/>
+    <row r="642" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -16103,8 +15114,7 @@
       <c r="AC642" s="3"/>
       <c r="AD642" s="3"/>
     </row>
-    <row r="643" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A643" s="7"/>
+    <row r="643" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -16133,8 +15143,7 @@
       <c r="AC643" s="3"/>
       <c r="AD643" s="3"/>
     </row>
-    <row r="644" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A644" s="7"/>
+    <row r="644" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -16163,8 +15172,7 @@
       <c r="AC644" s="3"/>
       <c r="AD644" s="3"/>
     </row>
-    <row r="645" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A645" s="7"/>
+    <row r="645" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -16193,8 +15201,7 @@
       <c r="AC645" s="3"/>
       <c r="AD645" s="3"/>
     </row>
-    <row r="646" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A646" s="7"/>
+    <row r="646" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -16223,8 +15230,7 @@
       <c r="AC646" s="3"/>
       <c r="AD646" s="3"/>
     </row>
-    <row r="647" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A647" s="7"/>
+    <row r="647" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -16253,8 +15259,7 @@
       <c r="AC647" s="3"/>
       <c r="AD647" s="3"/>
     </row>
-    <row r="648" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A648" s="7"/>
+    <row r="648" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -16283,8 +15288,7 @@
       <c r="AC648" s="3"/>
       <c r="AD648" s="3"/>
     </row>
-    <row r="649" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A649" s="7"/>
+    <row r="649" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -16314,8 +15318,7 @@
       <c r="AC649" s="3"/>
       <c r="AD649" s="3"/>
     </row>
-    <row r="650" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A650" s="7"/>
+    <row r="650" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -16344,8 +15347,7 @@
       <c r="AC650" s="3"/>
       <c r="AD650" s="3"/>
     </row>
-    <row r="651" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A651" s="7"/>
+    <row r="651" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -16374,8 +15376,7 @@
       <c r="AC651" s="3"/>
       <c r="AD651" s="3"/>
     </row>
-    <row r="652" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A652" s="7"/>
+    <row r="652" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -16405,8 +15406,7 @@
       <c r="AD652" s="3"/>
       <c r="AH652" s="6"/>
     </row>
-    <row r="653" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A653" s="7"/>
+    <row r="653" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -16436,8 +15436,7 @@
       <c r="AC653" s="3"/>
       <c r="AD653" s="3"/>
     </row>
-    <row r="654" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A654" s="7"/>
+    <row r="654" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -16467,8 +15466,7 @@
       <c r="AC654" s="3"/>
       <c r="AD654" s="3"/>
     </row>
-    <row r="655" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A655" s="7"/>
+    <row r="655" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -16498,8 +15496,7 @@
       <c r="AC655" s="3"/>
       <c r="AD655" s="3"/>
     </row>
-    <row r="656" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A656" s="7"/>
+    <row r="656" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -16529,8 +15526,7 @@
       <c r="AC656" s="3"/>
       <c r="AD656" s="3"/>
     </row>
-    <row r="657" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A657" s="7"/>
+    <row r="657" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -16561,8 +15557,7 @@
       <c r="AD657" s="3"/>
       <c r="AH657" s="6"/>
     </row>
-    <row r="658" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A658" s="7"/>
+    <row r="658" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -16592,8 +15587,7 @@
       <c r="AC658" s="3"/>
       <c r="AD658" s="3"/>
     </row>
-    <row r="659" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A659" s="7"/>
+    <row r="659" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -16623,8 +15617,7 @@
       <c r="AC659" s="3"/>
       <c r="AD659" s="3"/>
     </row>
-    <row r="660" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A660" s="7"/>
+    <row r="660" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -16654,158 +15647,7 @@
       <c r="AC660" s="3"/>
       <c r="AD660" s="3"/>
     </row>
-    <row r="661" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A661" s="7"/>
-    </row>
-    <row r="662" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A662" s="7"/>
-    </row>
-    <row r="663" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A663" s="7"/>
-    </row>
-    <row r="664" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A664" s="7"/>
-    </row>
-    <row r="665" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A665" s="7"/>
-    </row>
-    <row r="666" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A666" s="7"/>
-    </row>
-    <row r="667" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A667" s="7"/>
-    </row>
-    <row r="668" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A668" s="7"/>
-    </row>
-    <row r="669" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A669" s="7"/>
-    </row>
-    <row r="670" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A670" s="7"/>
-    </row>
-    <row r="671" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A671" s="7"/>
-    </row>
-    <row r="672" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A672" s="7"/>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="7"/>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="7"/>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="7"/>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="7"/>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="7"/>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="7"/>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="7"/>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="7"/>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="7"/>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="7"/>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="7"/>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="7"/>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="7"/>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="7"/>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="7"/>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="7"/>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="7"/>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="7"/>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="7"/>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="7"/>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="7"/>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="7"/>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="7"/>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="7"/>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="7"/>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="7"/>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="7"/>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="7"/>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="7"/>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="7"/>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="7"/>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="7"/>
-    </row>
-    <row r="705" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A705" s="7"/>
-    </row>
-    <row r="706" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A706" s="7"/>
-    </row>
-    <row r="707" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A707" s="7"/>
-    </row>
-    <row r="708" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A708" s="7"/>
-    </row>
-    <row r="709" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A709" s="7"/>
-    </row>
-    <row r="710" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A710" s="7"/>
-    </row>
-    <row r="711" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A711" s="7"/>
+    <row r="711" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -16833,8 +15675,7 @@
       <c r="AC711" s="3"/>
       <c r="AD711" s="3"/>
     </row>
-    <row r="712" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A712" s="7"/>
+    <row r="712" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -16861,8 +15702,7 @@
       <c r="AC712" s="3"/>
       <c r="AD712" s="3"/>
     </row>
-    <row r="713" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A713" s="7"/>
+    <row r="713" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -16892,8 +15732,7 @@
       <c r="AC713" s="3"/>
       <c r="AD713" s="3"/>
     </row>
-    <row r="714" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A714" s="7"/>
+    <row r="714" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -16922,8 +15761,7 @@
       <c r="AC714" s="3"/>
       <c r="AD714" s="3"/>
     </row>
-    <row r="715" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A715" s="7"/>
+    <row r="715" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -16952,8 +15790,7 @@
       <c r="AC715" s="3"/>
       <c r="AD715" s="3"/>
     </row>
-    <row r="716" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A716" s="7"/>
+    <row r="716" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -16983,8 +15820,7 @@
       <c r="AC716" s="3"/>
       <c r="AD716" s="3"/>
     </row>
-    <row r="717" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A717" s="7"/>
+    <row r="717" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -17013,8 +15849,7 @@
       <c r="AC717" s="3"/>
       <c r="AD717" s="3"/>
     </row>
-    <row r="718" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A718" s="7"/>
+    <row r="718" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -17044,8 +15879,7 @@
       <c r="AC718" s="3"/>
       <c r="AD718" s="3"/>
     </row>
-    <row r="719" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A719" s="7"/>
+    <row r="719" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -17075,8 +15909,7 @@
       <c r="AC719" s="3"/>
       <c r="AD719" s="3"/>
     </row>
-    <row r="720" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A720" s="7"/>
+    <row r="720" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -17106,8 +15939,7 @@
       <c r="AC720" s="3"/>
       <c r="AD720" s="3"/>
     </row>
-    <row r="721" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A721" s="7"/>
+    <row r="721" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -17137,8 +15969,7 @@
       <c r="AC721" s="3"/>
       <c r="AD721" s="3"/>
     </row>
-    <row r="722" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A722" s="7"/>
+    <row r="722" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -17168,8 +15999,7 @@
       <c r="AC722" s="3"/>
       <c r="AD722" s="3"/>
     </row>
-    <row r="723" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A723" s="7"/>
+    <row r="723" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -17199,8 +16029,7 @@
       <c r="AC723" s="3"/>
       <c r="AD723" s="3"/>
     </row>
-    <row r="724" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A724" s="7"/>
+    <row r="724" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -17230,8 +16059,7 @@
       <c r="AC724" s="3"/>
       <c r="AD724" s="3"/>
     </row>
-    <row r="725" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A725" s="7"/>
+    <row r="725" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -17261,8 +16089,7 @@
       <c r="AC725" s="3"/>
       <c r="AD725" s="3"/>
     </row>
-    <row r="726" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A726" s="7"/>
+    <row r="726" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -17292,8 +16119,7 @@
       <c r="AC726" s="3"/>
       <c r="AD726" s="3"/>
     </row>
-    <row r="727" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A727" s="7"/>
+    <row r="727" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -17323,8 +16149,7 @@
       <c r="AC727" s="3"/>
       <c r="AD727" s="3"/>
     </row>
-    <row r="728" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A728" s="7"/>
+    <row r="728" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -17354,8 +16179,7 @@
       <c r="AC728" s="3"/>
       <c r="AD728" s="3"/>
     </row>
-    <row r="729" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A729" s="7"/>
+    <row r="729" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -17385,8 +16209,7 @@
       <c r="AC729" s="3"/>
       <c r="AD729" s="5"/>
     </row>
-    <row r="730" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A730" s="7"/>
+    <row r="730" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -17417,8 +16240,7 @@
       <c r="AD730" s="3"/>
       <c r="AH730" s="6"/>
     </row>
-    <row r="731" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A731" s="7"/>
+    <row r="731" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -17447,8 +16269,7 @@
       <c r="AC731" s="3"/>
       <c r="AD731" s="3"/>
     </row>
-    <row r="732" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A732" s="7"/>
+    <row r="732" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -17478,8 +16299,7 @@
       <c r="AC732" s="3"/>
       <c r="AD732" s="3"/>
     </row>
-    <row r="733" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A733" s="7"/>
+    <row r="733" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -17509,119 +16329,7 @@
       <c r="AC733" s="3"/>
       <c r="AD733" s="3"/>
     </row>
-    <row r="734" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A734" s="7"/>
-    </row>
-    <row r="735" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A735" s="7"/>
-    </row>
-    <row r="736" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A736" s="7"/>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="7"/>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="7"/>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="7"/>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="7"/>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="7"/>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="7"/>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="7"/>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="7"/>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="7"/>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="7"/>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="7"/>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="7"/>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="7"/>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="7"/>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="7"/>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="7"/>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="7"/>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="7"/>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="7"/>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="7"/>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="7"/>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="7"/>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="7"/>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="7"/>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="7"/>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="7"/>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="7"/>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="7"/>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="7"/>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="7"/>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="7"/>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="7"/>
-    </row>
-    <row r="769" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A769" s="7"/>
-    </row>
-    <row r="770" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A770" s="7"/>
-    </row>
-    <row r="771" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A771" s="7"/>
+    <row r="771" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -17651,8 +16359,7 @@
       <c r="AC771" s="3"/>
       <c r="AD771" s="3"/>
     </row>
-    <row r="772" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A772" s="7"/>
+    <row r="772" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -17682,8 +16389,7 @@
       <c r="AC772" s="3"/>
       <c r="AD772" s="3"/>
     </row>
-    <row r="773" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A773" s="7"/>
+    <row r="773" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -17713,8 +16419,7 @@
       <c r="AC773" s="3"/>
       <c r="AD773" s="3"/>
     </row>
-    <row r="774" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A774" s="7"/>
+    <row r="774" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -17744,8 +16449,7 @@
       <c r="AC774" s="3"/>
       <c r="AD774" s="3"/>
     </row>
-    <row r="775" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A775" s="7"/>
+    <row r="775" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -17775,8 +16479,7 @@
       <c r="AC775" s="3"/>
       <c r="AD775" s="3"/>
     </row>
-    <row r="776" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A776" s="7"/>
+    <row r="776" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -17806,8 +16509,7 @@
       <c r="AC776" s="3"/>
       <c r="AD776" s="3"/>
     </row>
-    <row r="777" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A777" s="7"/>
+    <row r="777" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -17837,8 +16539,7 @@
       <c r="AC777" s="3"/>
       <c r="AD777" s="3"/>
     </row>
-    <row r="778" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A778" s="7"/>
+    <row r="778" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -17868,8 +16569,7 @@
       <c r="AC778" s="3"/>
       <c r="AD778" s="3"/>
     </row>
-    <row r="779" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A779" s="7"/>
+    <row r="779" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -17899,8 +16599,7 @@
       <c r="AC779" s="3"/>
       <c r="AD779" s="3"/>
     </row>
-    <row r="780" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A780" s="7"/>
+    <row r="780" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -17930,8 +16629,7 @@
       <c r="AC780" s="3"/>
       <c r="AD780" s="3"/>
     </row>
-    <row r="781" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A781" s="7"/>
+    <row r="781" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -17961,8 +16659,7 @@
       <c r="AC781" s="3"/>
       <c r="AD781" s="3"/>
     </row>
-    <row r="782" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A782" s="7"/>
+    <row r="782" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -17992,8 +16689,7 @@
       <c r="AC782" s="3"/>
       <c r="AD782" s="3"/>
     </row>
-    <row r="783" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A783" s="7"/>
+    <row r="783" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -18023,8 +16719,7 @@
       <c r="AC783" s="3"/>
       <c r="AD783" s="3"/>
     </row>
-    <row r="784" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A784" s="7"/>
+    <row r="784" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -18054,8 +16749,7 @@
       <c r="AC784" s="3"/>
       <c r="AD784" s="3"/>
     </row>
-    <row r="785" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A785" s="7"/>
+    <row r="785" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -18085,8 +16779,7 @@
       <c r="AC785" s="3"/>
       <c r="AD785" s="3"/>
     </row>
-    <row r="786" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A786" s="7"/>
+    <row r="786" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -18116,8 +16809,7 @@
       <c r="AC786" s="3"/>
       <c r="AD786" s="3"/>
     </row>
-    <row r="787" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A787" s="7"/>
+    <row r="787" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -18147,8 +16839,7 @@
       <c r="AC787" s="3"/>
       <c r="AD787" s="3"/>
     </row>
-    <row r="788" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A788" s="7"/>
+    <row r="788" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -18178,8 +16869,7 @@
       <c r="AC788" s="3"/>
       <c r="AD788" s="3"/>
     </row>
-    <row r="789" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A789" s="7"/>
+    <row r="789" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -18209,8 +16899,7 @@
       <c r="AC789" s="3"/>
       <c r="AD789" s="3"/>
     </row>
-    <row r="790" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A790" s="7"/>
+    <row r="790" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -18240,8 +16929,7 @@
       <c r="AC790" s="3"/>
       <c r="AD790" s="3"/>
     </row>
-    <row r="791" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A791" s="7"/>
+    <row r="791" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -18271,8 +16959,7 @@
       <c r="AC791" s="3"/>
       <c r="AD791" s="3"/>
     </row>
-    <row r="792" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A792" s="7"/>
+    <row r="792" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -18302,8 +16989,7 @@
       <c r="AC792" s="3"/>
       <c r="AD792" s="3"/>
     </row>
-    <row r="793" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A793" s="7"/>
+    <row r="793" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -18333,8 +17019,7 @@
       <c r="AC793" s="3"/>
       <c r="AD793" s="3"/>
     </row>
-    <row r="794" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A794" s="7"/>
+    <row r="794" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -18364,8 +17049,7 @@
       <c r="AC794" s="3"/>
       <c r="AD794" s="3"/>
     </row>
-    <row r="795" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A795" s="7"/>
+    <row r="795" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -18395,8 +17079,7 @@
       <c r="AC795" s="3"/>
       <c r="AD795" s="3"/>
     </row>
-    <row r="796" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A796" s="7"/>
+    <row r="796" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -18427,8 +17110,7 @@
       <c r="AD796" s="3"/>
       <c r="AH796" s="6"/>
     </row>
-    <row r="797" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A797" s="7"/>
+    <row r="797" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -18458,8 +17140,7 @@
       <c r="AC797" s="3"/>
       <c r="AD797" s="3"/>
     </row>
-    <row r="798" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A798" s="7"/>
+    <row r="798" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -18489,8 +17170,7 @@
       <c r="AC798" s="3"/>
       <c r="AD798" s="3"/>
     </row>
-    <row r="799" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A799" s="7"/>
+    <row r="799" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -18520,8 +17200,7 @@
       <c r="AC799" s="3"/>
       <c r="AD799" s="3"/>
     </row>
-    <row r="800" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A800" s="7"/>
+    <row r="800" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -18551,8 +17230,7 @@
       <c r="AC800" s="3"/>
       <c r="AD800" s="3"/>
     </row>
-    <row r="801" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A801" s="7"/>
+    <row r="801" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -18582,8 +17260,7 @@
       <c r="AC801" s="3"/>
       <c r="AD801" s="3"/>
     </row>
-    <row r="802" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A802" s="7"/>
+    <row r="802" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -18613,8 +17290,7 @@
       <c r="AC802" s="3"/>
       <c r="AD802" s="3"/>
     </row>
-    <row r="803" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A803" s="7"/>
+    <row r="803" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -18644,8 +17320,7 @@
       <c r="AC803" s="3"/>
       <c r="AD803" s="3"/>
     </row>
-    <row r="804" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A804" s="7"/>
+    <row r="804" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -18675,8 +17350,7 @@
       <c r="AC804" s="3"/>
       <c r="AD804" s="3"/>
     </row>
-    <row r="805" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A805" s="7"/>
+    <row r="805" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -18706,8 +17380,7 @@
       <c r="AC805" s="3"/>
       <c r="AD805" s="3"/>
     </row>
-    <row r="806" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A806" s="7"/>
+    <row r="806" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -18737,8 +17410,7 @@
       <c r="AC806" s="3"/>
       <c r="AD806" s="3"/>
     </row>
-    <row r="807" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A807" s="7"/>
+    <row r="807" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -18768,8 +17440,7 @@
       <c r="AC807" s="3"/>
       <c r="AD807" s="3"/>
     </row>
-    <row r="808" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A808" s="7"/>
+    <row r="808" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -18799,8 +17470,7 @@
       <c r="AC808" s="3"/>
       <c r="AD808" s="3"/>
     </row>
-    <row r="809" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A809" s="7"/>
+    <row r="809" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -18830,8 +17500,7 @@
       <c r="AC809" s="3"/>
       <c r="AD809" s="3"/>
     </row>
-    <row r="810" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A810" s="7"/>
+    <row r="810" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -18861,8 +17530,7 @@
       <c r="AC810" s="3"/>
       <c r="AD810" s="3"/>
     </row>
-    <row r="811" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A811" s="7"/>
+    <row r="811" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -18892,8 +17560,7 @@
       <c r="AC811" s="3"/>
       <c r="AD811" s="3"/>
     </row>
-    <row r="812" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A812" s="7"/>
+    <row r="812" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -18923,8 +17590,7 @@
       <c r="AC812" s="3"/>
       <c r="AD812" s="3"/>
     </row>
-    <row r="813" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A813" s="7"/>
+    <row r="813" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -18954,8 +17620,7 @@
       <c r="AC813" s="3"/>
       <c r="AD813" s="3"/>
     </row>
-    <row r="814" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A814" s="7"/>
+    <row r="814" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -18985,8 +17650,7 @@
       <c r="AC814" s="3"/>
       <c r="AD814" s="3"/>
     </row>
-    <row r="815" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A815" s="7"/>
+    <row r="815" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -19016,8 +17680,7 @@
       <c r="AC815" s="3"/>
       <c r="AD815" s="3"/>
     </row>
-    <row r="816" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A816" s="7"/>
+    <row r="816" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -19047,8 +17710,7 @@
       <c r="AC816" s="3"/>
       <c r="AD816" s="3"/>
     </row>
-    <row r="817" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A817" s="7"/>
+    <row r="817" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -19078,8 +17740,7 @@
       <c r="AC817" s="3"/>
       <c r="AD817" s="3"/>
     </row>
-    <row r="818" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A818" s="7"/>
+    <row r="818" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -19109,8 +17770,7 @@
       <c r="AC818" s="3"/>
       <c r="AD818" s="3"/>
     </row>
-    <row r="819" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A819" s="7"/>
+    <row r="819" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -19140,8 +17800,7 @@
       <c r="AC819" s="3"/>
       <c r="AD819" s="3"/>
     </row>
-    <row r="820" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A820" s="7"/>
+    <row r="820" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -19171,8 +17830,7 @@
       <c r="AC820" s="3"/>
       <c r="AD820" s="3"/>
     </row>
-    <row r="821" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A821" s="7"/>
+    <row r="821" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -19202,8 +17860,7 @@
       <c r="AC821" s="3"/>
       <c r="AD821" s="3"/>
     </row>
-    <row r="822" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A822" s="7"/>
+    <row r="822" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -19233,8 +17890,7 @@
       <c r="AC822" s="3"/>
       <c r="AD822" s="3"/>
     </row>
-    <row r="823" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A823" s="7"/>
+    <row r="823" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -19264,8 +17920,7 @@
       <c r="AC823" s="3"/>
       <c r="AD823" s="3"/>
     </row>
-    <row r="824" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A824" s="7"/>
+    <row r="824" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -19295,8 +17950,7 @@
       <c r="AC824" s="3"/>
       <c r="AD824" s="3"/>
     </row>
-    <row r="825" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A825" s="7"/>
+    <row r="825" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -19326,8 +17980,7 @@
       <c r="AC825" s="3"/>
       <c r="AD825" s="3"/>
     </row>
-    <row r="826" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A826" s="7"/>
+    <row r="826" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -19357,8 +18010,7 @@
       <c r="AC826" s="3"/>
       <c r="AD826" s="3"/>
     </row>
-    <row r="827" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A827" s="7"/>
+    <row r="827" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -19389,8 +18041,7 @@
       <c r="AD827" s="3"/>
       <c r="AH827" s="6"/>
     </row>
-    <row r="828" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A828" s="7"/>
+    <row r="828" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -19420,8 +18071,7 @@
       <c r="AC828" s="3"/>
       <c r="AD828" s="3"/>
     </row>
-    <row r="829" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A829" s="7"/>
+    <row r="829" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -19451,8 +18101,7 @@
       <c r="AC829" s="3"/>
       <c r="AD829" s="3"/>
     </row>
-    <row r="830" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A830" s="7"/>
+    <row r="830" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -19482,8 +18131,7 @@
       <c r="AC830" s="3"/>
       <c r="AD830" s="3"/>
     </row>
-    <row r="831" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A831" s="7"/>
+    <row r="831" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -19513,8 +18161,7 @@
       <c r="AC831" s="3"/>
       <c r="AD831" s="3"/>
     </row>
-    <row r="832" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A832" s="7"/>
+    <row r="832" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -19544,8 +18191,7 @@
       <c r="AC832" s="3"/>
       <c r="AD832" s="3"/>
     </row>
-    <row r="833" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A833" s="7"/>
+    <row r="833" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -19575,8 +18221,7 @@
       <c r="AC833" s="3"/>
       <c r="AD833" s="3"/>
     </row>
-    <row r="834" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A834" s="7"/>
+    <row r="834" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -19606,8 +18251,7 @@
       <c r="AC834" s="3"/>
       <c r="AD834" s="3"/>
     </row>
-    <row r="835" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A835" s="7"/>
+    <row r="835" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -19637,8 +18281,7 @@
       <c r="AC835" s="3"/>
       <c r="AD835" s="3"/>
     </row>
-    <row r="836" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A836" s="7"/>
+    <row r="836" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -19668,8 +18311,7 @@
       <c r="AC836" s="3"/>
       <c r="AD836" s="3"/>
     </row>
-    <row r="837" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A837" s="7"/>
+    <row r="837" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -19699,8 +18341,7 @@
       <c r="AC837" s="3"/>
       <c r="AD837" s="3"/>
     </row>
-    <row r="838" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A838" s="7"/>
+    <row r="838" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -19730,8 +18371,7 @@
       <c r="AC838" s="3"/>
       <c r="AD838" s="3"/>
     </row>
-    <row r="839" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A839" s="7"/>
+    <row r="839" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -19761,8 +18401,7 @@
       <c r="AC839" s="3"/>
       <c r="AD839" s="3"/>
     </row>
-    <row r="840" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A840" s="7"/>
+    <row r="840" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -19792,8 +18431,7 @@
       <c r="AC840" s="3"/>
       <c r="AD840" s="3"/>
     </row>
-    <row r="841" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A841" s="7"/>
+    <row r="841" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -19823,8 +18461,7 @@
       <c r="AC841" s="3"/>
       <c r="AD841" s="3"/>
     </row>
-    <row r="842" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A842" s="7"/>
+    <row r="842" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -19854,8 +18491,7 @@
       <c r="AC842" s="3"/>
       <c r="AD842" s="3"/>
     </row>
-    <row r="843" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A843" s="7"/>
+    <row r="843" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -19885,8 +18521,7 @@
       <c r="AC843" s="3"/>
       <c r="AD843" s="3"/>
     </row>
-    <row r="844" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A844" s="7"/>
+    <row r="844" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -19916,8 +18551,7 @@
       <c r="AC844" s="3"/>
       <c r="AD844" s="3"/>
     </row>
-    <row r="845" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A845" s="7"/>
+    <row r="845" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -19947,8 +18581,7 @@
       <c r="AC845" s="3"/>
       <c r="AD845" s="3"/>
     </row>
-    <row r="846" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A846" s="7"/>
+    <row r="846" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -19978,8 +18611,7 @@
       <c r="AC846" s="3"/>
       <c r="AD846" s="3"/>
     </row>
-    <row r="847" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A847" s="7"/>
+    <row r="847" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -20009,8 +18641,7 @@
       <c r="AC847" s="3"/>
       <c r="AD847" s="3"/>
     </row>
-    <row r="848" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A848" s="7"/>
+    <row r="848" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -20040,8 +18671,7 @@
       <c r="AC848" s="3"/>
       <c r="AD848" s="3"/>
     </row>
-    <row r="849" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A849" s="7"/>
+    <row r="849" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -20071,8 +18701,7 @@
       <c r="AC849" s="3"/>
       <c r="AD849" s="3"/>
     </row>
-    <row r="850" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A850" s="7"/>
+    <row r="850" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -20102,8 +18731,7 @@
       <c r="AC850" s="3"/>
       <c r="AD850" s="3"/>
     </row>
-    <row r="851" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A851" s="7"/>
+    <row r="851" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -20132,8 +18760,7 @@
       <c r="AC851" s="3"/>
       <c r="AD851" s="3"/>
     </row>
-    <row r="852" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A852" s="7"/>
+    <row r="852" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -20163,8 +18790,7 @@
       <c r="AC852" s="3"/>
       <c r="AD852" s="3"/>
     </row>
-    <row r="853" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A853" s="7"/>
+    <row r="853" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -20193,8 +18819,7 @@
       <c r="AC853" s="3"/>
       <c r="AD853" s="3"/>
     </row>
-    <row r="854" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A854" s="7"/>
+    <row r="854" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -20224,8 +18849,7 @@
       <c r="AC854" s="3"/>
       <c r="AD854" s="3"/>
     </row>
-    <row r="855" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A855" s="7"/>
+    <row r="855" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -20255,8 +18879,7 @@
       <c r="AC855" s="3"/>
       <c r="AD855" s="3"/>
     </row>
-    <row r="856" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A856" s="7"/>
+    <row r="856" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -20286,8 +18909,7 @@
       <c r="AC856" s="3"/>
       <c r="AD856" s="3"/>
     </row>
-    <row r="857" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A857" s="7"/>
+    <row r="857" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -20317,8 +18939,7 @@
       <c r="AC857" s="3"/>
       <c r="AD857" s="3"/>
     </row>
-    <row r="858" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A858" s="7"/>
+    <row r="858" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -20348,11 +18969,7 @@
       <c r="AC858" s="3"/>
       <c r="AD858" s="3"/>
     </row>
-    <row r="859" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A859" s="7"/>
-    </row>
-    <row r="860" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A860" s="7"/>
+    <row r="860" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -20382,8 +18999,7 @@
       <c r="AC860" s="3"/>
       <c r="AD860" s="3"/>
     </row>
-    <row r="861" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A861" s="7"/>
+    <row r="861" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -20413,8 +19029,7 @@
       <c r="AC861" s="3"/>
       <c r="AD861" s="3"/>
     </row>
-    <row r="862" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A862" s="7"/>
+    <row r="862" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -20444,8 +19059,7 @@
       <c r="AC862" s="3"/>
       <c r="AD862" s="3"/>
     </row>
-    <row r="863" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A863" s="7"/>
+    <row r="863" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -20475,8 +19089,7 @@
       <c r="AC863" s="3"/>
       <c r="AD863" s="3"/>
     </row>
-    <row r="864" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A864" s="7"/>
+    <row r="864" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -20506,8 +19119,7 @@
       <c r="AC864" s="3"/>
       <c r="AD864" s="3"/>
     </row>
-    <row r="865" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A865" s="7"/>
+    <row r="865" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -20537,14 +19149,7 @@
       <c r="AC865" s="3"/>
       <c r="AD865" s="3"/>
     </row>
-    <row r="866" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A866" s="7"/>
-    </row>
-    <row r="867" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A867" s="7"/>
-    </row>
-    <row r="868" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A868" s="7"/>
+    <row r="868" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -20574,8 +19179,7 @@
       <c r="AC868" s="3"/>
       <c r="AD868" s="3"/>
     </row>
-    <row r="869" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A869" s="7"/>
+    <row r="869" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -20605,8 +19209,7 @@
       <c r="AC869" s="3"/>
       <c r="AD869" s="3"/>
     </row>
-    <row r="870" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A870" s="7"/>
+    <row r="870" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -20635,19 +19238,14 @@
       <c r="AC870" s="3"/>
       <c r="AD870" s="3"/>
     </row>
-    <row r="871" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A871" s="7"/>
+    <row r="871" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="W871" s="3"/>
     </row>
-    <row r="872" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A872" s="7"/>
-    </row>
-    <row r="873" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A873" s="7"/>
+    <row r="873" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -20676,8 +19274,7 @@
       <c r="AC873" s="3"/>
       <c r="AD873" s="3"/>
     </row>
-    <row r="874" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A874" s="7"/>
+    <row r="874" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -20706,14 +19303,12 @@
       <c r="AC874" s="3"/>
       <c r="AD874" s="3"/>
     </row>
-    <row r="875" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A875" s="7"/>
+    <row r="875" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B875" s="3"/>
       <c r="AC875" s="3"/>
       <c r="AD875" s="3"/>
     </row>
-    <row r="876" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A876" s="7"/>
+    <row r="876" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -20742,8 +19337,7 @@
       <c r="AC876" s="3"/>
       <c r="AD876" s="3"/>
     </row>
-    <row r="877" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A877" s="7"/>
+    <row r="877" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -20772,8 +19366,7 @@
       <c r="AC877" s="3"/>
       <c r="AD877" s="3"/>
     </row>
-    <row r="878" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A878" s="7"/>
+    <row r="878" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -20801,8 +19394,7 @@
       <c r="AC878" s="3"/>
       <c r="AD878" s="3"/>
     </row>
-    <row r="879" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A879" s="7"/>
+    <row r="879" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -20829,8 +19421,7 @@
       <c r="AC879" s="3"/>
       <c r="AD879" s="3"/>
     </row>
-    <row r="880" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A880" s="7"/>
+    <row r="880" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -20858,23 +19449,7 @@
       <c r="AC880" s="3"/>
       <c r="AD880" s="3"/>
     </row>
-    <row r="881" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A881" s="7"/>
-    </row>
-    <row r="882" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A882" s="7"/>
-    </row>
-    <row r="883" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A883" s="7"/>
-    </row>
-    <row r="884" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A884" s="7"/>
-    </row>
-    <row r="885" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A885" s="7"/>
-    </row>
-    <row r="886" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A886" s="7"/>
+    <row r="886" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -20883,115 +19458,14 @@
       <c r="AC886" s="3"/>
       <c r="AD886" s="3"/>
     </row>
-    <row r="887" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A887" s="7"/>
-    </row>
-    <row r="888" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A888" s="7"/>
-    </row>
-    <row r="889" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A889" s="7"/>
-    </row>
-    <row r="890" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A890" s="7"/>
-    </row>
-    <row r="891" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A891" s="7"/>
-    </row>
-    <row r="892" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A892" s="7"/>
-    </row>
-    <row r="893" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A893" s="7"/>
-    </row>
-    <row r="894" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A894" s="7"/>
-    </row>
-    <row r="895" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A895" s="7"/>
-    </row>
-    <row r="896" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A896" s="7"/>
-    </row>
-    <row r="897" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A897" s="7"/>
-    </row>
-    <row r="898" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A898" s="7"/>
-    </row>
-    <row r="899" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A899" s="7"/>
-    </row>
-    <row r="900" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A900" s="7"/>
-    </row>
-    <row r="901" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A901" s="7"/>
+    <row r="901" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="W901" s="3"/>
     </row>
-    <row r="902" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A902" s="7"/>
-    </row>
-    <row r="903" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A903" s="7"/>
-    </row>
-    <row r="904" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A904" s="7"/>
-    </row>
-    <row r="905" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A905" s="7"/>
-    </row>
-    <row r="906" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A906" s="7"/>
-    </row>
-    <row r="907" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A907" s="7"/>
-    </row>
-    <row r="908" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A908" s="7"/>
-    </row>
-    <row r="909" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A909" s="7"/>
-    </row>
-    <row r="910" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A910" s="7"/>
-    </row>
-    <row r="911" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A911" s="7"/>
-    </row>
-    <row r="912" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A912" s="7"/>
-    </row>
-    <row r="913" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A913" s="7"/>
-    </row>
-    <row r="914" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A914" s="7"/>
-    </row>
-    <row r="915" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A915" s="7"/>
-    </row>
-    <row r="916" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A916" s="7"/>
-    </row>
-    <row r="917" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A917" s="7"/>
-    </row>
-    <row r="918" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A918" s="7"/>
-    </row>
-    <row r="919" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A919" s="7"/>
-    </row>
-    <row r="920" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A920" s="7"/>
-    </row>
-    <row r="921" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A921" s="7"/>
+    <row r="921" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -21019,8 +19493,7 @@
       <c r="AC921" s="3"/>
       <c r="AD921" s="3"/>
     </row>
-    <row r="922" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A922" s="7"/>
+    <row r="922" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -21040,8 +19513,7 @@
       <c r="AC922" s="3"/>
       <c r="AD922" s="3"/>
     </row>
-    <row r="923" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A923" s="7"/>
+    <row r="923" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -21049,1751 +19521,21 @@
       <c r="AC923" s="3"/>
       <c r="AD923" s="3"/>
     </row>
-    <row r="924" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A924" s="7"/>
-    </row>
-    <row r="925" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A925" s="7"/>
-    </row>
-    <row r="926" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A926" s="7"/>
-    </row>
-    <row r="927" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A927" s="7"/>
-    </row>
-    <row r="928" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A928" s="7"/>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="7"/>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="7"/>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="7"/>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="7"/>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="7"/>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="7"/>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="7"/>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="7"/>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="7"/>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="7"/>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="7"/>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="7"/>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="7"/>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="7"/>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="7"/>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="7"/>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="7"/>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="7"/>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="7"/>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="7"/>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="7"/>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="7"/>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="7"/>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952" s="7"/>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953" s="7"/>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954" s="7"/>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="7"/>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="7"/>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957" s="7"/>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958" s="7"/>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959" s="7"/>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="7"/>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961" s="7"/>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962" s="7"/>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963" s="7"/>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964" s="7"/>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" s="7"/>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966" s="7"/>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" s="7"/>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" s="7"/>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" s="7"/>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" s="7"/>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971" s="7"/>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972" s="7"/>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" s="7"/>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" s="7"/>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" s="7"/>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" s="7"/>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977" s="7"/>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" s="7"/>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" s="7"/>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" s="7"/>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" s="7"/>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" s="7"/>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" s="7"/>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984" s="7"/>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985" s="7"/>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" s="7"/>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987" s="7"/>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" s="7"/>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" s="7"/>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" s="7"/>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" s="7"/>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992" s="7"/>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" s="7"/>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="7"/>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="7"/>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="7"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" s="7"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="7"/>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" s="7"/>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="7"/>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="7"/>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="7"/>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="7"/>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="7"/>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="7"/>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="7"/>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="7"/>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" s="7"/>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="7"/>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="7"/>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011" s="7"/>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" s="7"/>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013" s="7"/>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1014" s="7"/>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1015" s="7"/>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1016" s="7"/>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017" s="7"/>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018" s="7"/>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019" s="7"/>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020" s="7"/>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021" s="7"/>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1022" s="7"/>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" s="7"/>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024" s="7"/>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" s="7"/>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" s="7"/>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" s="7"/>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" s="7"/>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" s="7"/>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" s="7"/>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" s="7"/>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" s="7"/>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033" s="7"/>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034" s="7"/>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="7"/>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="7"/>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="7"/>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" s="7"/>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" s="7"/>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040" s="7"/>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041" s="7"/>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042" s="7"/>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" s="7"/>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044" s="7"/>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045" s="7"/>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046" s="7"/>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047" s="7"/>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048" s="7"/>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049" s="7"/>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050" s="7"/>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" s="7"/>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" s="7"/>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="7"/>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" s="7"/>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" s="7"/>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" s="7"/>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" s="7"/>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="7"/>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" s="7"/>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" s="7"/>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" s="7"/>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" s="7"/>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="7"/>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="7"/>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" s="7"/>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" s="7"/>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" s="7"/>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" s="7"/>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" s="7"/>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" s="7"/>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" s="7"/>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" s="7"/>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" s="7"/>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" s="7"/>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" s="7"/>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" s="7"/>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" s="7"/>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="7"/>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" s="7"/>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" s="7"/>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" s="7"/>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" s="7"/>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" s="7"/>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" s="7"/>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" s="7"/>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" s="7"/>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="7"/>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="7"/>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" s="7"/>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" s="7"/>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="7"/>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="7"/>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="7"/>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="7"/>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="7"/>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" s="7"/>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" s="7"/>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" s="7"/>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" s="7"/>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="7"/>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="7"/>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" s="7"/>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" s="7"/>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" s="7"/>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="7"/>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="7"/>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="7"/>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="7"/>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="7"/>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" s="7"/>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="7"/>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="7"/>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" s="7"/>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="7"/>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="7"/>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" s="7"/>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" s="7"/>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1118" s="7"/>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1119" s="7"/>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" s="7"/>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" s="7"/>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" s="7"/>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" s="7"/>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" s="7"/>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" s="7"/>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1126" s="7"/>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1127" s="7"/>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1128" s="7"/>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" s="7"/>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" s="7"/>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1131" s="7"/>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1132" s="7"/>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1133" s="7"/>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1134" s="7"/>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1135" s="7"/>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1136" s="7"/>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1137" s="7"/>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1138" s="7"/>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1139" s="7"/>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1140" s="7"/>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1141" s="7"/>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1142" s="7"/>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1143" s="7"/>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1144" s="7"/>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1145" s="7"/>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1146" s="7"/>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" s="7"/>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1148" s="7"/>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1149" s="7"/>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1150" s="7"/>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1151" s="7"/>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1152" s="7"/>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1153" s="7"/>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1154" s="7"/>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1155" s="7"/>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1156" s="7"/>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1157" s="7"/>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1158" s="7"/>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1159" s="7"/>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1160" s="7"/>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1161" s="7"/>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1162" s="7"/>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1163" s="7"/>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1164" s="7"/>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1165" s="7"/>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1166" s="7"/>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1167" s="7"/>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1168" s="7"/>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1169" s="7"/>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1170" s="7"/>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1171" s="7"/>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1172" s="7"/>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1173" s="7"/>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1174" s="7"/>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1175" s="7"/>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1176" s="7"/>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1177" s="7"/>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1178" s="7"/>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1179" s="7"/>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1180" s="7"/>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1181" s="7"/>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1182" s="7"/>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183" s="7"/>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1184" s="7"/>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1185" s="7"/>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1186" s="7"/>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1187" s="7"/>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1188" s="7"/>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1189" s="7"/>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190" s="7"/>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="7"/>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1192" s="7"/>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1193" s="7"/>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1194" s="7"/>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1195" s="7"/>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1196" s="7"/>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1197" s="7"/>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1198" s="7"/>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1199" s="7"/>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1200" s="7"/>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1201" s="7"/>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1202" s="7"/>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203" s="7"/>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1204" s="7"/>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205" s="7"/>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206" s="7"/>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1207" s="7"/>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208" s="7"/>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209" s="7"/>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1210" s="7"/>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1211" s="7"/>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1212" s="7"/>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1213" s="7"/>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1214" s="7"/>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215" s="7"/>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216" s="7"/>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="7"/>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218" s="7"/>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219" s="7"/>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220" s="7"/>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221" s="7"/>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1222" s="7"/>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223" s="7"/>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1224" s="7"/>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1225" s="7"/>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1226" s="7"/>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1227" s="7"/>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1228" s="7"/>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="7"/>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" s="7"/>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1231" s="7"/>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1232" s="7"/>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="7"/>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1234" s="7"/>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1235" s="7"/>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1236" s="7"/>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1237" s="7"/>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1238" s="7"/>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1239" s="7"/>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1240" s="7"/>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1241" s="7"/>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1242" s="7"/>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1243" s="7"/>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1244" s="7"/>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1245" s="7"/>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1246" s="7"/>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1247" s="7"/>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248" s="7"/>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1249" s="7"/>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1250" s="7"/>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1251" s="7"/>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1252" s="7"/>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1253" s="7"/>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1254" s="7"/>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1255" s="7"/>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1256" s="7"/>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1257" s="7"/>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1258" s="7"/>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1259" s="7"/>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1260" s="7"/>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1261" s="7"/>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1262" s="7"/>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1263" s="7"/>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1264" s="7"/>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1265" s="7"/>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1266" s="7"/>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1267" s="7"/>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268" s="7"/>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1269" s="7"/>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1270" s="7"/>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1271" s="7"/>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1272" s="7"/>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1273" s="7"/>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1274" s="7"/>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1275" s="7"/>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1276" s="7"/>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1277" s="7"/>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1278" s="7"/>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1279" s="7"/>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="7"/>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1281" s="7"/>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1282" s="7"/>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1283" s="7"/>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1284" s="7"/>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1285" s="7"/>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1286" s="7"/>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1287" s="7"/>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1288" s="7"/>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1289" s="7"/>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1290" s="7"/>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1291" s="7"/>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1292" s="7"/>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1293" s="7"/>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1294" s="7"/>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1295" s="7"/>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1296" s="7"/>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1297" s="7"/>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1298" s="7"/>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1299" s="7"/>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1300" s="7"/>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1301" s="7"/>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1302" s="7"/>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1303" s="7"/>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1304" s="7"/>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1305" s="7"/>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1306" s="7"/>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1307" s="7"/>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1308" s="7"/>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1309" s="7"/>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1310" s="7"/>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1311" s="7"/>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1312" s="7"/>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1313" s="7"/>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1314" s="7"/>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1315" s="7"/>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1316" s="7"/>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1317" s="7"/>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1318" s="7"/>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1319" s="7"/>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1320" s="7"/>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1321" s="7"/>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1322" s="7"/>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1323" s="7"/>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1324" s="7"/>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1325" s="7"/>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1326" s="7"/>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1327" s="7"/>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1328" s="7"/>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1329" s="7"/>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1330" s="7"/>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1331" s="7"/>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1332" s="7"/>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1333" s="7"/>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1334" s="7"/>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1335" s="7"/>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1336" s="7"/>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1337" s="7"/>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1338" s="7"/>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1339" s="7"/>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1340" s="7"/>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1341" s="7"/>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1342" s="7"/>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1343" s="7"/>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1344" s="7"/>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1345" s="7"/>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1346" s="7"/>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1347" s="7"/>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1348" s="7"/>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1349" s="7"/>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1350" s="7"/>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1351" s="7"/>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1352" s="7"/>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1353" s="7"/>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1354" s="7"/>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1355" s="7"/>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1356" s="7"/>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1357" s="7"/>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1358" s="7"/>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1359" s="7"/>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1360" s="7"/>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1361" s="7"/>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1362" s="7"/>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1363" s="7"/>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1364" s="7"/>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1365" s="7"/>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1366" s="7"/>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1367" s="7"/>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1368" s="7"/>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1369" s="7"/>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1370" s="7"/>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1371" s="7"/>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1372" s="7"/>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1373" s="7"/>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374" s="7"/>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1375" s="7"/>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1376" s="7"/>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1377" s="7"/>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1378" s="7"/>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1379" s="7"/>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1380" s="7"/>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1381" s="7"/>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1382" s="7"/>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1383" s="7"/>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1384" s="7"/>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1385" s="7"/>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1386" s="7"/>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1387" s="7"/>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1388" s="7"/>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1389" s="7"/>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1390" s="7"/>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1391" s="7"/>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1392" s="7"/>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1393" s="7"/>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1394" s="7"/>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1395" s="7"/>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1396" s="7"/>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1397" s="7"/>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1398" s="7"/>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1399" s="7"/>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1400" s="7"/>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1401" s="7"/>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1402" s="7"/>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1403" s="7"/>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1404" s="7"/>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1405" s="7"/>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1406" s="7"/>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1407" s="7"/>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1408" s="7"/>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1409" s="7"/>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1410" s="7"/>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1411" s="7"/>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1412" s="7"/>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1413" s="7"/>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1414" s="7"/>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1415" s="7"/>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1416" s="7"/>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1417" s="7"/>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1418" s="7"/>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1419" s="7"/>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1420" s="7"/>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1421" s="7"/>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1422" s="7"/>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1423" s="7"/>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1424" s="7"/>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1425" s="7"/>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1426" s="7"/>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1427" s="7"/>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1428" s="7"/>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1429" s="7"/>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1430" s="7"/>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1431" s="7"/>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1432" s="7"/>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1433" s="7"/>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1434" s="7"/>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1435" s="7"/>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1436" s="7"/>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1437" s="7"/>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1438" s="7"/>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1439" s="7"/>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1440" s="7"/>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1441" s="7"/>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1442" s="7"/>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1443" s="7"/>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1444" s="7"/>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1445" s="7"/>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1446" s="7"/>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1447" s="7"/>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1448" s="7"/>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1449" s="7"/>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1450" s="7"/>
-    </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1451" s="7"/>
-    </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1452" s="7"/>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1453" s="7"/>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1454" s="7"/>
-    </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1455" s="7"/>
-    </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1456" s="7"/>
-    </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1457" s="7"/>
-    </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1458" s="7"/>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1459" s="7"/>
-    </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1460" s="7"/>
-    </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1461" s="7"/>
-    </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1462" s="7"/>
-    </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1463" s="7"/>
-    </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1464" s="7"/>
-    </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1465" s="7"/>
-    </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1466" s="7"/>
-    </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1467" s="7"/>
-    </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1468" s="7"/>
-    </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1469" s="7"/>
-    </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1470" s="7"/>
-    </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1471" s="7"/>
-    </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1472" s="7"/>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1473" s="7"/>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1474" s="7"/>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1475" s="7"/>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1476" s="7"/>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1477" s="7"/>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1478" s="7"/>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1479" s="7"/>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1480" s="7"/>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1481" s="7"/>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1482" s="7"/>
-    </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1483" s="7"/>
-    </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1484" s="7"/>
-    </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1485" s="7"/>
-    </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1486" s="7"/>
-    </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1487" s="7"/>
-    </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1488" s="7"/>
-    </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1489" s="7"/>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1490" s="7"/>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1491" s="7"/>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1492" s="7"/>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1493" s="7"/>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1494" s="7"/>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1495" s="7"/>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1496" s="7"/>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1497" s="7"/>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1498" s="7"/>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1499" s="7"/>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1500" s="7"/>
-    </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1501" s="7"/>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1502" s="7"/>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1503" s="7"/>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1504" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B153:B162"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="O2:O3"/>
@@ -22807,27 +19549,14 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B1:AI1"/>
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="AI2:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B19E4-08E3-4529-88F8-55F7FE355105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80595CA3-D291-491E-AEEF-19F4ED5C306C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>عملکرد OP</t>
+  </si>
+  <si>
+    <t>عملکرد Buzzer</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +737,9 @@
       <c r="L2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80595CA3-D291-491E-AEEF-19F4ED5C306C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8565FE3-D62F-4846-A796-7E45EAA22419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>عملکرد Buzzer</t>
+  </si>
+  <si>
+    <t>عملکرد ال ای دی Red</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +743,9 @@
       <c r="M2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11" t="s">

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8565FE3-D62F-4846-A796-7E45EAA22419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86036D88-489E-4484-A055-1A294FAB5A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>عملکرد ال ای دی Red</t>
+  </si>
+  <si>
+    <t>عملکرد کلید Tamper</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +749,9 @@
       <c r="N2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11" t="s">
         <v>35</v>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86036D88-489E-4484-A055-1A294FAB5A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9B9CE-3358-4FA0-8B45-4BAAE90CF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -620,8 +620,8 @@
   <dimension ref="A1:DB923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
     <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
     <col min="10" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="1" customWidth="1"/>
     <col min="20" max="21" width="9.28515625" style="1" customWidth="1"/>
@@ -752,10 +752,10 @@
       <c r="O2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11" t="s">
         <v>13</v>
@@ -899,9 +899,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9B9CE-3358-4FA0-8B45-4BAAE90CF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586ACF3-A477-44B7-9AE4-2266B130539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>عملکرد کلید Tamper</t>
+  </si>
+  <si>
+    <t>ریست نمودن پارامتر ها</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +758,9 @@
       <c r="P2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11" t="s">
         <v>13</v>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586ACF3-A477-44B7-9AE4-2266B130539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833CD1F8-B3AA-4B72-9C40-336515B364DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>ریست نمودن پارامتر ها</t>
+  </si>
+  <si>
+    <t>پاک نمودن پایگاه داده</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="topRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +764,9 @@
       <c r="Q2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="S2" s="11" t="s">
         <v>13</v>
       </c>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E75D74-A2E9-4245-89A5-CC5253297A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A836C6-4144-4263-8195-190E14EC27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>تنظیم سریال</t>
+  </si>
+  <si>
+    <t>تنظیم ساعت و تاریخ</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S4" sqref="S4"/>
+      <selection pane="topRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +779,9 @@
       <c r="S2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="U2" s="11"/>
       <c r="V2" s="11" t="s">
         <v>13</v>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FEC5E2-0760-455F-9F8C-3BE8BC58447A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976AFD46-D424-4D8F-85B5-A6B0BB9F5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>راه اندازی برنامه نهایی</t>
+  </si>
+  <si>
+    <t>بررسی تغذیه 12 ولت</t>
+  </si>
+  <si>
+    <t>بررسی تغذیه 5 ولت</t>
+  </si>
+  <si>
+    <t>بررسی تغذیه 4 ولت</t>
+  </si>
+  <si>
+    <t>بررسی تغذیه 3.3 ولت</t>
+  </si>
+  <si>
+    <t>بررسی Booster</t>
   </si>
 </sst>
 </file>
@@ -584,8 +599,8 @@
   <dimension ref="A1:CY923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V7" sqref="V7"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,11 +741,21 @@
       <c r="U2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="V2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976AFD46-D424-4D8F-85B5-A6B0BB9F5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A5820-B10A-4D9B-AB61-EDC174ADBAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>بررسی Booster</t>
+  </si>
+  <si>
+    <t>بررسی عملکرد رله</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +625,7 @@
     <col min="24" max="24" width="19.140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="20.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="18.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" customWidth="1"/>
     <col min="28" max="28" width="13" style="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="1" customWidth="1"/>
     <col min="30" max="30" width="12.42578125" style="1" customWidth="1"/>
@@ -756,7 +759,9 @@
       <c r="Z2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A5820-B10A-4D9B-AB61-EDC174ADBAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB47A2A-1B38-46C6-B3A8-08241904825B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>بررسی عملکرد رله</t>
+  </si>
+  <si>
+    <t>بررسی عملکرد RS485</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +629,7 @@
     <col min="25" max="25" width="20.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="18.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" style="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="1" customWidth="1"/>
     <col min="30" max="30" width="12.42578125" style="1" customWidth="1"/>
     <col min="31" max="31" width="15.140625" style="1" customWidth="1"/>
@@ -762,7 +765,9 @@
       <c r="AA2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="11"/>
+      <c r="AB2" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB47A2A-1B38-46C6-B3A8-08241904825B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF233FD4-BC1B-43A1-ACF1-06FC10E6C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>بررسی عملکرد RS485</t>
+  </si>
+  <si>
+    <t>بررسی عملکرد MBUS</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
+      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +633,7 @@
     <col min="26" max="26" width="18.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="1" customWidth="1"/>
     <col min="28" max="28" width="17.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" style="1" customWidth="1"/>
     <col min="30" max="30" width="12.42578125" style="1" customWidth="1"/>
     <col min="31" max="31" width="15.140625" style="1" customWidth="1"/>
     <col min="32" max="32" width="12.7109375" style="1" customWidth="1"/>
@@ -768,7 +771,9 @@
       <c r="AB2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="11"/>
+      <c r="AC2" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF233FD4-BC1B-43A1-ACF1-06FC10E6C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EFDA8A-115B-4292-B81C-F0F09F9CE0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CY923"/>
+  <dimension ref="A1:CU923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,18 +634,14 @@
     <col min="27" max="27" width="14.5703125" style="1" customWidth="1"/>
     <col min="28" max="28" width="17.28515625" style="1" customWidth="1"/>
     <col min="29" max="29" width="17.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16" style="1" customWidth="1"/>
-    <col min="36" max="36" width="37.42578125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="1" customWidth="1"/>
-    <col min="103" max="103" width="64" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="1" customWidth="1"/>
+    <col min="32" max="32" width="37.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" style="1" customWidth="1"/>
+    <col min="99" max="99" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:99" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -682,13 +678,9 @@
       <c r="AD1" s="15"/>
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="16"/>
-    </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="AG1" s="16"/>
+    </row>
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -774,24 +766,20 @@
       <c r="AC2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AG2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:99" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -825,12 +813,8 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-    </row>
-    <row r="4" spans="1:103" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:99" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -881,23 +865,19 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3">
+      <c r="AE4" s="3">
         <v>500</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="CC4" s="2"/>
-      <c r="CY4" s="2"/>
-    </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="BY4" s="2"/>
+      <c r="CU4" s="2"/>
+    </row>
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -926,12 +906,8 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -964,12 +940,8 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-    </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -998,12 +970,8 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1032,12 +1000,8 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1066,12 +1030,8 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1100,12 +1060,8 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1134,13 +1090,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AJ11" s="6"/>
-    </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="AF11" s="6"/>
+    </row>
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1169,12 +1121,8 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1203,12 +1151,8 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1237,12 +1181,8 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1271,12 +1211,8 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1305,12 +1241,8 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1339,12 +1271,8 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1373,12 +1301,8 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1407,12 +1331,8 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1441,12 +1361,8 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="3"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1475,12 +1391,8 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="3"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1509,12 +1421,8 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="3"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1543,12 +1451,8 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1577,12 +1481,8 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1611,12 +1511,8 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1645,12 +1541,8 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1679,12 +1571,8 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1713,12 +1601,8 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1747,12 +1631,8 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1781,13 +1661,9 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AJ30" s="6"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF30" s="6"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1816,12 +1692,8 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1850,12 +1722,8 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="5"/>
-    </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1884,12 +1752,8 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-    </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1918,12 +1782,8 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-    </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1952,12 +1812,8 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-    </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1986,12 +1842,8 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-    </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2020,12 +1872,8 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-    </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2054,13 +1902,9 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AJ38" s="6"/>
-    </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF38" s="6"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2089,12 +1933,8 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-    </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2123,12 +1963,8 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-    </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2157,12 +1993,8 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-    </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2191,12 +2023,8 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-    </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2225,12 +2053,8 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-    </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2259,12 +2083,8 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-    </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2293,12 +2113,8 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="3"/>
-    </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2327,12 +2143,8 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3"/>
-    </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2361,12 +2173,8 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-    </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2395,12 +2203,8 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="3"/>
-    </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2429,12 +2233,8 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="3"/>
-    </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2463,12 +2263,8 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="3"/>
-    </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2497,12 +2293,8 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="3"/>
-    </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2531,12 +2323,8 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-    </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2565,12 +2353,8 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-    </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2599,12 +2383,8 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="3"/>
-    </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2633,12 +2413,8 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-    </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2667,12 +2443,8 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-    </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2701,12 +2473,8 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="3"/>
-    </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2735,12 +2503,8 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="5"/>
-    </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2769,12 +2533,8 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-    </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2803,12 +2563,8 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-    </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2837,12 +2593,8 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-    </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2871,12 +2623,8 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-    </row>
-    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2905,12 +2653,8 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="5"/>
-    </row>
-    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2939,12 +2683,8 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-    </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2973,12 +2713,8 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-    </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3007,12 +2743,8 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-    </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3041,12 +2773,8 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="3"/>
-    </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3075,12 +2803,8 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-    </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3109,12 +2833,8 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-    </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3143,12 +2863,8 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
-      <c r="AG70" s="3"/>
-    </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3177,13 +2893,9 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
-      <c r="AJ71" s="6"/>
-    </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF71" s="6"/>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3212,12 +2924,8 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="3"/>
-    </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3246,12 +2954,8 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-    </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3280,12 +2984,8 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-    </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3314,12 +3014,8 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-      <c r="AG75" s="3"/>
-    </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3348,12 +3044,8 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="3"/>
-    </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3382,12 +3074,8 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
-      <c r="AG77" s="3"/>
-    </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3416,12 +3104,8 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-    </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3450,12 +3134,8 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-      <c r="AF79" s="3"/>
-      <c r="AG79" s="3"/>
-    </row>
-    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3484,12 +3164,8 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="3"/>
-    </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3518,12 +3194,8 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="3"/>
-    </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3552,13 +3224,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AJ82" s="6"/>
-    </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF82" s="6"/>
+    </row>
+    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3587,12 +3255,8 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
-      <c r="AG83" s="3"/>
-    </row>
-    <row r="84" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3621,12 +3285,8 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
-      <c r="AF84" s="3"/>
-      <c r="AG84" s="3"/>
-    </row>
-    <row r="85" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3655,12 +3315,8 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-      <c r="AF85" s="3"/>
-      <c r="AG85" s="3"/>
-    </row>
-    <row r="86" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3689,12 +3345,8 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-      <c r="AF86" s="3"/>
-      <c r="AG86" s="3"/>
-    </row>
-    <row r="87" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3723,12 +3375,8 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="3"/>
-      <c r="AG87" s="3"/>
-    </row>
-    <row r="88" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3757,12 +3405,8 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="3"/>
-      <c r="AG88" s="3"/>
-    </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3791,12 +3435,8 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
-      <c r="AF89" s="3"/>
-      <c r="AG89" s="3"/>
-    </row>
-    <row r="90" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3825,12 +3465,8 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
-      <c r="AF90" s="3"/>
-      <c r="AG90" s="3"/>
-    </row>
-    <row r="91" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3859,12 +3495,8 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
-      <c r="AF91" s="3"/>
-      <c r="AG91" s="3"/>
-    </row>
-    <row r="92" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3893,12 +3525,8 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
-      <c r="AF92" s="3"/>
-      <c r="AG92" s="3"/>
-    </row>
-    <row r="93" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3927,12 +3555,8 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
-      <c r="AF93" s="3"/>
-      <c r="AG93" s="3"/>
-    </row>
-    <row r="94" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3961,12 +3585,8 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
-      <c r="AF94" s="3"/>
-      <c r="AG94" s="3"/>
-    </row>
-    <row r="95" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3995,12 +3615,8 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-      <c r="AF95" s="3"/>
-      <c r="AG95" s="3"/>
-    </row>
-    <row r="96" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4029,12 +3645,8 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-      <c r="AF96" s="3"/>
-      <c r="AG96" s="3"/>
-    </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4063,12 +3675,8 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-      <c r="AF97" s="3"/>
-      <c r="AG97" s="3"/>
-    </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4097,12 +3705,8 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-      <c r="AF98" s="3"/>
-      <c r="AG98" s="3"/>
-    </row>
-    <row r="99" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4131,12 +3735,8 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-      <c r="AF99" s="3"/>
-      <c r="AG99" s="3"/>
-    </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4165,12 +3765,8 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-      <c r="AF100" s="3"/>
-      <c r="AG100" s="3"/>
-    </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4199,12 +3795,8 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-      <c r="AF101" s="3"/>
-      <c r="AG101" s="3"/>
-    </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4233,12 +3825,8 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-      <c r="AF102" s="3"/>
-      <c r="AG102" s="3"/>
-    </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4267,12 +3855,8 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-      <c r="AF103" s="3"/>
-      <c r="AG103" s="3"/>
-    </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4301,12 +3885,8 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
-      <c r="AF104" s="3"/>
-      <c r="AG104" s="3"/>
-    </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4335,12 +3915,8 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
-      <c r="AF105" s="3"/>
-      <c r="AG105" s="3"/>
-    </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4369,12 +3945,8 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
-      <c r="AF106" s="3"/>
-      <c r="AG106" s="3"/>
-    </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4403,12 +3975,8 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-      <c r="AF107" s="3"/>
-      <c r="AG107" s="3"/>
-    </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4437,12 +4005,8 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
-      <c r="AD108" s="3"/>
-      <c r="AE108" s="3"/>
-      <c r="AF108" s="3"/>
-      <c r="AG108" s="3"/>
-    </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4471,12 +4035,8 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
-      <c r="AD109" s="3"/>
-      <c r="AE109" s="3"/>
-      <c r="AF109" s="3"/>
-      <c r="AG109" s="3"/>
-    </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4505,12 +4065,8 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
-      <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
-      <c r="AF110" s="3"/>
-      <c r="AG110" s="3"/>
-    </row>
-    <row r="111" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4539,13 +4095,9 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-      <c r="AF111" s="3"/>
-      <c r="AG111" s="3"/>
-      <c r="AJ111" s="6"/>
-    </row>
-    <row r="112" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF111" s="6"/>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4574,12 +4126,8 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
-      <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
-      <c r="AF112" s="3"/>
-      <c r="AG112" s="3"/>
-    </row>
-    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4608,12 +4156,8 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-      <c r="AF113" s="3"/>
-      <c r="AG113" s="3"/>
-    </row>
-    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4642,12 +4186,8 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-      <c r="AF114" s="3"/>
-      <c r="AG114" s="3"/>
-    </row>
-    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4676,12 +4216,8 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-      <c r="AF115" s="3"/>
-      <c r="AG115" s="3"/>
-    </row>
-    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4710,12 +4246,8 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
-      <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
-      <c r="AF116" s="3"/>
-      <c r="AG116" s="3"/>
-    </row>
-    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4744,12 +4276,8 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-      <c r="AF117" s="5"/>
-      <c r="AG117" s="5"/>
-    </row>
-    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4778,12 +4306,8 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
-      <c r="AF118" s="5"/>
-      <c r="AG118" s="5"/>
-    </row>
-    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4812,12 +4336,8 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
-      <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
-      <c r="AF119" s="3"/>
-      <c r="AG119" s="3"/>
-    </row>
-    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4846,12 +4366,8 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
-      <c r="AF120" s="3"/>
-      <c r="AG120" s="3"/>
-    </row>
-    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4880,12 +4396,8 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
-      <c r="AD121" s="3"/>
-      <c r="AE121" s="3"/>
-      <c r="AF121" s="3"/>
-      <c r="AG121" s="3"/>
-    </row>
-    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4914,12 +4426,8 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-      <c r="AF122" s="3"/>
-      <c r="AG122" s="3"/>
-    </row>
-    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4948,12 +4456,8 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-      <c r="AF123" s="3"/>
-      <c r="AG123" s="3"/>
-    </row>
-    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4982,12 +4486,8 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="5"/>
       <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
-      <c r="AF124" s="3"/>
-      <c r="AG124" s="3"/>
-    </row>
-    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -5016,12 +4516,8 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="5"/>
       <c r="AC125" s="3"/>
-      <c r="AD125" s="3"/>
-      <c r="AE125" s="3"/>
-      <c r="AF125" s="3"/>
-      <c r="AG125" s="3"/>
-    </row>
-    <row r="126" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -5050,12 +4546,8 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="5"/>
       <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-      <c r="AF126" s="3"/>
-      <c r="AG126" s="3"/>
-    </row>
-    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -5084,12 +4576,8 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="5"/>
       <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-      <c r="AF127" s="3"/>
-      <c r="AG127" s="3"/>
-    </row>
-    <row r="128" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -5118,12 +4606,8 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
-      <c r="AD128" s="3"/>
-      <c r="AE128" s="3"/>
-      <c r="AF128" s="3"/>
-      <c r="AG128" s="3"/>
-    </row>
-    <row r="129" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -5152,12 +4636,8 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
-      <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
-      <c r="AF129" s="3"/>
-      <c r="AG129" s="3"/>
-    </row>
-    <row r="130" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -5186,12 +4666,8 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
-      <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
-      <c r="AF130" s="3"/>
-      <c r="AG130" s="3"/>
-    </row>
-    <row r="131" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5220,12 +4696,8 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-      <c r="AF131" s="3"/>
-      <c r="AG131" s="3"/>
-    </row>
-    <row r="132" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5254,12 +4726,8 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-      <c r="AF132" s="5"/>
-      <c r="AG132" s="3"/>
-    </row>
-    <row r="133" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5288,12 +4756,8 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-      <c r="AF133" s="3"/>
-      <c r="AG133" s="3"/>
-    </row>
-    <row r="134" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5322,12 +4786,8 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
-      <c r="AD134" s="3"/>
-      <c r="AE134" s="3"/>
-      <c r="AF134" s="3"/>
-      <c r="AG134" s="3"/>
-    </row>
-    <row r="135" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5356,13 +4816,9 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
-      <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
-      <c r="AF135" s="3"/>
-      <c r="AG135" s="3"/>
-      <c r="AJ135" s="6"/>
-    </row>
-    <row r="136" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF135" s="6"/>
+    </row>
+    <row r="136" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5391,12 +4847,8 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
-      <c r="AD136" s="3"/>
-      <c r="AE136" s="3"/>
-      <c r="AF136" s="3"/>
-      <c r="AG136" s="3"/>
-    </row>
-    <row r="137" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5425,12 +4877,8 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="5"/>
       <c r="AC137" s="3"/>
-      <c r="AD137" s="3"/>
-      <c r="AE137" s="3"/>
-      <c r="AF137" s="3"/>
-      <c r="AG137" s="3"/>
-    </row>
-    <row r="138" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5459,12 +4907,8 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
-      <c r="AD138" s="3"/>
-      <c r="AE138" s="3"/>
-      <c r="AF138" s="3"/>
-      <c r="AG138" s="3"/>
-    </row>
-    <row r="139" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5493,12 +4937,8 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
-      <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
-      <c r="AF139" s="3"/>
-      <c r="AG139" s="3"/>
-    </row>
-    <row r="140" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5527,13 +4967,9 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
-      <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
-      <c r="AF140" s="3"/>
-      <c r="AG140" s="3"/>
-      <c r="AJ140" s="6"/>
-    </row>
-    <row r="141" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF140" s="6"/>
+    </row>
+    <row r="141" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5562,12 +4998,8 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
-      <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
-      <c r="AF141" s="3"/>
-      <c r="AG141" s="3"/>
-    </row>
-    <row r="142" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5596,12 +5028,8 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
-      <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
-      <c r="AF142" s="3"/>
-      <c r="AG142" s="3"/>
-    </row>
-    <row r="143" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5630,12 +5058,8 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
-      <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
-      <c r="AF143" s="5"/>
-      <c r="AG143" s="5"/>
-    </row>
-    <row r="144" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5664,12 +5088,8 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-      <c r="AF144" s="3"/>
-      <c r="AG144" s="3"/>
-    </row>
-    <row r="145" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5698,12 +5118,8 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
-      <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
-      <c r="AF145" s="3"/>
-      <c r="AG145" s="3"/>
-    </row>
-    <row r="146" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5732,12 +5148,8 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
-      <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
-      <c r="AF146" s="3"/>
-      <c r="AG146" s="3"/>
-    </row>
-    <row r="147" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5766,12 +5178,8 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-      <c r="AF147" s="3"/>
-      <c r="AG147" s="3"/>
-    </row>
-    <row r="148" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5800,13 +5208,9 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
-      <c r="AD148" s="3"/>
-      <c r="AE148" s="3"/>
-      <c r="AF148" s="3"/>
-      <c r="AG148" s="3"/>
-      <c r="AJ148" s="6"/>
-    </row>
-    <row r="149" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF148" s="6"/>
+    </row>
+    <row r="149" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5835,13 +5239,9 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="5"/>
       <c r="AC149" s="3"/>
-      <c r="AD149" s="3"/>
-      <c r="AE149" s="3"/>
-      <c r="AF149" s="3"/>
-      <c r="AG149" s="3"/>
-      <c r="AJ149" s="6"/>
-    </row>
-    <row r="150" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF149" s="6"/>
+    </row>
+    <row r="150" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5870,12 +5270,8 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="5"/>
       <c r="AC150" s="3"/>
-      <c r="AD150" s="3"/>
-      <c r="AE150" s="3"/>
-      <c r="AF150" s="3"/>
-      <c r="AG150" s="3"/>
-    </row>
-    <row r="151" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5904,12 +5300,8 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
-      <c r="AD151" s="3"/>
-      <c r="AE151" s="3"/>
-      <c r="AF151" s="5"/>
-      <c r="AG151" s="3"/>
-    </row>
-    <row r="152" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5938,12 +5330,8 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
-      <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
-      <c r="AF152" s="3"/>
-      <c r="AG152" s="3"/>
-    </row>
-    <row r="153" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B153" s="13"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5972,13 +5360,9 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="5"/>
       <c r="AC153" s="3"/>
-      <c r="AD153" s="3"/>
-      <c r="AE153" s="3"/>
-      <c r="AF153" s="3"/>
-      <c r="AG153" s="3"/>
-      <c r="AJ153" s="6"/>
-    </row>
-    <row r="154" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF153" s="6"/>
+    </row>
+    <row r="154" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B154" s="13"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -6007,12 +5391,8 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="5"/>
       <c r="AC154" s="3"/>
-      <c r="AD154" s="3"/>
-      <c r="AE154" s="3"/>
-      <c r="AF154" s="3"/>
-      <c r="AG154" s="3"/>
-    </row>
-    <row r="155" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B155" s="13"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -6041,12 +5421,8 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
-      <c r="AD155" s="3"/>
-      <c r="AE155" s="3"/>
-      <c r="AF155" s="3"/>
-      <c r="AG155" s="3"/>
-    </row>
-    <row r="156" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B156" s="13"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -6075,13 +5451,9 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
-      <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
-      <c r="AF156" s="3"/>
-      <c r="AG156" s="3"/>
-      <c r="AJ156" s="6"/>
-    </row>
-    <row r="157" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF156" s="6"/>
+    </row>
+    <row r="157" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B157" s="13"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -6110,12 +5482,8 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
-      <c r="AD157" s="3"/>
-      <c r="AE157" s="3"/>
-      <c r="AF157" s="3"/>
-      <c r="AG157" s="3"/>
-    </row>
-    <row r="158" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B158" s="13"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -6144,12 +5512,8 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
-      <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
-      <c r="AF158" s="3"/>
-      <c r="AG158" s="3"/>
-    </row>
-    <row r="159" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B159" s="13"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -6178,12 +5542,8 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
-      <c r="AD159" s="3"/>
-      <c r="AE159" s="3"/>
-      <c r="AF159" s="3"/>
-      <c r="AG159" s="3"/>
-    </row>
-    <row r="160" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B160" s="13"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -6212,12 +5572,8 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
-      <c r="AD160" s="3"/>
-      <c r="AE160" s="3"/>
-      <c r="AF160" s="3"/>
-      <c r="AG160" s="3"/>
-    </row>
-    <row r="161" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B161" s="13"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -6246,12 +5602,8 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="5"/>
       <c r="AC161" s="3"/>
-      <c r="AD161" s="3"/>
-      <c r="AE161" s="3"/>
-      <c r="AF161" s="3"/>
-      <c r="AG161" s="3"/>
-    </row>
-    <row r="162" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B162" s="13"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -6280,12 +5632,8 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
-      <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
-      <c r="AF162" s="3"/>
-      <c r="AG162" s="3"/>
-    </row>
-    <row r="163" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -6314,12 +5662,8 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
-      <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
-      <c r="AF163" s="3"/>
-      <c r="AG163" s="3"/>
-    </row>
-    <row r="164" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -6348,12 +5692,8 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="5"/>
       <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-      <c r="AF164" s="3"/>
-      <c r="AG164" s="3"/>
-    </row>
-    <row r="165" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -6382,12 +5722,8 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-      <c r="AF165" s="3"/>
-      <c r="AG165" s="3"/>
-    </row>
-    <row r="166" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6416,12 +5752,8 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
-      <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
-      <c r="AF166" s="3"/>
-      <c r="AG166" s="3"/>
-    </row>
-    <row r="167" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6450,12 +5782,8 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
-      <c r="AD167" s="3"/>
-      <c r="AE167" s="3"/>
-      <c r="AF167" s="3"/>
-      <c r="AG167" s="3"/>
-    </row>
-    <row r="168" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6484,13 +5812,9 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
-      <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
-      <c r="AF168" s="3"/>
-      <c r="AG168" s="3"/>
-      <c r="AJ168" s="6"/>
-    </row>
-    <row r="169" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF168" s="6"/>
+    </row>
+    <row r="169" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6519,18 +5843,14 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
-      <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
-      <c r="AF169" s="3"/>
-      <c r="AG169" s="3"/>
-    </row>
-    <row r="170" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6559,12 +5879,8 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
-      <c r="AD171" s="3"/>
-      <c r="AE171" s="3"/>
-      <c r="AF171" s="3"/>
-      <c r="AG171" s="3"/>
-    </row>
-    <row r="172" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6593,12 +5909,8 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
-      <c r="AD172" s="3"/>
-      <c r="AE172" s="3"/>
-      <c r="AF172" s="3"/>
-      <c r="AG172" s="3"/>
-    </row>
-    <row r="173" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6627,12 +5939,8 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
-      <c r="AD173" s="3"/>
-      <c r="AE173" s="3"/>
-      <c r="AF173" s="3"/>
-      <c r="AG173" s="3"/>
-    </row>
-    <row r="174" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6661,12 +5969,8 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="5"/>
       <c r="AC174" s="3"/>
-      <c r="AD174" s="3"/>
-      <c r="AE174" s="3"/>
-      <c r="AF174" s="3"/>
-      <c r="AG174" s="3"/>
-    </row>
-    <row r="175" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6695,12 +5999,8 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
-      <c r="AD175" s="3"/>
-      <c r="AE175" s="3"/>
-      <c r="AF175" s="3"/>
-      <c r="AG175" s="3"/>
-    </row>
-    <row r="176" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6729,12 +6029,8 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
-      <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
-      <c r="AF176" s="3"/>
-      <c r="AG176" s="3"/>
-    </row>
-    <row r="177" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6763,12 +6059,8 @@
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
-      <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
-      <c r="AF177" s="3"/>
-      <c r="AG177" s="3"/>
-    </row>
-    <row r="178" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6797,12 +6089,8 @@
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
-      <c r="AD178" s="3"/>
-      <c r="AE178" s="3"/>
-      <c r="AF178" s="3"/>
-      <c r="AG178" s="3"/>
-    </row>
-    <row r="179" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6831,12 +6119,8 @@
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
-      <c r="AD179" s="3"/>
-      <c r="AE179" s="3"/>
-      <c r="AF179" s="3"/>
-      <c r="AG179" s="3"/>
-    </row>
-    <row r="180" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6865,12 +6149,8 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="5"/>
       <c r="AC180" s="3"/>
-      <c r="AD180" s="3"/>
-      <c r="AE180" s="3"/>
-      <c r="AF180" s="3"/>
-      <c r="AG180" s="3"/>
-    </row>
-    <row r="181" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6899,12 +6179,8 @@
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
-      <c r="AD181" s="3"/>
-      <c r="AE181" s="3"/>
-      <c r="AF181" s="5"/>
-      <c r="AG181" s="3"/>
-    </row>
-    <row r="182" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6933,12 +6209,8 @@
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
-      <c r="AD182" s="3"/>
-      <c r="AE182" s="3"/>
-      <c r="AF182" s="3"/>
-      <c r="AG182" s="3"/>
-    </row>
-    <row r="183" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6967,12 +6239,8 @@
       <c r="AA183" s="3"/>
       <c r="AB183" s="5"/>
       <c r="AC183" s="3"/>
-      <c r="AD183" s="3"/>
-      <c r="AE183" s="3"/>
-      <c r="AF183" s="3"/>
-      <c r="AG183" s="3"/>
-    </row>
-    <row r="184" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -7001,12 +6269,8 @@
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
-      <c r="AD184" s="3"/>
-      <c r="AE184" s="3"/>
-      <c r="AF184" s="3"/>
-      <c r="AG184" s="3"/>
-    </row>
-    <row r="185" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -7035,12 +6299,8 @@
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
-      <c r="AD185" s="3"/>
-      <c r="AE185" s="3"/>
-      <c r="AF185" s="3"/>
-      <c r="AG185" s="3"/>
-    </row>
-    <row r="186" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -7069,12 +6329,8 @@
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
-      <c r="AD186" s="3"/>
-      <c r="AE186" s="3"/>
-      <c r="AF186" s="3"/>
-      <c r="AG186" s="3"/>
-    </row>
-    <row r="187" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -7103,12 +6359,8 @@
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
-      <c r="AD187" s="3"/>
-      <c r="AE187" s="3"/>
-      <c r="AF187" s="3"/>
-      <c r="AG187" s="3"/>
-    </row>
-    <row r="188" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -7137,12 +6389,8 @@
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
-      <c r="AD188" s="3"/>
-      <c r="AE188" s="3"/>
-      <c r="AF188" s="3"/>
-      <c r="AG188" s="3"/>
-    </row>
-    <row r="189" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -7171,12 +6419,8 @@
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
-      <c r="AD189" s="3"/>
-      <c r="AE189" s="3"/>
-      <c r="AF189" s="3"/>
-      <c r="AG189" s="3"/>
-    </row>
-    <row r="190" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -7205,12 +6449,8 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
-      <c r="AD190" s="3"/>
-      <c r="AE190" s="3"/>
-      <c r="AF190" s="3"/>
-      <c r="AG190" s="3"/>
-    </row>
-    <row r="191" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -7239,12 +6479,8 @@
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
-      <c r="AD191" s="3"/>
-      <c r="AE191" s="3"/>
-      <c r="AF191" s="3"/>
-      <c r="AG191" s="3"/>
-    </row>
-    <row r="192" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -7273,12 +6509,8 @@
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
-      <c r="AD192" s="3"/>
-      <c r="AE192" s="3"/>
-      <c r="AF192" s="3"/>
-      <c r="AG192" s="3"/>
-    </row>
-    <row r="193" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -7307,12 +6539,8 @@
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
-      <c r="AD193" s="3"/>
-      <c r="AE193" s="3"/>
-      <c r="AF193" s="3"/>
-      <c r="AG193" s="3"/>
-    </row>
-    <row r="194" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -7341,12 +6569,8 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
-      <c r="AD194" s="3"/>
-      <c r="AE194" s="3"/>
-      <c r="AF194" s="3"/>
-      <c r="AG194" s="3"/>
-    </row>
-    <row r="195" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -7374,12 +6598,8 @@
       <c r="Z195" s="3"/>
       <c r="AA195" s="3"/>
       <c r="AC195" s="3"/>
-      <c r="AD195" s="3"/>
-      <c r="AE195" s="3"/>
-      <c r="AF195" s="3"/>
-      <c r="AG195" s="3"/>
-    </row>
-    <row r="196" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -7406,12 +6626,8 @@
       <c r="Z196" s="3"/>
       <c r="AA196" s="3"/>
       <c r="AC196" s="3"/>
-      <c r="AD196" s="3"/>
-      <c r="AE196" s="3"/>
-      <c r="AF196" s="3"/>
-      <c r="AG196" s="3"/>
-    </row>
-    <row r="197" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7438,12 +6654,8 @@
       <c r="Z197" s="3"/>
       <c r="AA197" s="3"/>
       <c r="AC197" s="3"/>
-      <c r="AD197" s="3"/>
-      <c r="AE197" s="3"/>
-      <c r="AF197" s="3"/>
-      <c r="AG197" s="3"/>
-    </row>
-    <row r="198" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7470,12 +6682,8 @@
       <c r="Z198" s="3"/>
       <c r="AA198" s="3"/>
       <c r="AC198" s="3"/>
-      <c r="AD198" s="3"/>
-      <c r="AE198" s="3"/>
-      <c r="AF198" s="3"/>
-      <c r="AG198" s="3"/>
-    </row>
-    <row r="199" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7502,12 +6710,8 @@
       <c r="Z199" s="3"/>
       <c r="AA199" s="3"/>
       <c r="AC199" s="3"/>
-      <c r="AD199" s="3"/>
-      <c r="AE199" s="3"/>
-      <c r="AF199" s="3"/>
-      <c r="AG199" s="3"/>
-    </row>
-    <row r="200" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7535,12 +6739,8 @@
       <c r="Z200" s="3"/>
       <c r="AA200" s="3"/>
       <c r="AC200" s="3"/>
-      <c r="AD200" s="3"/>
-      <c r="AE200" s="3"/>
-      <c r="AF200" s="3"/>
-      <c r="AG200" s="3"/>
-    </row>
-    <row r="201" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7567,12 +6767,8 @@
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
       <c r="AC201" s="3"/>
-      <c r="AD201" s="3"/>
-      <c r="AE201" s="3"/>
-      <c r="AF201" s="3"/>
-      <c r="AG201" s="3"/>
-    </row>
-    <row r="202" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7599,12 +6795,8 @@
       <c r="Z202" s="3"/>
       <c r="AA202" s="3"/>
       <c r="AC202" s="3"/>
-      <c r="AD202" s="3"/>
-      <c r="AE202" s="3"/>
-      <c r="AF202" s="3"/>
-      <c r="AG202" s="3"/>
-    </row>
-    <row r="203" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7631,12 +6823,8 @@
       <c r="Z203" s="3"/>
       <c r="AA203" s="3"/>
       <c r="AC203" s="3"/>
-      <c r="AD203" s="3"/>
-      <c r="AE203" s="3"/>
-      <c r="AF203" s="3"/>
-      <c r="AG203" s="3"/>
-    </row>
-    <row r="204" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7663,12 +6851,8 @@
       <c r="Z204" s="3"/>
       <c r="AA204" s="3"/>
       <c r="AC204" s="3"/>
-      <c r="AD204" s="3"/>
-      <c r="AE204" s="3"/>
-      <c r="AF204" s="3"/>
-      <c r="AG204" s="3"/>
-    </row>
-    <row r="205" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7695,12 +6879,8 @@
       <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
       <c r="AC205" s="3"/>
-      <c r="AD205" s="3"/>
-      <c r="AE205" s="3"/>
-      <c r="AF205" s="3"/>
-      <c r="AG205" s="3"/>
-    </row>
-    <row r="206" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7727,12 +6907,8 @@
       <c r="Z206" s="3"/>
       <c r="AA206" s="3"/>
       <c r="AC206" s="3"/>
-      <c r="AD206" s="3"/>
-      <c r="AE206" s="3"/>
-      <c r="AF206" s="3"/>
-      <c r="AG206" s="3"/>
-    </row>
-    <row r="207" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7760,12 +6936,8 @@
       <c r="Z207" s="3"/>
       <c r="AA207" s="3"/>
       <c r="AC207" s="3"/>
-      <c r="AD207" s="3"/>
-      <c r="AE207" s="3"/>
-      <c r="AF207" s="3"/>
-      <c r="AG207" s="3"/>
-    </row>
-    <row r="208" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7794,13 +6966,9 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="5"/>
       <c r="AC208" s="3"/>
-      <c r="AD208" s="3"/>
-      <c r="AE208" s="3"/>
-      <c r="AF208" s="5"/>
-      <c r="AG208" s="5"/>
-      <c r="AJ208" s="6"/>
-    </row>
-    <row r="209" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF208" s="6"/>
+    </row>
+    <row r="209" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7827,12 +6995,8 @@
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
       <c r="AC209" s="3"/>
-      <c r="AD209" s="3"/>
-      <c r="AE209" s="3"/>
-      <c r="AF209" s="3"/>
-      <c r="AG209" s="3"/>
-    </row>
-    <row r="210" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7861,12 +7025,8 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
-      <c r="AD210" s="3"/>
-      <c r="AE210" s="3"/>
-      <c r="AF210" s="3"/>
-      <c r="AG210" s="3"/>
-    </row>
-    <row r="211" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7895,12 +7055,8 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
-      <c r="AD211" s="3"/>
-      <c r="AE211" s="3"/>
-      <c r="AF211" s="3"/>
-      <c r="AG211" s="3"/>
-    </row>
-    <row r="212" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7929,12 +7085,8 @@
       <c r="AA212" s="3"/>
       <c r="AB212" s="5"/>
       <c r="AC212" s="3"/>
-      <c r="AD212" s="3"/>
-      <c r="AE212" s="3"/>
-      <c r="AF212" s="3"/>
-      <c r="AG212" s="3"/>
-    </row>
-    <row r="213" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7963,12 +7115,8 @@
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
-      <c r="AD213" s="3"/>
-      <c r="AE213" s="3"/>
-      <c r="AF213" s="3"/>
-      <c r="AG213" s="3"/>
-    </row>
-    <row r="214" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7997,12 +7145,8 @@
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
-      <c r="AD214" s="3"/>
-      <c r="AE214" s="3"/>
-      <c r="AF214" s="3"/>
-      <c r="AG214" s="3"/>
-    </row>
-    <row r="215" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -8031,12 +7175,8 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
-      <c r="AD215" s="3"/>
-      <c r="AE215" s="3"/>
-      <c r="AF215" s="3"/>
-      <c r="AG215" s="3"/>
-    </row>
-    <row r="216" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -8065,12 +7205,8 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
-      <c r="AD216" s="3"/>
-      <c r="AE216" s="3"/>
-      <c r="AF216" s="3"/>
-      <c r="AG216" s="3"/>
-    </row>
-    <row r="217" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -8099,12 +7235,8 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
-      <c r="AD217" s="3"/>
-      <c r="AE217" s="3"/>
-      <c r="AF217" s="3"/>
-      <c r="AG217" s="3"/>
-    </row>
-    <row r="218" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -8133,12 +7265,8 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
-      <c r="AD218" s="3"/>
-      <c r="AE218" s="3"/>
-      <c r="AF218" s="3"/>
-      <c r="AG218" s="3"/>
-    </row>
-    <row r="219" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -8167,12 +7295,8 @@
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
-      <c r="AD219" s="3"/>
-      <c r="AE219" s="3"/>
-      <c r="AF219" s="3"/>
-      <c r="AG219" s="3"/>
-    </row>
-    <row r="220" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -8201,12 +7325,8 @@
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
-      <c r="AD220" s="3"/>
-      <c r="AE220" s="3"/>
-      <c r="AF220" s="3"/>
-      <c r="AG220" s="3"/>
-    </row>
-    <row r="221" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -8235,13 +7355,9 @@
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
-      <c r="AD221" s="3"/>
-      <c r="AE221" s="3"/>
-      <c r="AF221" s="3"/>
-      <c r="AG221" s="3"/>
-      <c r="AJ221" s="6"/>
-    </row>
-    <row r="222" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF221" s="6"/>
+    </row>
+    <row r="222" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -8270,12 +7386,8 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
-      <c r="AD222" s="3"/>
-      <c r="AE222" s="3"/>
-      <c r="AF222" s="3"/>
-      <c r="AG222" s="3"/>
-    </row>
-    <row r="223" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -8304,12 +7416,8 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
-      <c r="AD223" s="3"/>
-      <c r="AE223" s="3"/>
-      <c r="AF223" s="3"/>
-      <c r="AG223" s="3"/>
-    </row>
-    <row r="224" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -8338,12 +7446,8 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
-      <c r="AD224" s="3"/>
-      <c r="AE224" s="3"/>
-      <c r="AF224" s="3"/>
-      <c r="AG224" s="3"/>
-    </row>
-    <row r="225" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -8372,12 +7476,8 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
-      <c r="AD225" s="3"/>
-      <c r="AE225" s="3"/>
-      <c r="AF225" s="3"/>
-      <c r="AG225" s="3"/>
-    </row>
-    <row r="226" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -8406,12 +7506,8 @@
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
-      <c r="AD226" s="3"/>
-      <c r="AE226" s="3"/>
-      <c r="AF226" s="3"/>
-      <c r="AG226" s="3"/>
-    </row>
-    <row r="227" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -8440,12 +7536,8 @@
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
-      <c r="AD227" s="3"/>
-      <c r="AE227" s="3"/>
-      <c r="AF227" s="3"/>
-      <c r="AG227" s="3"/>
-    </row>
-    <row r="228" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8474,12 +7566,8 @@
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
-      <c r="AD228" s="3"/>
-      <c r="AE228" s="3"/>
-      <c r="AF228" s="3"/>
-      <c r="AG228" s="3"/>
-    </row>
-    <row r="229" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8508,12 +7596,8 @@
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
-      <c r="AD229" s="3"/>
-      <c r="AE229" s="3"/>
-      <c r="AF229" s="3"/>
-      <c r="AG229" s="3"/>
-    </row>
-    <row r="230" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8542,12 +7626,8 @@
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
-      <c r="AD230" s="3"/>
-      <c r="AE230" s="3"/>
-      <c r="AF230" s="3"/>
-      <c r="AG230" s="3"/>
-    </row>
-    <row r="231" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8576,12 +7656,8 @@
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
-      <c r="AD231" s="3"/>
-      <c r="AE231" s="3"/>
-      <c r="AF231" s="3"/>
-      <c r="AG231" s="3"/>
-    </row>
-    <row r="232" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8610,12 +7686,8 @@
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
-      <c r="AD232" s="3"/>
-      <c r="AE232" s="3"/>
-      <c r="AF232" s="3"/>
-      <c r="AG232" s="3"/>
-    </row>
-    <row r="233" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8644,12 +7716,8 @@
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
-      <c r="AD233" s="3"/>
-      <c r="AE233" s="3"/>
-      <c r="AF233" s="3"/>
-      <c r="AG233" s="3"/>
-    </row>
-    <row r="234" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8678,12 +7746,8 @@
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
-      <c r="AD234" s="3"/>
-      <c r="AE234" s="3"/>
-      <c r="AF234" s="3"/>
-      <c r="AG234" s="3"/>
-    </row>
-    <row r="235" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8710,12 +7774,8 @@
       <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
       <c r="AC235" s="3"/>
-      <c r="AD235" s="3"/>
-      <c r="AE235" s="3"/>
-      <c r="AF235" s="3"/>
-      <c r="AG235" s="3"/>
-    </row>
-    <row r="236" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8742,12 +7802,8 @@
       <c r="Z236" s="3"/>
       <c r="AA236" s="3"/>
       <c r="AC236" s="3"/>
-      <c r="AD236" s="3"/>
-      <c r="AE236" s="3"/>
-      <c r="AF236" s="3"/>
-      <c r="AG236" s="3"/>
-    </row>
-    <row r="237" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8776,12 +7832,8 @@
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
-      <c r="AD237" s="3"/>
-      <c r="AE237" s="3"/>
-      <c r="AF237" s="3"/>
-      <c r="AG237" s="3"/>
-    </row>
-    <row r="238" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8808,12 +7860,8 @@
       <c r="Z238" s="3"/>
       <c r="AA238" s="3"/>
       <c r="AC238" s="3"/>
-      <c r="AD238" s="3"/>
-      <c r="AE238" s="3"/>
-      <c r="AF238" s="3"/>
-      <c r="AG238" s="3"/>
-    </row>
-    <row r="239" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8842,12 +7890,8 @@
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
-      <c r="AD239" s="3"/>
-      <c r="AE239" s="3"/>
-      <c r="AF239" s="3"/>
-      <c r="AG239" s="3"/>
-    </row>
-    <row r="240" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8876,12 +7920,8 @@
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
-      <c r="AD240" s="3"/>
-      <c r="AE240" s="3"/>
-      <c r="AF240" s="3"/>
-      <c r="AG240" s="3"/>
-    </row>
-    <row r="241" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8910,12 +7950,8 @@
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
-      <c r="AD241" s="3"/>
-      <c r="AE241" s="3"/>
-      <c r="AF241" s="3"/>
-      <c r="AG241" s="3"/>
-    </row>
-    <row r="243" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8944,12 +7980,8 @@
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
-      <c r="AD243" s="3"/>
-      <c r="AE243" s="3"/>
-      <c r="AF243" s="3"/>
-      <c r="AG243" s="3"/>
-    </row>
-    <row r="244" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8976,12 +8008,8 @@
       <c r="Z244" s="3"/>
       <c r="AA244" s="3"/>
       <c r="AC244" s="3"/>
-      <c r="AD244" s="3"/>
-      <c r="AE244" s="3"/>
-      <c r="AF244" s="3"/>
-      <c r="AG244" s="3"/>
-    </row>
-    <row r="245" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -9008,12 +8036,8 @@
       <c r="Z245" s="3"/>
       <c r="AA245" s="3"/>
       <c r="AC245" s="3"/>
-      <c r="AD245" s="3"/>
-      <c r="AE245" s="3"/>
-      <c r="AF245" s="3"/>
-      <c r="AG245" s="3"/>
-    </row>
-    <row r="246" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -9040,12 +8064,8 @@
       <c r="Z246" s="3"/>
       <c r="AA246" s="3"/>
       <c r="AC246" s="3"/>
-      <c r="AD246" s="3"/>
-      <c r="AE246" s="3"/>
-      <c r="AF246" s="3"/>
-      <c r="AG246" s="3"/>
-    </row>
-    <row r="247" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -9072,12 +8092,8 @@
       <c r="Z247" s="3"/>
       <c r="AA247" s="3"/>
       <c r="AC247" s="3"/>
-      <c r="AD247" s="3"/>
-      <c r="AE247" s="3"/>
-      <c r="AF247" s="3"/>
-      <c r="AG247" s="3"/>
-    </row>
-    <row r="248" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -9104,12 +8120,8 @@
       <c r="Z248" s="3"/>
       <c r="AA248" s="3"/>
       <c r="AC248" s="3"/>
-      <c r="AD248" s="3"/>
-      <c r="AE248" s="3"/>
-      <c r="AF248" s="3"/>
-      <c r="AG248" s="3"/>
-    </row>
-    <row r="249" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -9138,12 +8150,8 @@
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
-      <c r="AD249" s="3"/>
-      <c r="AE249" s="3"/>
-      <c r="AF249" s="3"/>
-      <c r="AG249" s="3"/>
-    </row>
-    <row r="250" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -9172,12 +8180,8 @@
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
-      <c r="AD250" s="3"/>
-      <c r="AE250" s="3"/>
-      <c r="AF250" s="3"/>
-      <c r="AG250" s="3"/>
-    </row>
-    <row r="251" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -9206,12 +8210,8 @@
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
-      <c r="AD251" s="3"/>
-      <c r="AE251" s="3"/>
-      <c r="AF251" s="3"/>
-      <c r="AG251" s="3"/>
-    </row>
-    <row r="252" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -9240,12 +8240,8 @@
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
-      <c r="AD252" s="3"/>
-      <c r="AE252" s="3"/>
-      <c r="AF252" s="3"/>
-      <c r="AG252" s="3"/>
-    </row>
-    <row r="253" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -9274,12 +8270,8 @@
       <c r="AA253" s="3"/>
       <c r="AB253" s="5"/>
       <c r="AC253" s="3"/>
-      <c r="AD253" s="3"/>
-      <c r="AE253" s="3"/>
-      <c r="AF253" s="3"/>
-      <c r="AG253" s="3"/>
-    </row>
-    <row r="254" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -9308,12 +8300,8 @@
       <c r="AA254" s="3"/>
       <c r="AB254" s="5"/>
       <c r="AC254" s="3"/>
-      <c r="AD254" s="3"/>
-      <c r="AE254" s="3"/>
-      <c r="AF254" s="3"/>
-      <c r="AG254" s="3"/>
-    </row>
-    <row r="255" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -9340,12 +8328,8 @@
       <c r="Z255" s="3"/>
       <c r="AA255" s="3"/>
       <c r="AC255" s="3"/>
-      <c r="AD255" s="3"/>
-      <c r="AE255" s="3"/>
-      <c r="AF255" s="3"/>
-      <c r="AG255" s="3"/>
-    </row>
-    <row r="256" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -9374,12 +8358,8 @@
       <c r="AA256" s="3"/>
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
-      <c r="AD256" s="3"/>
-      <c r="AE256" s="3"/>
-      <c r="AF256" s="3"/>
-      <c r="AG256" s="3"/>
-    </row>
-    <row r="257" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -9408,12 +8388,8 @@
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
-      <c r="AD257" s="3"/>
-      <c r="AE257" s="3"/>
-      <c r="AF257" s="3"/>
-      <c r="AG257" s="3"/>
-    </row>
-    <row r="258" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -9442,12 +8418,8 @@
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
-      <c r="AD258" s="3"/>
-      <c r="AE258" s="3"/>
-      <c r="AF258" s="3"/>
-      <c r="AG258" s="3"/>
-    </row>
-    <row r="259" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -9476,12 +8448,8 @@
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
-      <c r="AD259" s="3"/>
-      <c r="AE259" s="3"/>
-      <c r="AF259" s="3"/>
-      <c r="AG259" s="3"/>
-    </row>
-    <row r="260" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9510,12 +8478,8 @@
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
-      <c r="AD260" s="3"/>
-      <c r="AE260" s="3"/>
-      <c r="AF260" s="3"/>
-      <c r="AG260" s="3"/>
-    </row>
-    <row r="261" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9542,12 +8506,8 @@
       <c r="Z261" s="3"/>
       <c r="AA261" s="3"/>
       <c r="AC261" s="3"/>
-      <c r="AD261" s="3"/>
-      <c r="AE261" s="3"/>
-      <c r="AF261" s="3"/>
-      <c r="AG261" s="3"/>
-    </row>
-    <row r="262" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9575,12 +8535,8 @@
       <c r="AA262" s="3"/>
       <c r="AB262" s="5"/>
       <c r="AC262" s="3"/>
-      <c r="AD262" s="3"/>
-      <c r="AE262" s="3"/>
-      <c r="AF262" s="3"/>
-      <c r="AG262" s="3"/>
-    </row>
-    <row r="263" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9607,12 +8563,8 @@
       <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
       <c r="AC263" s="3"/>
-      <c r="AD263" s="3"/>
-      <c r="AE263" s="3"/>
-      <c r="AF263" s="3"/>
-      <c r="AG263" s="3"/>
-    </row>
-    <row r="264" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9640,12 +8592,8 @@
       <c r="Z264" s="3"/>
       <c r="AA264" s="3"/>
       <c r="AC264" s="3"/>
-      <c r="AD264" s="3"/>
-      <c r="AE264" s="3"/>
-      <c r="AF264" s="3"/>
-      <c r="AG264" s="3"/>
-    </row>
-    <row r="265" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -9672,12 +8620,8 @@
       <c r="Z265" s="3"/>
       <c r="AA265" s="3"/>
       <c r="AC265" s="3"/>
-      <c r="AD265" s="3"/>
-      <c r="AE265" s="3"/>
-      <c r="AF265" s="3"/>
-      <c r="AG265" s="3"/>
-    </row>
-    <row r="266" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -9704,12 +8648,8 @@
       <c r="Z266" s="3"/>
       <c r="AA266" s="3"/>
       <c r="AC266" s="3"/>
-      <c r="AD266" s="3"/>
-      <c r="AE266" s="3"/>
-      <c r="AF266" s="3"/>
-      <c r="AG266" s="3"/>
-    </row>
-    <row r="267" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9737,12 +8677,8 @@
       <c r="Z267" s="3"/>
       <c r="AA267" s="3"/>
       <c r="AC267" s="3"/>
-      <c r="AD267" s="3"/>
-      <c r="AE267" s="3"/>
-      <c r="AF267" s="3"/>
-      <c r="AG267" s="3"/>
-    </row>
-    <row r="268" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9769,12 +8705,8 @@
       <c r="Z268" s="3"/>
       <c r="AA268" s="3"/>
       <c r="AC268" s="3"/>
-      <c r="AD268" s="3"/>
-      <c r="AE268" s="3"/>
-      <c r="AF268" s="3"/>
-      <c r="AG268" s="3"/>
-    </row>
-    <row r="269" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9803,12 +8735,8 @@
       <c r="AA269" s="3"/>
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
-      <c r="AD269" s="3"/>
-      <c r="AE269" s="3"/>
-      <c r="AF269" s="3"/>
-      <c r="AG269" s="3"/>
-    </row>
-    <row r="270" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9837,12 +8765,8 @@
       <c r="AA270" s="3"/>
       <c r="AB270" s="5"/>
       <c r="AC270" s="3"/>
-      <c r="AD270" s="3"/>
-      <c r="AE270" s="3"/>
-      <c r="AF270" s="3"/>
-      <c r="AG270" s="3"/>
-    </row>
-    <row r="271" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9871,13 +8795,9 @@
       <c r="AA271" s="3"/>
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
-      <c r="AD271" s="3"/>
-      <c r="AE271" s="3"/>
-      <c r="AF271" s="3"/>
-      <c r="AG271" s="3"/>
-      <c r="AJ271" s="6"/>
-    </row>
-    <row r="272" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF271" s="6"/>
+    </row>
+    <row r="272" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9906,12 +8826,8 @@
       <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
-      <c r="AD272" s="3"/>
-      <c r="AE272" s="3"/>
-      <c r="AF272" s="3"/>
-      <c r="AG272" s="3"/>
-    </row>
-    <row r="273" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9940,12 +8856,8 @@
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
-      <c r="AD273" s="3"/>
-      <c r="AE273" s="3"/>
-      <c r="AF273" s="3"/>
-      <c r="AG273" s="3"/>
-    </row>
-    <row r="274" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9974,12 +8886,8 @@
       <c r="AA274" s="3"/>
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
-      <c r="AD274" s="3"/>
-      <c r="AE274" s="3"/>
-      <c r="AF274" s="3"/>
-      <c r="AG274" s="3"/>
-    </row>
-    <row r="275" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -10008,12 +8916,8 @@
       <c r="AA275" s="3"/>
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
-      <c r="AD275" s="3"/>
-      <c r="AE275" s="3"/>
-      <c r="AF275" s="3"/>
-      <c r="AG275" s="3"/>
-    </row>
-    <row r="276" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -10042,12 +8946,8 @@
       <c r="AA276" s="3"/>
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
-      <c r="AD276" s="3"/>
-      <c r="AE276" s="3"/>
-      <c r="AF276" s="3"/>
-      <c r="AG276" s="3"/>
-    </row>
-    <row r="277" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -10074,12 +8974,8 @@
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
       <c r="AC277" s="3"/>
-      <c r="AD277" s="3"/>
-      <c r="AE277" s="3"/>
-      <c r="AF277" s="3"/>
-      <c r="AG277" s="3"/>
-    </row>
-    <row r="278" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -10108,12 +9004,8 @@
       <c r="AA278" s="3"/>
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
-      <c r="AD278" s="3"/>
-      <c r="AE278" s="3"/>
-      <c r="AF278" s="3"/>
-      <c r="AG278" s="3"/>
-    </row>
-    <row r="279" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -10141,12 +9033,8 @@
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
       <c r="AC279" s="3"/>
-      <c r="AD279" s="3"/>
-      <c r="AE279" s="3"/>
-      <c r="AF279" s="3"/>
-      <c r="AG279" s="3"/>
-    </row>
-    <row r="280" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -10173,12 +9061,8 @@
       <c r="Z280" s="3"/>
       <c r="AA280" s="3"/>
       <c r="AC280" s="3"/>
-      <c r="AD280" s="3"/>
-      <c r="AE280" s="3"/>
-      <c r="AF280" s="3"/>
-      <c r="AG280" s="3"/>
-    </row>
-    <row r="281" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -10205,12 +9089,8 @@
       <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
       <c r="AC281" s="3"/>
-      <c r="AD281" s="3"/>
-      <c r="AE281" s="3"/>
-      <c r="AF281" s="3"/>
-      <c r="AG281" s="3"/>
-    </row>
-    <row r="282" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -10237,12 +9117,8 @@
       <c r="Z282" s="3"/>
       <c r="AA282" s="3"/>
       <c r="AC282" s="3"/>
-      <c r="AD282" s="3"/>
-      <c r="AE282" s="3"/>
-      <c r="AF282" s="3"/>
-      <c r="AG282" s="3"/>
-    </row>
-    <row r="283" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -10270,12 +9146,8 @@
       <c r="Z283" s="3"/>
       <c r="AA283" s="3"/>
       <c r="AC283" s="3"/>
-      <c r="AD283" s="3"/>
-      <c r="AE283" s="3"/>
-      <c r="AF283" s="3"/>
-      <c r="AG283" s="3"/>
-    </row>
-    <row r="284" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -10304,12 +9176,8 @@
       <c r="AA284" s="3"/>
       <c r="AB284" s="5"/>
       <c r="AC284" s="3"/>
-      <c r="AD284" s="3"/>
-      <c r="AE284" s="3"/>
-      <c r="AF284" s="3"/>
-      <c r="AG284" s="3"/>
-    </row>
-    <row r="285" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -10338,12 +9206,8 @@
       <c r="AA285" s="3"/>
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
-      <c r="AD285" s="3"/>
-      <c r="AE285" s="3"/>
-      <c r="AF285" s="3"/>
-      <c r="AG285" s="3"/>
-    </row>
-    <row r="286" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -10372,12 +9236,8 @@
       <c r="AA286" s="3"/>
       <c r="AB286" s="5"/>
       <c r="AC286" s="3"/>
-      <c r="AD286" s="3"/>
-      <c r="AE286" s="3"/>
-      <c r="AF286" s="3"/>
-      <c r="AG286" s="3"/>
-    </row>
-    <row r="287" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -10404,12 +9264,8 @@
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
       <c r="AC287" s="3"/>
-      <c r="AD287" s="3"/>
-      <c r="AE287" s="3"/>
-      <c r="AF287" s="3"/>
-      <c r="AG287" s="3"/>
-    </row>
-    <row r="288" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -10436,12 +9292,8 @@
       <c r="Z288" s="3"/>
       <c r="AA288" s="3"/>
       <c r="AC288" s="3"/>
-      <c r="AD288" s="3"/>
-      <c r="AE288" s="3"/>
-      <c r="AF288" s="3"/>
-      <c r="AG288" s="3"/>
-    </row>
-    <row r="289" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -10468,12 +9320,8 @@
       <c r="Z289" s="3"/>
       <c r="AA289" s="3"/>
       <c r="AC289" s="3"/>
-      <c r="AD289" s="3"/>
-      <c r="AE289" s="3"/>
-      <c r="AF289" s="3"/>
-      <c r="AG289" s="3"/>
-    </row>
-    <row r="290" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -10500,12 +9348,8 @@
       <c r="Z290" s="3"/>
       <c r="AA290" s="3"/>
       <c r="AC290" s="3"/>
-      <c r="AD290" s="3"/>
-      <c r="AE290" s="3"/>
-      <c r="AF290" s="3"/>
-      <c r="AG290" s="3"/>
-    </row>
-    <row r="291" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -10532,12 +9376,8 @@
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
       <c r="AC291" s="3"/>
-      <c r="AD291" s="3"/>
-      <c r="AE291" s="3"/>
-      <c r="AF291" s="3"/>
-      <c r="AG291" s="3"/>
-    </row>
-    <row r="292" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -10564,12 +9404,8 @@
       <c r="Z292" s="3"/>
       <c r="AA292" s="3"/>
       <c r="AC292" s="3"/>
-      <c r="AD292" s="3"/>
-      <c r="AE292" s="3"/>
-      <c r="AF292" s="3"/>
-      <c r="AG292" s="3"/>
-    </row>
-    <row r="293" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -10596,12 +9432,8 @@
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
       <c r="AC293" s="3"/>
-      <c r="AD293" s="3"/>
-      <c r="AE293" s="3"/>
-      <c r="AF293" s="3"/>
-      <c r="AG293" s="3"/>
-    </row>
-    <row r="294" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -10629,12 +9461,8 @@
       <c r="AA294" s="3"/>
       <c r="AB294" s="5"/>
       <c r="AC294" s="3"/>
-      <c r="AD294" s="3"/>
-      <c r="AE294" s="3"/>
-      <c r="AF294" s="3"/>
-      <c r="AG294" s="3"/>
-    </row>
-    <row r="295" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -10661,12 +9489,8 @@
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
       <c r="AC295" s="3"/>
-      <c r="AD295" s="3"/>
-      <c r="AE295" s="3"/>
-      <c r="AF295" s="3"/>
-      <c r="AG295" s="3"/>
-    </row>
-    <row r="296" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -10693,12 +9517,8 @@
       <c r="Z296" s="3"/>
       <c r="AA296" s="3"/>
       <c r="AC296" s="3"/>
-      <c r="AD296" s="3"/>
-      <c r="AE296" s="3"/>
-      <c r="AF296" s="3"/>
-      <c r="AG296" s="3"/>
-    </row>
-    <row r="297" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -10725,12 +9545,8 @@
       <c r="Z297" s="3"/>
       <c r="AA297" s="3"/>
       <c r="AC297" s="3"/>
-      <c r="AD297" s="3"/>
-      <c r="AE297" s="3"/>
-      <c r="AF297" s="3"/>
-      <c r="AG297" s="3"/>
-    </row>
-    <row r="298" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -10759,13 +9575,9 @@
       <c r="AA298" s="3"/>
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
-      <c r="AD298" s="3"/>
-      <c r="AE298" s="3"/>
-      <c r="AF298" s="3"/>
-      <c r="AG298" s="3"/>
-      <c r="AJ298" s="6"/>
-    </row>
-    <row r="299" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF298" s="6"/>
+    </row>
+    <row r="299" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10794,12 +9606,8 @@
       <c r="AA299" s="3"/>
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
-      <c r="AD299" s="3"/>
-      <c r="AE299" s="3"/>
-      <c r="AF299" s="3"/>
-      <c r="AG299" s="3"/>
-    </row>
-    <row r="300" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10828,12 +9636,8 @@
       <c r="AA300" s="3"/>
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
-      <c r="AD300" s="3"/>
-      <c r="AE300" s="3"/>
-      <c r="AF300" s="3"/>
-      <c r="AG300" s="3"/>
-    </row>
-    <row r="301" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10862,12 +9666,8 @@
       <c r="AA301" s="3"/>
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
-      <c r="AD301" s="3"/>
-      <c r="AE301" s="3"/>
-      <c r="AF301" s="3"/>
-      <c r="AG301" s="3"/>
-    </row>
-    <row r="302" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10896,12 +9696,8 @@
       <c r="AA302" s="3"/>
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
-      <c r="AD302" s="3"/>
-      <c r="AE302" s="3"/>
-      <c r="AF302" s="3"/>
-      <c r="AG302" s="3"/>
-    </row>
-    <row r="303" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10930,12 +9726,8 @@
       <c r="AA303" s="3"/>
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
-      <c r="AD303" s="3"/>
-      <c r="AE303" s="3"/>
-      <c r="AF303" s="3"/>
-      <c r="AG303" s="3"/>
-    </row>
-    <row r="304" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10964,12 +9756,8 @@
       <c r="AA304" s="3"/>
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
-      <c r="AD304" s="3"/>
-      <c r="AE304" s="3"/>
-      <c r="AF304" s="3"/>
-      <c r="AG304" s="3"/>
-    </row>
-    <row r="305" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10998,12 +9786,8 @@
       <c r="AA305" s="3"/>
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
-      <c r="AD305" s="3"/>
-      <c r="AE305" s="3"/>
-      <c r="AF305" s="3"/>
-      <c r="AG305" s="3"/>
-    </row>
-    <row r="306" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -11032,12 +9816,8 @@
       <c r="AA306" s="3"/>
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
-      <c r="AD306" s="3"/>
-      <c r="AE306" s="3"/>
-      <c r="AF306" s="3"/>
-      <c r="AG306" s="3"/>
-    </row>
-    <row r="307" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -11066,12 +9846,8 @@
       <c r="AA307" s="3"/>
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
-      <c r="AD307" s="3"/>
-      <c r="AE307" s="3"/>
-      <c r="AF307" s="3"/>
-      <c r="AG307" s="3"/>
-    </row>
-    <row r="308" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -11100,12 +9876,8 @@
       <c r="AA308" s="3"/>
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
-      <c r="AD308" s="3"/>
-      <c r="AE308" s="3"/>
-      <c r="AF308" s="3"/>
-      <c r="AG308" s="3"/>
-    </row>
-    <row r="309" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -11134,12 +9906,8 @@
       <c r="AA309" s="3"/>
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
-      <c r="AD309" s="3"/>
-      <c r="AE309" s="3"/>
-      <c r="AF309" s="3"/>
-      <c r="AG309" s="3"/>
-    </row>
-    <row r="310" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -11168,12 +9936,8 @@
       <c r="AA310" s="3"/>
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
-      <c r="AD310" s="3"/>
-      <c r="AE310" s="3"/>
-      <c r="AF310" s="3"/>
-      <c r="AG310" s="3"/>
-    </row>
-    <row r="311" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -11202,12 +9966,8 @@
       <c r="AA311" s="3"/>
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
-      <c r="AD311" s="3"/>
-      <c r="AE311" s="3"/>
-      <c r="AF311" s="3"/>
-      <c r="AG311" s="3"/>
-    </row>
-    <row r="312" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -11236,12 +9996,8 @@
       <c r="AA312" s="3"/>
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
-      <c r="AD312" s="3"/>
-      <c r="AE312" s="3"/>
-      <c r="AF312" s="3"/>
-      <c r="AG312" s="3"/>
-    </row>
-    <row r="313" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -11270,12 +10026,8 @@
       <c r="AA313" s="3"/>
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
-      <c r="AD313" s="3"/>
-      <c r="AE313" s="3"/>
-      <c r="AF313" s="3"/>
-      <c r="AG313" s="3"/>
-    </row>
-    <row r="314" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -11304,12 +10056,8 @@
       <c r="AA314" s="3"/>
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
-      <c r="AD314" s="3"/>
-      <c r="AE314" s="3"/>
-      <c r="AF314" s="3"/>
-      <c r="AG314" s="3"/>
-    </row>
-    <row r="315" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -11338,12 +10086,8 @@
       <c r="AA315" s="3"/>
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
-      <c r="AD315" s="3"/>
-      <c r="AE315" s="3"/>
-      <c r="AF315" s="3"/>
-      <c r="AG315" s="3"/>
-    </row>
-    <row r="316" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -11372,12 +10116,8 @@
       <c r="AA316" s="3"/>
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
-      <c r="AD316" s="3"/>
-      <c r="AE316" s="3"/>
-      <c r="AF316" s="3"/>
-      <c r="AG316" s="3"/>
-    </row>
-    <row r="317" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -11406,12 +10146,8 @@
       <c r="AA317" s="3"/>
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
-      <c r="AD317" s="3"/>
-      <c r="AE317" s="5"/>
-      <c r="AF317" s="3"/>
-      <c r="AG317" s="3"/>
-    </row>
-    <row r="318" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -11440,12 +10176,8 @@
       <c r="AA318" s="3"/>
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
-      <c r="AD318" s="3"/>
-      <c r="AE318" s="3"/>
-      <c r="AF318" s="3"/>
-      <c r="AG318" s="3"/>
-    </row>
-    <row r="319" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -11474,12 +10206,8 @@
       <c r="AA319" s="3"/>
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
-      <c r="AD319" s="3"/>
-      <c r="AE319" s="3"/>
-      <c r="AF319" s="3"/>
-      <c r="AG319" s="3"/>
-    </row>
-    <row r="320" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -11508,12 +10236,8 @@
       <c r="AA320" s="3"/>
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
-      <c r="AD320" s="3"/>
-      <c r="AE320" s="3"/>
-      <c r="AF320" s="3"/>
-      <c r="AG320" s="3"/>
-    </row>
-    <row r="321" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -11542,12 +10266,8 @@
       <c r="AA321" s="3"/>
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
-      <c r="AD321" s="3"/>
-      <c r="AE321" s="3"/>
-      <c r="AF321" s="3"/>
-      <c r="AG321" s="3"/>
-    </row>
-    <row r="322" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -11576,12 +10296,8 @@
       <c r="AA322" s="3"/>
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
-      <c r="AD322" s="3"/>
-      <c r="AE322" s="5"/>
-      <c r="AF322" s="3"/>
-      <c r="AG322" s="3"/>
-    </row>
-    <row r="323" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -11610,12 +10326,8 @@
       <c r="AA323" s="3"/>
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
-      <c r="AD323" s="3"/>
-      <c r="AE323" s="5"/>
-      <c r="AF323" s="3"/>
-      <c r="AG323" s="3"/>
-    </row>
-    <row r="324" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -11644,12 +10356,8 @@
       <c r="AA324" s="3"/>
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
-      <c r="AD324" s="3"/>
-      <c r="AE324" s="3"/>
-      <c r="AF324" s="3"/>
-      <c r="AG324" s="3"/>
-    </row>
-    <row r="325" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -11678,12 +10386,8 @@
       <c r="AA325" s="3"/>
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
-      <c r="AD325" s="3"/>
-      <c r="AE325" s="3"/>
-      <c r="AF325" s="3"/>
-      <c r="AG325" s="3"/>
-    </row>
-    <row r="326" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -11712,12 +10416,8 @@
       <c r="AA326" s="3"/>
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
-      <c r="AD326" s="3"/>
-      <c r="AE326" s="3"/>
-      <c r="AF326" s="3"/>
-      <c r="AG326" s="3"/>
-    </row>
-    <row r="327" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -11746,12 +10446,8 @@
       <c r="AA327" s="3"/>
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
-      <c r="AD327" s="3"/>
-      <c r="AE327" s="3"/>
-      <c r="AF327" s="3"/>
-      <c r="AG327" s="3"/>
-    </row>
-    <row r="328" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -11780,12 +10476,8 @@
       <c r="AA328" s="3"/>
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
-      <c r="AD328" s="3"/>
-      <c r="AE328" s="5"/>
-      <c r="AF328" s="3"/>
-      <c r="AG328" s="3"/>
-    </row>
-    <row r="329" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -11814,12 +10506,8 @@
       <c r="AA329" s="3"/>
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
-      <c r="AD329" s="3"/>
-      <c r="AE329" s="3"/>
-      <c r="AF329" s="3"/>
-      <c r="AG329" s="3"/>
-    </row>
-    <row r="330" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11848,12 +10536,8 @@
       <c r="AA330" s="3"/>
       <c r="AB330" s="3"/>
       <c r="AC330" s="3"/>
-      <c r="AD330" s="3"/>
-      <c r="AE330" s="3"/>
-      <c r="AF330" s="3"/>
-      <c r="AG330" s="3"/>
-    </row>
-    <row r="331" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11882,12 +10566,8 @@
       <c r="AA331" s="3"/>
       <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
-      <c r="AD331" s="3"/>
-      <c r="AE331" s="3"/>
-      <c r="AF331" s="3"/>
-      <c r="AG331" s="3"/>
-    </row>
-    <row r="332" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11916,13 +10596,9 @@
       <c r="AA332" s="3"/>
       <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
-      <c r="AD332" s="3"/>
-      <c r="AE332" s="3"/>
-      <c r="AF332" s="3"/>
-      <c r="AG332" s="3"/>
-      <c r="AJ332" s="6"/>
-    </row>
-    <row r="333" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF332" s="6"/>
+    </row>
+    <row r="333" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11951,12 +10627,8 @@
       <c r="AA333" s="3"/>
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
-      <c r="AD333" s="3"/>
-      <c r="AE333" s="3"/>
-      <c r="AF333" s="3"/>
-      <c r="AG333" s="3"/>
-    </row>
-    <row r="507" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -11985,12 +10657,8 @@
       <c r="AA507" s="3"/>
       <c r="AB507" s="3"/>
       <c r="AC507" s="3"/>
-      <c r="AD507" s="3"/>
-      <c r="AE507" s="3"/>
-      <c r="AF507" s="3"/>
-      <c r="AG507" s="3"/>
-    </row>
-    <row r="510" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -12019,12 +10687,8 @@
       <c r="AA510" s="3"/>
       <c r="AB510" s="3"/>
       <c r="AC510" s="3"/>
-      <c r="AD510" s="3"/>
-      <c r="AE510" s="3"/>
-      <c r="AF510" s="3"/>
-      <c r="AG510" s="3"/>
-    </row>
-    <row r="511" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -12053,12 +10717,8 @@
       <c r="AA511" s="3"/>
       <c r="AB511" s="3"/>
       <c r="AC511" s="3"/>
-      <c r="AD511" s="3"/>
-      <c r="AE511" s="3"/>
-      <c r="AF511" s="3"/>
-      <c r="AG511" s="3"/>
-    </row>
-    <row r="512" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -12087,12 +10747,8 @@
       <c r="AA512" s="3"/>
       <c r="AB512" s="3"/>
       <c r="AC512" s="3"/>
-      <c r="AD512" s="3"/>
-      <c r="AE512" s="3"/>
-      <c r="AF512" s="3"/>
-      <c r="AG512" s="3"/>
-    </row>
-    <row r="513" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -12121,12 +10777,8 @@
       <c r="AA513" s="3"/>
       <c r="AB513" s="3"/>
       <c r="AC513" s="3"/>
-      <c r="AD513" s="3"/>
-      <c r="AE513" s="3"/>
-      <c r="AF513" s="3"/>
-      <c r="AG513" s="3"/>
-    </row>
-    <row r="514" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -12155,12 +10807,8 @@
       <c r="AA514" s="3"/>
       <c r="AB514" s="3"/>
       <c r="AC514" s="3"/>
-      <c r="AD514" s="3"/>
-      <c r="AE514" s="3"/>
-      <c r="AF514" s="3"/>
-      <c r="AG514" s="3"/>
-    </row>
-    <row r="515" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -12189,12 +10837,8 @@
       <c r="AA515" s="3"/>
       <c r="AB515" s="3"/>
       <c r="AC515" s="3"/>
-      <c r="AD515" s="3"/>
-      <c r="AE515" s="3"/>
-      <c r="AF515" s="3"/>
-      <c r="AG515" s="3"/>
-    </row>
-    <row r="516" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -12223,12 +10867,8 @@
       <c r="AA516" s="3"/>
       <c r="AB516" s="3"/>
       <c r="AC516" s="3"/>
-      <c r="AD516" s="3"/>
-      <c r="AE516" s="3"/>
-      <c r="AF516" s="3"/>
-      <c r="AG516" s="3"/>
-    </row>
-    <row r="517" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -12257,12 +10897,8 @@
       <c r="AA517" s="3"/>
       <c r="AB517" s="3"/>
       <c r="AC517" s="3"/>
-      <c r="AD517" s="3"/>
-      <c r="AE517" s="3"/>
-      <c r="AF517" s="3"/>
-      <c r="AG517" s="3"/>
-    </row>
-    <row r="518" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -12291,12 +10927,8 @@
       <c r="AA518" s="3"/>
       <c r="AB518" s="3"/>
       <c r="AC518" s="3"/>
-      <c r="AD518" s="3"/>
-      <c r="AE518" s="3"/>
-      <c r="AF518" s="3"/>
-      <c r="AG518" s="3"/>
-    </row>
-    <row r="519" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -12325,12 +10957,8 @@
       <c r="AA519" s="3"/>
       <c r="AB519" s="3"/>
       <c r="AC519" s="3"/>
-      <c r="AD519" s="3"/>
-      <c r="AE519" s="3"/>
-      <c r="AF519" s="3"/>
-      <c r="AG519" s="3"/>
-    </row>
-    <row r="520" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -12359,12 +10987,8 @@
       <c r="AA520" s="3"/>
       <c r="AB520" s="3"/>
       <c r="AC520" s="3"/>
-      <c r="AD520" s="3"/>
-      <c r="AE520" s="3"/>
-      <c r="AF520" s="3"/>
-      <c r="AG520" s="3"/>
-    </row>
-    <row r="521" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -12393,12 +11017,8 @@
       <c r="AA521" s="3"/>
       <c r="AB521" s="3"/>
       <c r="AC521" s="3"/>
-      <c r="AD521" s="3"/>
-      <c r="AE521" s="3"/>
-      <c r="AF521" s="3"/>
-      <c r="AG521" s="3"/>
-    </row>
-    <row r="522" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -12427,12 +11047,8 @@
       <c r="AA522" s="3"/>
       <c r="AB522" s="3"/>
       <c r="AC522" s="3"/>
-      <c r="AD522" s="3"/>
-      <c r="AE522" s="3"/>
-      <c r="AF522" s="3"/>
-      <c r="AG522" s="3"/>
-    </row>
-    <row r="523" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -12461,12 +11077,8 @@
       <c r="AA523" s="3"/>
       <c r="AB523" s="3"/>
       <c r="AC523" s="3"/>
-      <c r="AD523" s="3"/>
-      <c r="AE523" s="3"/>
-      <c r="AF523" s="3"/>
-      <c r="AG523" s="3"/>
-    </row>
-    <row r="524" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -12495,12 +11107,8 @@
       <c r="AA524" s="3"/>
       <c r="AB524" s="3"/>
       <c r="AC524" s="3"/>
-      <c r="AD524" s="3"/>
-      <c r="AE524" s="3"/>
-      <c r="AF524" s="3"/>
-      <c r="AG524" s="3"/>
-    </row>
-    <row r="525" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -12529,12 +11137,8 @@
       <c r="AA525" s="3"/>
       <c r="AB525" s="3"/>
       <c r="AC525" s="3"/>
-      <c r="AD525" s="3"/>
-      <c r="AE525" s="3"/>
-      <c r="AF525" s="3"/>
-      <c r="AG525" s="3"/>
-    </row>
-    <row r="526" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -12563,12 +11167,8 @@
       <c r="AA526" s="3"/>
       <c r="AB526" s="3"/>
       <c r="AC526" s="3"/>
-      <c r="AD526" s="3"/>
-      <c r="AE526" s="3"/>
-      <c r="AF526" s="3"/>
-      <c r="AG526" s="3"/>
-    </row>
-    <row r="527" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -12597,12 +11197,8 @@
       <c r="AA527" s="3"/>
       <c r="AB527" s="3"/>
       <c r="AC527" s="3"/>
-      <c r="AD527" s="3"/>
-      <c r="AE527" s="3"/>
-      <c r="AF527" s="3"/>
-      <c r="AG527" s="3"/>
-    </row>
-    <row r="528" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -12631,12 +11227,8 @@
       <c r="AA528" s="3"/>
       <c r="AB528" s="3"/>
       <c r="AC528" s="3"/>
-      <c r="AD528" s="3"/>
-      <c r="AE528" s="3"/>
-      <c r="AF528" s="3"/>
-      <c r="AG528" s="3"/>
-    </row>
-    <row r="529" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -12665,12 +11257,8 @@
       <c r="AA529" s="3"/>
       <c r="AB529" s="3"/>
       <c r="AC529" s="3"/>
-      <c r="AD529" s="3"/>
-      <c r="AE529" s="3"/>
-      <c r="AF529" s="3"/>
-      <c r="AG529" s="3"/>
-    </row>
-    <row r="530" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -12699,12 +11287,8 @@
       <c r="AA530" s="3"/>
       <c r="AB530" s="3"/>
       <c r="AC530" s="3"/>
-      <c r="AD530" s="3"/>
-      <c r="AE530" s="3"/>
-      <c r="AF530" s="3"/>
-      <c r="AG530" s="3"/>
-    </row>
-    <row r="531" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -12733,12 +11317,8 @@
       <c r="AA531" s="3"/>
       <c r="AB531" s="3"/>
       <c r="AC531" s="3"/>
-      <c r="AD531" s="3"/>
-      <c r="AE531" s="3"/>
-      <c r="AF531" s="3"/>
-      <c r="AG531" s="3"/>
-    </row>
-    <row r="532" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -12767,12 +11347,8 @@
       <c r="AA532" s="3"/>
       <c r="AB532" s="3"/>
       <c r="AC532" s="3"/>
-      <c r="AD532" s="3"/>
-      <c r="AE532" s="3"/>
-      <c r="AF532" s="3"/>
-      <c r="AG532" s="3"/>
-    </row>
-    <row r="533" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -12801,12 +11377,8 @@
       <c r="AA533" s="3"/>
       <c r="AB533" s="3"/>
       <c r="AC533" s="3"/>
-      <c r="AD533" s="3"/>
-      <c r="AE533" s="3"/>
-      <c r="AF533" s="3"/>
-      <c r="AG533" s="3"/>
-    </row>
-    <row r="534" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -12835,12 +11407,8 @@
       <c r="AA534" s="3"/>
       <c r="AB534" s="3"/>
       <c r="AC534" s="3"/>
-      <c r="AD534" s="3"/>
-      <c r="AE534" s="3"/>
-      <c r="AF534" s="3"/>
-      <c r="AG534" s="3"/>
-    </row>
-    <row r="535" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -12869,12 +11437,8 @@
       <c r="AA535" s="3"/>
       <c r="AB535" s="3"/>
       <c r="AC535" s="3"/>
-      <c r="AD535" s="3"/>
-      <c r="AE535" s="3"/>
-      <c r="AF535" s="3"/>
-      <c r="AG535" s="3"/>
-    </row>
-    <row r="536" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -12903,12 +11467,8 @@
       <c r="AA536" s="3"/>
       <c r="AB536" s="3"/>
       <c r="AC536" s="3"/>
-      <c r="AD536" s="3"/>
-      <c r="AE536" s="3"/>
-      <c r="AF536" s="3"/>
-      <c r="AG536" s="3"/>
-    </row>
-    <row r="537" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -12937,12 +11497,8 @@
       <c r="AA537" s="3"/>
       <c r="AB537" s="3"/>
       <c r="AC537" s="3"/>
-      <c r="AD537" s="3"/>
-      <c r="AE537" s="3"/>
-      <c r="AF537" s="3"/>
-      <c r="AG537" s="3"/>
-    </row>
-    <row r="538" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -12971,12 +11527,8 @@
       <c r="AA538" s="3"/>
       <c r="AB538" s="3"/>
       <c r="AC538" s="3"/>
-      <c r="AD538" s="3"/>
-      <c r="AE538" s="3"/>
-      <c r="AF538" s="3"/>
-      <c r="AG538" s="3"/>
-    </row>
-    <row r="539" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -13005,12 +11557,8 @@
       <c r="AA539" s="3"/>
       <c r="AB539" s="3"/>
       <c r="AC539" s="3"/>
-      <c r="AD539" s="3"/>
-      <c r="AE539" s="3"/>
-      <c r="AF539" s="3"/>
-      <c r="AG539" s="3"/>
-    </row>
-    <row r="540" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -13039,12 +11587,8 @@
       <c r="AA540" s="3"/>
       <c r="AB540" s="3"/>
       <c r="AC540" s="3"/>
-      <c r="AD540" s="3"/>
-      <c r="AE540" s="3"/>
-      <c r="AF540" s="3"/>
-      <c r="AG540" s="3"/>
-    </row>
-    <row r="541" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -13073,12 +11617,8 @@
       <c r="AA541" s="3"/>
       <c r="AB541" s="3"/>
       <c r="AC541" s="3"/>
-      <c r="AD541" s="3"/>
-      <c r="AE541" s="3"/>
-      <c r="AF541" s="3"/>
-      <c r="AG541" s="3"/>
-    </row>
-    <row r="542" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -13107,12 +11647,8 @@
       <c r="AA542" s="3"/>
       <c r="AB542" s="3"/>
       <c r="AC542" s="3"/>
-      <c r="AD542" s="3"/>
-      <c r="AE542" s="3"/>
-      <c r="AF542" s="3"/>
-      <c r="AG542" s="3"/>
-    </row>
-    <row r="543" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -13141,12 +11677,8 @@
       <c r="AA543" s="3"/>
       <c r="AB543" s="3"/>
       <c r="AC543" s="3"/>
-      <c r="AD543" s="3"/>
-      <c r="AE543" s="3"/>
-      <c r="AF543" s="3"/>
-      <c r="AG543" s="3"/>
-    </row>
-    <row r="544" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -13175,12 +11707,8 @@
       <c r="AA544" s="3"/>
       <c r="AB544" s="3"/>
       <c r="AC544" s="3"/>
-      <c r="AD544" s="3"/>
-      <c r="AE544" s="3"/>
-      <c r="AF544" s="3"/>
-      <c r="AG544" s="3"/>
-    </row>
-    <row r="545" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -13209,12 +11737,8 @@
       <c r="AA545" s="3"/>
       <c r="AB545" s="3"/>
       <c r="AC545" s="3"/>
-      <c r="AD545" s="3"/>
-      <c r="AE545" s="3"/>
-      <c r="AF545" s="3"/>
-      <c r="AG545" s="3"/>
-    </row>
-    <row r="546" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -13243,12 +11767,8 @@
       <c r="AA546" s="3"/>
       <c r="AB546" s="3"/>
       <c r="AC546" s="3"/>
-      <c r="AD546" s="3"/>
-      <c r="AE546" s="3"/>
-      <c r="AF546" s="3"/>
-      <c r="AG546" s="3"/>
-    </row>
-    <row r="547" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -13277,12 +11797,8 @@
       <c r="AA547" s="3"/>
       <c r="AB547" s="3"/>
       <c r="AC547" s="3"/>
-      <c r="AD547" s="3"/>
-      <c r="AE547" s="3"/>
-      <c r="AF547" s="3"/>
-      <c r="AG547" s="3"/>
-    </row>
-    <row r="548" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -13311,12 +11827,8 @@
       <c r="AA548" s="3"/>
       <c r="AB548" s="3"/>
       <c r="AC548" s="3"/>
-      <c r="AD548" s="3"/>
-      <c r="AE548" s="3"/>
-      <c r="AF548" s="3"/>
-      <c r="AG548" s="3"/>
-    </row>
-    <row r="549" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -13345,12 +11857,8 @@
       <c r="AA549" s="3"/>
       <c r="AB549" s="3"/>
       <c r="AC549" s="3"/>
-      <c r="AD549" s="3"/>
-      <c r="AE549" s="3"/>
-      <c r="AF549" s="3"/>
-      <c r="AG549" s="3"/>
-    </row>
-    <row r="550" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -13379,12 +11887,8 @@
       <c r="AA550" s="3"/>
       <c r="AB550" s="3"/>
       <c r="AC550" s="3"/>
-      <c r="AD550" s="3"/>
-      <c r="AE550" s="3"/>
-      <c r="AF550" s="3"/>
-      <c r="AG550" s="3"/>
-    </row>
-    <row r="551" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -13413,12 +11917,8 @@
       <c r="AA551" s="3"/>
       <c r="AB551" s="3"/>
       <c r="AC551" s="3"/>
-      <c r="AD551" s="3"/>
-      <c r="AE551" s="3"/>
-      <c r="AF551" s="3"/>
-      <c r="AG551" s="3"/>
-    </row>
-    <row r="552" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -13447,12 +11947,8 @@
       <c r="AA552" s="3"/>
       <c r="AB552" s="3"/>
       <c r="AC552" s="3"/>
-      <c r="AD552" s="3"/>
-      <c r="AE552" s="3"/>
-      <c r="AF552" s="3"/>
-      <c r="AG552" s="3"/>
-    </row>
-    <row r="553" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -13481,12 +11977,8 @@
       <c r="AA553" s="3"/>
       <c r="AB553" s="3"/>
       <c r="AC553" s="3"/>
-      <c r="AD553" s="3"/>
-      <c r="AE553" s="3"/>
-      <c r="AF553" s="3"/>
-      <c r="AG553" s="3"/>
-    </row>
-    <row r="554" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -13515,12 +12007,8 @@
       <c r="AA554" s="3"/>
       <c r="AB554" s="3"/>
       <c r="AC554" s="3"/>
-      <c r="AD554" s="3"/>
-      <c r="AE554" s="3"/>
-      <c r="AF554" s="3"/>
-      <c r="AG554" s="3"/>
-    </row>
-    <row r="555" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -13549,12 +12037,8 @@
       <c r="AA555" s="3"/>
       <c r="AB555" s="3"/>
       <c r="AC555" s="3"/>
-      <c r="AD555" s="3"/>
-      <c r="AE555" s="3"/>
-      <c r="AF555" s="3"/>
-      <c r="AG555" s="3"/>
-    </row>
-    <row r="556" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -13583,12 +12067,8 @@
       <c r="AA556" s="3"/>
       <c r="AB556" s="3"/>
       <c r="AC556" s="3"/>
-      <c r="AD556" s="3"/>
-      <c r="AE556" s="3"/>
-      <c r="AF556" s="3"/>
-      <c r="AG556" s="3"/>
-    </row>
-    <row r="557" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -13617,12 +12097,8 @@
       <c r="AA557" s="3"/>
       <c r="AB557" s="3"/>
       <c r="AC557" s="3"/>
-      <c r="AD557" s="3"/>
-      <c r="AE557" s="3"/>
-      <c r="AF557" s="3"/>
-      <c r="AG557" s="3"/>
-    </row>
-    <row r="559" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -13651,12 +12127,8 @@
       <c r="AA559" s="3"/>
       <c r="AB559" s="3"/>
       <c r="AC559" s="3"/>
-      <c r="AD559" s="3"/>
-      <c r="AE559" s="3"/>
-      <c r="AF559" s="3"/>
-      <c r="AG559" s="3"/>
-    </row>
-    <row r="560" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -13685,12 +12157,8 @@
       <c r="AA560" s="3"/>
       <c r="AB560" s="3"/>
       <c r="AC560" s="3"/>
-      <c r="AD560" s="3"/>
-      <c r="AE560" s="3"/>
-      <c r="AF560" s="3"/>
-      <c r="AG560" s="3"/>
-    </row>
-    <row r="561" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -13719,12 +12187,8 @@
       <c r="AA561" s="3"/>
       <c r="AB561" s="3"/>
       <c r="AC561" s="3"/>
-      <c r="AD561" s="3"/>
-      <c r="AE561" s="3"/>
-      <c r="AF561" s="3"/>
-      <c r="AG561" s="3"/>
-    </row>
-    <row r="562" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -13753,12 +12217,8 @@
       <c r="AA562" s="3"/>
       <c r="AB562" s="3"/>
       <c r="AC562" s="3"/>
-      <c r="AD562" s="3"/>
-      <c r="AE562" s="3"/>
-      <c r="AF562" s="3"/>
-      <c r="AG562" s="3"/>
-    </row>
-    <row r="563" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -13787,12 +12247,8 @@
       <c r="AA563" s="3"/>
       <c r="AB563" s="3"/>
       <c r="AC563" s="3"/>
-      <c r="AD563" s="3"/>
-      <c r="AE563" s="3"/>
-      <c r="AF563" s="3"/>
-      <c r="AG563" s="3"/>
-    </row>
-    <row r="564" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -13821,12 +12277,8 @@
       <c r="AA564" s="3"/>
       <c r="AB564" s="3"/>
       <c r="AC564" s="3"/>
-      <c r="AD564" s="3"/>
-      <c r="AE564" s="3"/>
-      <c r="AF564" s="3"/>
-      <c r="AG564" s="3"/>
-    </row>
-    <row r="565" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -13855,12 +12307,8 @@
       <c r="AA565" s="3"/>
       <c r="AB565" s="3"/>
       <c r="AC565" s="3"/>
-      <c r="AD565" s="3"/>
-      <c r="AE565" s="3"/>
-      <c r="AF565" s="3"/>
-      <c r="AG565" s="3"/>
-    </row>
-    <row r="566" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -13889,12 +12337,8 @@
       <c r="AA566" s="3"/>
       <c r="AB566" s="3"/>
       <c r="AC566" s="3"/>
-      <c r="AD566" s="3"/>
-      <c r="AE566" s="3"/>
-      <c r="AF566" s="3"/>
-      <c r="AG566" s="3"/>
-    </row>
-    <row r="567" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -13923,12 +12367,8 @@
       <c r="AA567" s="3"/>
       <c r="AB567" s="3"/>
       <c r="AC567" s="3"/>
-      <c r="AD567" s="3"/>
-      <c r="AE567" s="3"/>
-      <c r="AF567" s="3"/>
-      <c r="AG567" s="3"/>
-    </row>
-    <row r="568" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -13957,12 +12397,8 @@
       <c r="AA568" s="3"/>
       <c r="AB568" s="3"/>
       <c r="AC568" s="3"/>
-      <c r="AD568" s="3"/>
-      <c r="AE568" s="3"/>
-      <c r="AF568" s="3"/>
-      <c r="AG568" s="3"/>
-    </row>
-    <row r="569" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -13991,12 +12427,8 @@
       <c r="AA569" s="3"/>
       <c r="AB569" s="3"/>
       <c r="AC569" s="3"/>
-      <c r="AD569" s="3"/>
-      <c r="AE569" s="3"/>
-      <c r="AF569" s="3"/>
-      <c r="AG569" s="3"/>
-    </row>
-    <row r="570" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -14025,13 +12457,9 @@
       <c r="AA570" s="3"/>
       <c r="AB570" s="3"/>
       <c r="AC570" s="3"/>
-      <c r="AD570" s="3"/>
-      <c r="AE570" s="3"/>
-      <c r="AF570" s="3"/>
-      <c r="AG570" s="3"/>
-      <c r="AJ570" s="6"/>
-    </row>
-    <row r="571" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF570" s="6"/>
+    </row>
+    <row r="571" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -14060,12 +12488,8 @@
       <c r="AA571" s="3"/>
       <c r="AB571" s="3"/>
       <c r="AC571" s="3"/>
-      <c r="AD571" s="3"/>
-      <c r="AE571" s="3"/>
-      <c r="AF571" s="3"/>
-      <c r="AG571" s="3"/>
-    </row>
-    <row r="572" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -14094,13 +12518,9 @@
       <c r="AA572" s="3"/>
       <c r="AB572" s="3"/>
       <c r="AC572" s="3"/>
-      <c r="AD572" s="3"/>
-      <c r="AE572" s="3"/>
-      <c r="AF572" s="3"/>
-      <c r="AG572" s="3"/>
-      <c r="AJ572" s="6"/>
-    </row>
-    <row r="573" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF572" s="6"/>
+    </row>
+    <row r="573" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -14129,12 +12549,8 @@
       <c r="AA573" s="3"/>
       <c r="AB573" s="3"/>
       <c r="AC573" s="3"/>
-      <c r="AD573" s="3"/>
-      <c r="AE573" s="3"/>
-      <c r="AF573" s="3"/>
-      <c r="AG573" s="3"/>
-    </row>
-    <row r="574" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -14163,12 +12579,8 @@
       <c r="AA574" s="3"/>
       <c r="AB574" s="3"/>
       <c r="AC574" s="3"/>
-      <c r="AD574" s="3"/>
-      <c r="AE574" s="3"/>
-      <c r="AF574" s="3"/>
-      <c r="AG574" s="3"/>
-    </row>
-    <row r="575" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -14197,12 +12609,8 @@
       <c r="AA575" s="3"/>
       <c r="AB575" s="3"/>
       <c r="AC575" s="3"/>
-      <c r="AD575" s="3"/>
-      <c r="AE575" s="3"/>
-      <c r="AF575" s="3"/>
-      <c r="AG575" s="3"/>
-    </row>
-    <row r="576" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -14231,12 +12639,8 @@
       <c r="AA576" s="3"/>
       <c r="AB576" s="3"/>
       <c r="AC576" s="3"/>
-      <c r="AD576" s="3"/>
-      <c r="AE576" s="3"/>
-      <c r="AF576" s="3"/>
-      <c r="AG576" s="3"/>
-    </row>
-    <row r="577" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="577" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -14265,12 +12669,8 @@
       <c r="AA577" s="3"/>
       <c r="AB577" s="3"/>
       <c r="AC577" s="3"/>
-      <c r="AD577" s="3"/>
-      <c r="AE577" s="3"/>
-      <c r="AF577" s="3"/>
-      <c r="AG577" s="3"/>
-    </row>
-    <row r="578" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -14299,12 +12699,8 @@
       <c r="AA578" s="3"/>
       <c r="AB578" s="3"/>
       <c r="AC578" s="3"/>
-      <c r="AD578" s="3"/>
-      <c r="AE578" s="3"/>
-      <c r="AF578" s="3"/>
-      <c r="AG578" s="3"/>
-    </row>
-    <row r="579" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -14333,12 +12729,8 @@
       <c r="AA579" s="3"/>
       <c r="AB579" s="3"/>
       <c r="AC579" s="3"/>
-      <c r="AD579" s="3"/>
-      <c r="AE579" s="3"/>
-      <c r="AF579" s="3"/>
-      <c r="AG579" s="3"/>
-    </row>
-    <row r="580" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -14367,12 +12759,8 @@
       <c r="AA580" s="3"/>
       <c r="AB580" s="3"/>
       <c r="AC580" s="3"/>
-      <c r="AD580" s="3"/>
-      <c r="AE580" s="3"/>
-      <c r="AF580" s="3"/>
-      <c r="AG580" s="3"/>
-    </row>
-    <row r="581" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="581" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -14401,12 +12789,8 @@
       <c r="AA581" s="3"/>
       <c r="AB581" s="3"/>
       <c r="AC581" s="3"/>
-      <c r="AD581" s="3"/>
-      <c r="AE581" s="3"/>
-      <c r="AF581" s="3"/>
-      <c r="AG581" s="3"/>
-    </row>
-    <row r="582" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -14435,12 +12819,8 @@
       <c r="AA582" s="3"/>
       <c r="AB582" s="3"/>
       <c r="AC582" s="3"/>
-      <c r="AD582" s="3"/>
-      <c r="AE582" s="3"/>
-      <c r="AF582" s="3"/>
-      <c r="AG582" s="3"/>
-    </row>
-    <row r="583" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="583" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -14469,12 +12849,8 @@
       <c r="AA583" s="3"/>
       <c r="AB583" s="3"/>
       <c r="AC583" s="3"/>
-      <c r="AD583" s="3"/>
-      <c r="AE583" s="3"/>
-      <c r="AF583" s="3"/>
-      <c r="AG583" s="3"/>
-    </row>
-    <row r="584" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="584" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -14503,12 +12879,8 @@
       <c r="AA584" s="3"/>
       <c r="AB584" s="3"/>
       <c r="AC584" s="3"/>
-      <c r="AD584" s="3"/>
-      <c r="AE584" s="3"/>
-      <c r="AF584" s="3"/>
-      <c r="AG584" s="3"/>
-    </row>
-    <row r="585" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -14537,12 +12909,8 @@
       <c r="AA585" s="3"/>
       <c r="AB585" s="3"/>
       <c r="AC585" s="3"/>
-      <c r="AD585" s="3"/>
-      <c r="AE585" s="3"/>
-      <c r="AF585" s="3"/>
-      <c r="AG585" s="3"/>
-    </row>
-    <row r="586" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="586" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -14571,12 +12939,8 @@
       <c r="AA586" s="3"/>
       <c r="AB586" s="3"/>
       <c r="AC586" s="3"/>
-      <c r="AD586" s="3"/>
-      <c r="AE586" s="3"/>
-      <c r="AF586" s="3"/>
-      <c r="AG586" s="3"/>
-    </row>
-    <row r="587" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="587" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -14605,12 +12969,8 @@
       <c r="AA587" s="3"/>
       <c r="AB587" s="3"/>
       <c r="AC587" s="3"/>
-      <c r="AD587" s="3"/>
-      <c r="AE587" s="3"/>
-      <c r="AF587" s="3"/>
-      <c r="AG587" s="3"/>
-    </row>
-    <row r="588" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="588" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -14639,12 +12999,8 @@
       <c r="AA588" s="3"/>
       <c r="AB588" s="3"/>
       <c r="AC588" s="3"/>
-      <c r="AD588" s="3"/>
-      <c r="AE588" s="3"/>
-      <c r="AF588" s="3"/>
-      <c r="AG588" s="3"/>
-    </row>
-    <row r="589" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="589" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -14673,12 +13029,8 @@
       <c r="AA589" s="3"/>
       <c r="AB589" s="3"/>
       <c r="AC589" s="3"/>
-      <c r="AD589" s="3"/>
-      <c r="AE589" s="3"/>
-      <c r="AF589" s="3"/>
-      <c r="AG589" s="3"/>
-    </row>
-    <row r="590" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="590" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -14707,12 +13059,8 @@
       <c r="AA590" s="3"/>
       <c r="AB590" s="3"/>
       <c r="AC590" s="3"/>
-      <c r="AD590" s="3"/>
-      <c r="AE590" s="3"/>
-      <c r="AF590" s="3"/>
-      <c r="AG590" s="3"/>
-    </row>
-    <row r="591" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="591" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -14741,12 +13089,8 @@
       <c r="AA591" s="3"/>
       <c r="AB591" s="3"/>
       <c r="AC591" s="3"/>
-      <c r="AD591" s="3"/>
-      <c r="AE591" s="3"/>
-      <c r="AF591" s="3"/>
-      <c r="AG591" s="3"/>
-    </row>
-    <row r="592" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="592" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -14775,12 +13119,8 @@
       <c r="AA592" s="3"/>
       <c r="AB592" s="3"/>
       <c r="AC592" s="3"/>
-      <c r="AD592" s="3"/>
-      <c r="AE592" s="3"/>
-      <c r="AF592" s="3"/>
-      <c r="AG592" s="3"/>
-    </row>
-    <row r="593" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="593" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -14809,12 +13149,8 @@
       <c r="AA593" s="3"/>
       <c r="AB593" s="3"/>
       <c r="AC593" s="3"/>
-      <c r="AD593" s="3"/>
-      <c r="AE593" s="3"/>
-      <c r="AF593" s="3"/>
-      <c r="AG593" s="3"/>
-    </row>
-    <row r="594" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -14843,12 +13179,8 @@
       <c r="AA594" s="3"/>
       <c r="AB594" s="3"/>
       <c r="AC594" s="3"/>
-      <c r="AD594" s="3"/>
-      <c r="AE594" s="3"/>
-      <c r="AF594" s="3"/>
-      <c r="AG594" s="3"/>
-    </row>
-    <row r="595" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="595" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -14877,12 +13209,8 @@
       <c r="AA595" s="3"/>
       <c r="AB595" s="3"/>
       <c r="AC595" s="3"/>
-      <c r="AD595" s="3"/>
-      <c r="AE595" s="3"/>
-      <c r="AF595" s="3"/>
-      <c r="AG595" s="3"/>
-    </row>
-    <row r="596" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -14911,12 +13239,8 @@
       <c r="AA596" s="3"/>
       <c r="AB596" s="3"/>
       <c r="AC596" s="3"/>
-      <c r="AD596" s="3"/>
-      <c r="AE596" s="3"/>
-      <c r="AF596" s="3"/>
-      <c r="AG596" s="3"/>
-    </row>
-    <row r="597" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -14945,12 +13269,8 @@
       <c r="AA597" s="3"/>
       <c r="AB597" s="3"/>
       <c r="AC597" s="3"/>
-      <c r="AD597" s="3"/>
-      <c r="AE597" s="3"/>
-      <c r="AF597" s="3"/>
-      <c r="AG597" s="3"/>
-    </row>
-    <row r="598" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -14979,12 +13299,8 @@
       <c r="AA598" s="3"/>
       <c r="AB598" s="3"/>
       <c r="AC598" s="3"/>
-      <c r="AD598" s="3"/>
-      <c r="AE598" s="3"/>
-      <c r="AF598" s="3"/>
-      <c r="AG598" s="3"/>
-    </row>
-    <row r="599" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="599" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -15013,12 +13329,8 @@
       <c r="AA599" s="3"/>
       <c r="AB599" s="3"/>
       <c r="AC599" s="3"/>
-      <c r="AD599" s="3"/>
-      <c r="AE599" s="3"/>
-      <c r="AF599" s="3"/>
-      <c r="AG599" s="3"/>
-    </row>
-    <row r="600" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -15047,12 +13359,8 @@
       <c r="AA600" s="3"/>
       <c r="AB600" s="3"/>
       <c r="AC600" s="3"/>
-      <c r="AD600" s="3"/>
-      <c r="AE600" s="3"/>
-      <c r="AF600" s="3"/>
-      <c r="AG600" s="3"/>
-    </row>
-    <row r="601" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -15081,12 +13389,8 @@
       <c r="AA601" s="3"/>
       <c r="AB601" s="3"/>
       <c r="AC601" s="3"/>
-      <c r="AD601" s="3"/>
-      <c r="AE601" s="3"/>
-      <c r="AF601" s="3"/>
-      <c r="AG601" s="3"/>
-    </row>
-    <row r="602" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -15115,12 +13419,8 @@
       <c r="AA602" s="3"/>
       <c r="AB602" s="3"/>
       <c r="AC602" s="3"/>
-      <c r="AD602" s="3"/>
-      <c r="AE602" s="3"/>
-      <c r="AF602" s="3"/>
-      <c r="AG602" s="3"/>
-    </row>
-    <row r="603" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -15149,12 +13449,8 @@
       <c r="AA603" s="3"/>
       <c r="AB603" s="3"/>
       <c r="AC603" s="3"/>
-      <c r="AD603" s="3"/>
-      <c r="AE603" s="3"/>
-      <c r="AF603" s="3"/>
-      <c r="AG603" s="3"/>
-    </row>
-    <row r="604" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -15183,12 +13479,8 @@
       <c r="AA604" s="3"/>
       <c r="AB604" s="3"/>
       <c r="AC604" s="3"/>
-      <c r="AD604" s="3"/>
-      <c r="AE604" s="3"/>
-      <c r="AF604" s="3"/>
-      <c r="AG604" s="3"/>
-    </row>
-    <row r="605" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -15217,12 +13509,8 @@
       <c r="AA605" s="3"/>
       <c r="AB605" s="3"/>
       <c r="AC605" s="3"/>
-      <c r="AD605" s="3"/>
-      <c r="AE605" s="3"/>
-      <c r="AF605" s="3"/>
-      <c r="AG605" s="3"/>
-    </row>
-    <row r="606" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -15251,12 +13539,8 @@
       <c r="AA606" s="3"/>
       <c r="AB606" s="3"/>
       <c r="AC606" s="3"/>
-      <c r="AD606" s="3"/>
-      <c r="AE606" s="3"/>
-      <c r="AF606" s="3"/>
-      <c r="AG606" s="3"/>
-    </row>
-    <row r="607" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="607" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -15285,12 +13569,8 @@
       <c r="AA607" s="3"/>
       <c r="AB607" s="3"/>
       <c r="AC607" s="3"/>
-      <c r="AD607" s="3"/>
-      <c r="AE607" s="3"/>
-      <c r="AF607" s="3"/>
-      <c r="AG607" s="3"/>
-    </row>
-    <row r="608" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -15319,12 +13599,8 @@
       <c r="AA608" s="3"/>
       <c r="AB608" s="3"/>
       <c r="AC608" s="3"/>
-      <c r="AD608" s="3"/>
-      <c r="AE608" s="3"/>
-      <c r="AF608" s="3"/>
-      <c r="AG608" s="3"/>
-    </row>
-    <row r="609" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -15353,12 +13629,8 @@
       <c r="AA609" s="3"/>
       <c r="AB609" s="5"/>
       <c r="AC609" s="3"/>
-      <c r="AD609" s="3"/>
-      <c r="AE609" s="3"/>
-      <c r="AF609" s="3"/>
-      <c r="AG609" s="3"/>
-    </row>
-    <row r="610" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -15387,12 +13659,8 @@
       <c r="AA610" s="3"/>
       <c r="AB610" s="3"/>
       <c r="AC610" s="3"/>
-      <c r="AD610" s="3"/>
-      <c r="AE610" s="3"/>
-      <c r="AF610" s="3"/>
-      <c r="AG610" s="3"/>
-    </row>
-    <row r="611" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -15421,12 +13689,8 @@
       <c r="AA611" s="3"/>
       <c r="AB611" s="3"/>
       <c r="AC611" s="3"/>
-      <c r="AD611" s="3"/>
-      <c r="AE611" s="3"/>
-      <c r="AF611" s="3"/>
-      <c r="AG611" s="3"/>
-    </row>
-    <row r="612" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -15455,12 +13719,8 @@
       <c r="AA612" s="3"/>
       <c r="AB612" s="3"/>
       <c r="AC612" s="3"/>
-      <c r="AD612" s="3"/>
-      <c r="AE612" s="3"/>
-      <c r="AF612" s="3"/>
-      <c r="AG612" s="3"/>
-    </row>
-    <row r="613" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -15489,12 +13749,8 @@
       <c r="AA613" s="3"/>
       <c r="AB613" s="3"/>
       <c r="AC613" s="3"/>
-      <c r="AD613" s="3"/>
-      <c r="AE613" s="3"/>
-      <c r="AF613" s="3"/>
-      <c r="AG613" s="3"/>
-    </row>
-    <row r="614" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -15523,16 +13779,12 @@
       <c r="AA614" s="3"/>
       <c r="AB614" s="5"/>
       <c r="AC614" s="3"/>
-      <c r="AD614" s="3"/>
-      <c r="AE614" s="3"/>
-      <c r="AF614" s="3"/>
-      <c r="AG614" s="3"/>
-    </row>
-    <row r="615" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B615" s="3"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -15561,12 +13813,8 @@
       <c r="AA616" s="3"/>
       <c r="AB616" s="3"/>
       <c r="AC616" s="3"/>
-      <c r="AD616" s="3"/>
-      <c r="AE616" s="3"/>
-      <c r="AF616" s="3"/>
-      <c r="AG616" s="3"/>
-    </row>
-    <row r="617" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -15595,12 +13843,8 @@
       <c r="AA617" s="3"/>
       <c r="AB617" s="3"/>
       <c r="AC617" s="3"/>
-      <c r="AD617" s="3"/>
-      <c r="AE617" s="3"/>
-      <c r="AF617" s="3"/>
-      <c r="AG617" s="3"/>
-    </row>
-    <row r="618" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -15629,12 +13873,8 @@
       <c r="AA618" s="3"/>
       <c r="AB618" s="3"/>
       <c r="AC618" s="3"/>
-      <c r="AD618" s="3"/>
-      <c r="AE618" s="3"/>
-      <c r="AF618" s="3"/>
-      <c r="AG618" s="3"/>
-    </row>
-    <row r="619" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -15663,12 +13903,8 @@
       <c r="AA619" s="3"/>
       <c r="AB619" s="3"/>
       <c r="AC619" s="3"/>
-      <c r="AD619" s="3"/>
-      <c r="AE619" s="3"/>
-      <c r="AF619" s="3"/>
-      <c r="AG619" s="3"/>
-    </row>
-    <row r="620" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -15697,16 +13933,12 @@
       <c r="AA620" s="3"/>
       <c r="AB620" s="3"/>
       <c r="AC620" s="3"/>
-      <c r="AD620" s="3"/>
-      <c r="AE620" s="3"/>
-      <c r="AF620" s="3"/>
-      <c r="AG620" s="3"/>
-    </row>
-    <row r="621" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B621" s="3"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -15735,12 +13967,8 @@
       <c r="AA622" s="3"/>
       <c r="AB622" s="3"/>
       <c r="AC622" s="3"/>
-      <c r="AD622" s="3"/>
-      <c r="AE622" s="3"/>
-      <c r="AF622" s="3"/>
-      <c r="AG622" s="3"/>
-    </row>
-    <row r="623" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="623" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -15769,12 +13997,8 @@
       <c r="AA623" s="3"/>
       <c r="AB623" s="3"/>
       <c r="AC623" s="3"/>
-      <c r="AD623" s="3"/>
-      <c r="AE623" s="3"/>
-      <c r="AF623" s="3"/>
-      <c r="AG623" s="3"/>
-    </row>
-    <row r="624" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -15803,12 +14027,8 @@
       <c r="AA624" s="3"/>
       <c r="AB624" s="3"/>
       <c r="AC624" s="3"/>
-      <c r="AD624" s="3"/>
-      <c r="AE624" s="3"/>
-      <c r="AF624" s="3"/>
-      <c r="AG624" s="3"/>
-    </row>
-    <row r="625" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="625" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -15837,12 +14057,8 @@
       <c r="AA625" s="3"/>
       <c r="AB625" s="3"/>
       <c r="AC625" s="3"/>
-      <c r="AD625" s="3"/>
-      <c r="AE625" s="3"/>
-      <c r="AF625" s="3"/>
-      <c r="AG625" s="3"/>
-    </row>
-    <row r="626" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="626" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -15871,12 +14087,8 @@
       <c r="AA626" s="3"/>
       <c r="AB626" s="3"/>
       <c r="AC626" s="3"/>
-      <c r="AD626" s="3"/>
-      <c r="AE626" s="3"/>
-      <c r="AF626" s="3"/>
-      <c r="AG626" s="3"/>
-    </row>
-    <row r="627" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="627" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -15905,12 +14117,8 @@
       <c r="AA627" s="3"/>
       <c r="AB627" s="3"/>
       <c r="AC627" s="3"/>
-      <c r="AD627" s="3"/>
-      <c r="AE627" s="3"/>
-      <c r="AF627" s="3"/>
-      <c r="AG627" s="3"/>
-    </row>
-    <row r="628" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="628" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -15939,12 +14147,8 @@
       <c r="AA628" s="3"/>
       <c r="AB628" s="3"/>
       <c r="AC628" s="3"/>
-      <c r="AD628" s="3"/>
-      <c r="AE628" s="3"/>
-      <c r="AF628" s="3"/>
-      <c r="AG628" s="3"/>
-    </row>
-    <row r="629" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="629" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -15973,12 +14177,8 @@
       <c r="AA629" s="3"/>
       <c r="AB629" s="3"/>
       <c r="AC629" s="3"/>
-      <c r="AD629" s="3"/>
-      <c r="AE629" s="3"/>
-      <c r="AF629" s="3"/>
-      <c r="AG629" s="3"/>
-    </row>
-    <row r="630" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -16007,12 +14207,8 @@
       <c r="AA630" s="3"/>
       <c r="AB630" s="3"/>
       <c r="AC630" s="3"/>
-      <c r="AD630" s="3"/>
-      <c r="AE630" s="3"/>
-      <c r="AF630" s="3"/>
-      <c r="AG630" s="3"/>
-    </row>
-    <row r="631" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="631" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -16041,12 +14237,8 @@
       <c r="AA631" s="3"/>
       <c r="AB631" s="3"/>
       <c r="AC631" s="3"/>
-      <c r="AD631" s="3"/>
-      <c r="AE631" s="3"/>
-      <c r="AF631" s="3"/>
-      <c r="AG631" s="3"/>
-    </row>
-    <row r="632" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="632" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -16075,12 +14267,8 @@
       <c r="AA632" s="3"/>
       <c r="AB632" s="3"/>
       <c r="AC632" s="3"/>
-      <c r="AD632" s="3"/>
-      <c r="AE632" s="3"/>
-      <c r="AF632" s="3"/>
-      <c r="AG632" s="3"/>
-    </row>
-    <row r="633" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="633" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -16109,12 +14297,8 @@
       <c r="AA633" s="3"/>
       <c r="AB633" s="3"/>
       <c r="AC633" s="3"/>
-      <c r="AD633" s="3"/>
-      <c r="AE633" s="3"/>
-      <c r="AF633" s="3"/>
-      <c r="AG633" s="3"/>
-    </row>
-    <row r="634" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="634" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -16143,12 +14327,8 @@
       <c r="AA634" s="3"/>
       <c r="AB634" s="3"/>
       <c r="AC634" s="3"/>
-      <c r="AD634" s="3"/>
-      <c r="AE634" s="3"/>
-      <c r="AF634" s="3"/>
-      <c r="AG634" s="3"/>
-    </row>
-    <row r="635" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="635" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -16177,12 +14357,8 @@
       <c r="AA635" s="3"/>
       <c r="AB635" s="3"/>
       <c r="AC635" s="3"/>
-      <c r="AD635" s="3"/>
-      <c r="AE635" s="3"/>
-      <c r="AF635" s="3"/>
-      <c r="AG635" s="3"/>
-    </row>
-    <row r="636" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="636" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -16211,12 +14387,8 @@
       <c r="AA636" s="3"/>
       <c r="AB636" s="3"/>
       <c r="AC636" s="3"/>
-      <c r="AD636" s="3"/>
-      <c r="AE636" s="3"/>
-      <c r="AF636" s="3"/>
-      <c r="AG636" s="3"/>
-    </row>
-    <row r="637" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="637" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -16245,12 +14417,8 @@
       <c r="AA637" s="3"/>
       <c r="AB637" s="3"/>
       <c r="AC637" s="3"/>
-      <c r="AD637" s="3"/>
-      <c r="AE637" s="3"/>
-      <c r="AF637" s="3"/>
-      <c r="AG637" s="3"/>
-    </row>
-    <row r="638" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -16279,12 +14447,8 @@
       <c r="AA638" s="3"/>
       <c r="AB638" s="3"/>
       <c r="AC638" s="3"/>
-      <c r="AD638" s="3"/>
-      <c r="AE638" s="3"/>
-      <c r="AF638" s="3"/>
-      <c r="AG638" s="3"/>
-    </row>
-    <row r="639" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="639" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -16313,12 +14477,8 @@
       <c r="AA639" s="3"/>
       <c r="AB639" s="3"/>
       <c r="AC639" s="3"/>
-      <c r="AD639" s="3"/>
-      <c r="AE639" s="3"/>
-      <c r="AF639" s="3"/>
-      <c r="AG639" s="3"/>
-    </row>
-    <row r="640" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="640" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -16347,12 +14507,8 @@
       <c r="AA640" s="3"/>
       <c r="AB640" s="3"/>
       <c r="AC640" s="3"/>
-      <c r="AD640" s="3"/>
-      <c r="AE640" s="3"/>
-      <c r="AF640" s="3"/>
-      <c r="AG640" s="3"/>
-    </row>
-    <row r="641" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="641" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -16381,12 +14537,8 @@
       <c r="AA641" s="3"/>
       <c r="AB641" s="3"/>
       <c r="AC641" s="3"/>
-      <c r="AD641" s="3"/>
-      <c r="AE641" s="3"/>
-      <c r="AF641" s="3"/>
-      <c r="AG641" s="3"/>
-    </row>
-    <row r="642" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="642" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -16415,12 +14567,8 @@
       <c r="AA642" s="3"/>
       <c r="AB642" s="3"/>
       <c r="AC642" s="3"/>
-      <c r="AD642" s="3"/>
-      <c r="AE642" s="3"/>
-      <c r="AF642" s="3"/>
-      <c r="AG642" s="3"/>
-    </row>
-    <row r="643" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="643" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -16449,12 +14597,8 @@
       <c r="AA643" s="3"/>
       <c r="AB643" s="3"/>
       <c r="AC643" s="3"/>
-      <c r="AD643" s="3"/>
-      <c r="AE643" s="3"/>
-      <c r="AF643" s="3"/>
-      <c r="AG643" s="3"/>
-    </row>
-    <row r="644" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -16483,12 +14627,8 @@
       <c r="AA644" s="3"/>
       <c r="AB644" s="3"/>
       <c r="AC644" s="3"/>
-      <c r="AD644" s="3"/>
-      <c r="AE644" s="3"/>
-      <c r="AF644" s="3"/>
-      <c r="AG644" s="3"/>
-    </row>
-    <row r="645" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="645" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -16517,12 +14657,8 @@
       <c r="AA645" s="3"/>
       <c r="AB645" s="3"/>
       <c r="AC645" s="3"/>
-      <c r="AD645" s="3"/>
-      <c r="AE645" s="3"/>
-      <c r="AF645" s="3"/>
-      <c r="AG645" s="3"/>
-    </row>
-    <row r="646" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="646" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -16551,12 +14687,8 @@
       <c r="AA646" s="3"/>
       <c r="AB646" s="3"/>
       <c r="AC646" s="3"/>
-      <c r="AD646" s="3"/>
-      <c r="AE646" s="3"/>
-      <c r="AF646" s="3"/>
-      <c r="AG646" s="3"/>
-    </row>
-    <row r="647" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="647" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -16585,12 +14717,8 @@
       <c r="AA647" s="3"/>
       <c r="AB647" s="3"/>
       <c r="AC647" s="3"/>
-      <c r="AD647" s="3"/>
-      <c r="AE647" s="3"/>
-      <c r="AF647" s="3"/>
-      <c r="AG647" s="3"/>
-    </row>
-    <row r="648" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="648" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -16619,12 +14747,8 @@
       <c r="AA648" s="3"/>
       <c r="AB648" s="3"/>
       <c r="AC648" s="3"/>
-      <c r="AD648" s="3"/>
-      <c r="AE648" s="3"/>
-      <c r="AF648" s="3"/>
-      <c r="AG648" s="3"/>
-    </row>
-    <row r="649" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="649" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -16653,12 +14777,8 @@
       <c r="AA649" s="3"/>
       <c r="AB649" s="3"/>
       <c r="AC649" s="3"/>
-      <c r="AD649" s="3"/>
-      <c r="AE649" s="3"/>
-      <c r="AF649" s="3"/>
-      <c r="AG649" s="3"/>
-    </row>
-    <row r="650" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="650" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -16687,12 +14807,8 @@
       <c r="AA650" s="3"/>
       <c r="AB650" s="3"/>
       <c r="AC650" s="3"/>
-      <c r="AD650" s="3"/>
-      <c r="AE650" s="3"/>
-      <c r="AF650" s="3"/>
-      <c r="AG650" s="3"/>
-    </row>
-    <row r="651" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="651" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -16721,12 +14837,8 @@
       <c r="AA651" s="3"/>
       <c r="AB651" s="3"/>
       <c r="AC651" s="3"/>
-      <c r="AD651" s="3"/>
-      <c r="AE651" s="3"/>
-      <c r="AF651" s="3"/>
-      <c r="AG651" s="3"/>
-    </row>
-    <row r="652" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="652" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -16755,13 +14867,9 @@
       <c r="AA652" s="3"/>
       <c r="AB652" s="3"/>
       <c r="AC652" s="3"/>
-      <c r="AD652" s="3"/>
-      <c r="AE652" s="3"/>
-      <c r="AF652" s="3"/>
-      <c r="AG652" s="3"/>
-      <c r="AJ652" s="6"/>
-    </row>
-    <row r="653" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF652" s="6"/>
+    </row>
+    <row r="653" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -16790,12 +14898,8 @@
       <c r="AA653" s="3"/>
       <c r="AB653" s="3"/>
       <c r="AC653" s="3"/>
-      <c r="AD653" s="3"/>
-      <c r="AE653" s="3"/>
-      <c r="AF653" s="3"/>
-      <c r="AG653" s="3"/>
-    </row>
-    <row r="654" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="654" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -16824,12 +14928,8 @@
       <c r="AA654" s="3"/>
       <c r="AB654" s="3"/>
       <c r="AC654" s="3"/>
-      <c r="AD654" s="3"/>
-      <c r="AE654" s="3"/>
-      <c r="AF654" s="3"/>
-      <c r="AG654" s="3"/>
-    </row>
-    <row r="655" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="655" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -16858,12 +14958,8 @@
       <c r="AA655" s="3"/>
       <c r="AB655" s="3"/>
       <c r="AC655" s="3"/>
-      <c r="AD655" s="3"/>
-      <c r="AE655" s="3"/>
-      <c r="AF655" s="3"/>
-      <c r="AG655" s="3"/>
-    </row>
-    <row r="656" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="656" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -16892,12 +14988,8 @@
       <c r="AA656" s="3"/>
       <c r="AB656" s="3"/>
       <c r="AC656" s="3"/>
-      <c r="AD656" s="3"/>
-      <c r="AE656" s="3"/>
-      <c r="AF656" s="3"/>
-      <c r="AG656" s="3"/>
-    </row>
-    <row r="657" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="657" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -16926,13 +15018,9 @@
       <c r="AA657" s="3"/>
       <c r="AB657" s="3"/>
       <c r="AC657" s="3"/>
-      <c r="AD657" s="3"/>
-      <c r="AE657" s="3"/>
-      <c r="AF657" s="3"/>
-      <c r="AG657" s="3"/>
-      <c r="AJ657" s="6"/>
-    </row>
-    <row r="658" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF657" s="6"/>
+    </row>
+    <row r="658" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -16961,12 +15049,8 @@
       <c r="AA658" s="3"/>
       <c r="AB658" s="3"/>
       <c r="AC658" s="3"/>
-      <c r="AD658" s="3"/>
-      <c r="AE658" s="3"/>
-      <c r="AF658" s="3"/>
-      <c r="AG658" s="3"/>
-    </row>
-    <row r="659" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="659" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -16995,12 +15079,8 @@
       <c r="AA659" s="3"/>
       <c r="AB659" s="3"/>
       <c r="AC659" s="3"/>
-      <c r="AD659" s="3"/>
-      <c r="AE659" s="3"/>
-      <c r="AF659" s="3"/>
-      <c r="AG659" s="3"/>
-    </row>
-    <row r="660" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="660" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -17029,12 +15109,8 @@
       <c r="AA660" s="3"/>
       <c r="AB660" s="3"/>
       <c r="AC660" s="3"/>
-      <c r="AD660" s="3"/>
-      <c r="AE660" s="3"/>
-      <c r="AF660" s="3"/>
-      <c r="AG660" s="3"/>
-    </row>
-    <row r="711" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="711" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -17062,12 +15138,8 @@
       <c r="AA711" s="3"/>
       <c r="AB711" s="5"/>
       <c r="AC711" s="3"/>
-      <c r="AD711" s="3"/>
-      <c r="AE711" s="3"/>
-      <c r="AF711" s="3"/>
-      <c r="AG711" s="3"/>
-    </row>
-    <row r="712" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="712" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -17094,12 +15166,8 @@
       <c r="Z712" s="3"/>
       <c r="AA712" s="3"/>
       <c r="AC712" s="3"/>
-      <c r="AD712" s="3"/>
-      <c r="AE712" s="3"/>
-      <c r="AF712" s="3"/>
-      <c r="AG712" s="3"/>
-    </row>
-    <row r="713" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="713" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -17128,12 +15196,8 @@
       <c r="AA713" s="3"/>
       <c r="AB713" s="3"/>
       <c r="AC713" s="3"/>
-      <c r="AD713" s="3"/>
-      <c r="AE713" s="3"/>
-      <c r="AF713" s="3"/>
-      <c r="AG713" s="3"/>
-    </row>
-    <row r="714" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="714" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -17162,12 +15226,8 @@
       <c r="AA714" s="3"/>
       <c r="AB714" s="3"/>
       <c r="AC714" s="3"/>
-      <c r="AD714" s="3"/>
-      <c r="AE714" s="3"/>
-      <c r="AF714" s="3"/>
-      <c r="AG714" s="3"/>
-    </row>
-    <row r="715" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="715" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -17196,12 +15256,8 @@
       <c r="AA715" s="3"/>
       <c r="AB715" s="3"/>
       <c r="AC715" s="3"/>
-      <c r="AD715" s="3"/>
-      <c r="AE715" s="3"/>
-      <c r="AF715" s="3"/>
-      <c r="AG715" s="3"/>
-    </row>
-    <row r="716" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="716" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -17230,12 +15286,8 @@
       <c r="AA716" s="3"/>
       <c r="AB716" s="3"/>
       <c r="AC716" s="3"/>
-      <c r="AD716" s="3"/>
-      <c r="AE716" s="3"/>
-      <c r="AF716" s="3"/>
-      <c r="AG716" s="3"/>
-    </row>
-    <row r="717" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="717" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -17264,12 +15316,8 @@
       <c r="AA717" s="3"/>
       <c r="AB717" s="3"/>
       <c r="AC717" s="3"/>
-      <c r="AD717" s="3"/>
-      <c r="AE717" s="3"/>
-      <c r="AF717" s="3"/>
-      <c r="AG717" s="3"/>
-    </row>
-    <row r="718" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="718" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -17298,12 +15346,8 @@
       <c r="AA718" s="3"/>
       <c r="AB718" s="3"/>
       <c r="AC718" s="3"/>
-      <c r="AD718" s="3"/>
-      <c r="AE718" s="3"/>
-      <c r="AF718" s="3"/>
-      <c r="AG718" s="3"/>
-    </row>
-    <row r="719" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="719" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -17332,12 +15376,8 @@
       <c r="AA719" s="3"/>
       <c r="AB719" s="3"/>
       <c r="AC719" s="3"/>
-      <c r="AD719" s="3"/>
-      <c r="AE719" s="3"/>
-      <c r="AF719" s="3"/>
-      <c r="AG719" s="3"/>
-    </row>
-    <row r="720" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="720" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -17366,12 +15406,8 @@
       <c r="AA720" s="3"/>
       <c r="AB720" s="3"/>
       <c r="AC720" s="3"/>
-      <c r="AD720" s="3"/>
-      <c r="AE720" s="3"/>
-      <c r="AF720" s="3"/>
-      <c r="AG720" s="3"/>
-    </row>
-    <row r="721" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="721" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -17400,12 +15436,8 @@
       <c r="AA721" s="3"/>
       <c r="AB721" s="3"/>
       <c r="AC721" s="3"/>
-      <c r="AD721" s="3"/>
-      <c r="AE721" s="3"/>
-      <c r="AF721" s="3"/>
-      <c r="AG721" s="3"/>
-    </row>
-    <row r="722" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="722" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -17434,12 +15466,8 @@
       <c r="AA722" s="3"/>
       <c r="AB722" s="3"/>
       <c r="AC722" s="3"/>
-      <c r="AD722" s="3"/>
-      <c r="AE722" s="3"/>
-      <c r="AF722" s="3"/>
-      <c r="AG722" s="3"/>
-    </row>
-    <row r="723" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="723" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -17468,12 +15496,8 @@
       <c r="AA723" s="3"/>
       <c r="AB723" s="3"/>
       <c r="AC723" s="3"/>
-      <c r="AD723" s="3"/>
-      <c r="AE723" s="3"/>
-      <c r="AF723" s="3"/>
-      <c r="AG723" s="3"/>
-    </row>
-    <row r="724" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="724" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -17502,12 +15526,8 @@
       <c r="AA724" s="3"/>
       <c r="AB724" s="3"/>
       <c r="AC724" s="3"/>
-      <c r="AD724" s="3"/>
-      <c r="AE724" s="3"/>
-      <c r="AF724" s="3"/>
-      <c r="AG724" s="3"/>
-    </row>
-    <row r="725" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="725" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -17536,12 +15556,8 @@
       <c r="AA725" s="3"/>
       <c r="AB725" s="3"/>
       <c r="AC725" s="3"/>
-      <c r="AD725" s="3"/>
-      <c r="AE725" s="3"/>
-      <c r="AF725" s="3"/>
-      <c r="AG725" s="3"/>
-    </row>
-    <row r="726" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="726" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -17570,12 +15586,8 @@
       <c r="AA726" s="3"/>
       <c r="AB726" s="3"/>
       <c r="AC726" s="3"/>
-      <c r="AD726" s="3"/>
-      <c r="AE726" s="3"/>
-      <c r="AF726" s="3"/>
-      <c r="AG726" s="3"/>
-    </row>
-    <row r="727" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="727" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -17604,12 +15616,8 @@
       <c r="AA727" s="3"/>
       <c r="AB727" s="3"/>
       <c r="AC727" s="3"/>
-      <c r="AD727" s="3"/>
-      <c r="AE727" s="3"/>
-      <c r="AF727" s="3"/>
-      <c r="AG727" s="3"/>
-    </row>
-    <row r="728" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="728" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -17638,12 +15646,8 @@
       <c r="AA728" s="3"/>
       <c r="AB728" s="3"/>
       <c r="AC728" s="3"/>
-      <c r="AD728" s="3"/>
-      <c r="AE728" s="3"/>
-      <c r="AF728" s="3"/>
-      <c r="AG728" s="3"/>
-    </row>
-    <row r="729" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="729" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -17672,12 +15676,8 @@
       <c r="AA729" s="3"/>
       <c r="AB729" s="3"/>
       <c r="AC729" s="3"/>
-      <c r="AD729" s="3"/>
-      <c r="AE729" s="3"/>
-      <c r="AF729" s="3"/>
-      <c r="AG729" s="3"/>
-    </row>
-    <row r="730" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="730" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -17706,13 +15706,9 @@
       <c r="AA730" s="3"/>
       <c r="AB730" s="3"/>
       <c r="AC730" s="3"/>
-      <c r="AD730" s="3"/>
-      <c r="AE730" s="3"/>
-      <c r="AF730" s="3"/>
-      <c r="AG730" s="3"/>
-      <c r="AJ730" s="6"/>
-    </row>
-    <row r="731" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF730" s="6"/>
+    </row>
+    <row r="731" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -17740,12 +15736,8 @@
       <c r="AA731" s="3"/>
       <c r="AB731" s="3"/>
       <c r="AC731" s="3"/>
-      <c r="AD731" s="3"/>
-      <c r="AE731" s="3"/>
-      <c r="AF731" s="3"/>
-      <c r="AG731" s="3"/>
-    </row>
-    <row r="732" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="732" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -17774,12 +15766,8 @@
       <c r="AA732" s="3"/>
       <c r="AB732" s="3"/>
       <c r="AC732" s="3"/>
-      <c r="AD732" s="3"/>
-      <c r="AE732" s="3"/>
-      <c r="AF732" s="3"/>
-      <c r="AG732" s="3"/>
-    </row>
-    <row r="733" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="733" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -17808,12 +15796,8 @@
       <c r="AA733" s="3"/>
       <c r="AB733" s="3"/>
       <c r="AC733" s="3"/>
-      <c r="AD733" s="3"/>
-      <c r="AE733" s="3"/>
-      <c r="AF733" s="3"/>
-      <c r="AG733" s="3"/>
-    </row>
-    <row r="771" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="771" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -17842,12 +15826,8 @@
       <c r="AA771" s="3"/>
       <c r="AB771" s="3"/>
       <c r="AC771" s="3"/>
-      <c r="AD771" s="3"/>
-      <c r="AE771" s="3"/>
-      <c r="AF771" s="3"/>
-      <c r="AG771" s="3"/>
-    </row>
-    <row r="772" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="772" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -17876,12 +15856,8 @@
       <c r="AA772" s="3"/>
       <c r="AB772" s="3"/>
       <c r="AC772" s="3"/>
-      <c r="AD772" s="3"/>
-      <c r="AE772" s="3"/>
-      <c r="AF772" s="3"/>
-      <c r="AG772" s="3"/>
-    </row>
-    <row r="773" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="773" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -17910,12 +15886,8 @@
       <c r="AA773" s="3"/>
       <c r="AB773" s="3"/>
       <c r="AC773" s="3"/>
-      <c r="AD773" s="3"/>
-      <c r="AE773" s="3"/>
-      <c r="AF773" s="3"/>
-      <c r="AG773" s="3"/>
-    </row>
-    <row r="774" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="774" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -17944,12 +15916,8 @@
       <c r="AA774" s="3"/>
       <c r="AB774" s="3"/>
       <c r="AC774" s="3"/>
-      <c r="AD774" s="3"/>
-      <c r="AE774" s="3"/>
-      <c r="AF774" s="3"/>
-      <c r="AG774" s="3"/>
-    </row>
-    <row r="775" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="775" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -17978,12 +15946,8 @@
       <c r="AA775" s="3"/>
       <c r="AB775" s="3"/>
       <c r="AC775" s="3"/>
-      <c r="AD775" s="3"/>
-      <c r="AE775" s="3"/>
-      <c r="AF775" s="3"/>
-      <c r="AG775" s="3"/>
-    </row>
-    <row r="776" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="776" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -18012,12 +15976,8 @@
       <c r="AA776" s="3"/>
       <c r="AB776" s="3"/>
       <c r="AC776" s="3"/>
-      <c r="AD776" s="3"/>
-      <c r="AE776" s="3"/>
-      <c r="AF776" s="3"/>
-      <c r="AG776" s="3"/>
-    </row>
-    <row r="777" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="777" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -18046,12 +16006,8 @@
       <c r="AA777" s="3"/>
       <c r="AB777" s="3"/>
       <c r="AC777" s="3"/>
-      <c r="AD777" s="3"/>
-      <c r="AE777" s="3"/>
-      <c r="AF777" s="3"/>
-      <c r="AG777" s="3"/>
-    </row>
-    <row r="778" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="778" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -18080,12 +16036,8 @@
       <c r="AA778" s="3"/>
       <c r="AB778" s="3"/>
       <c r="AC778" s="3"/>
-      <c r="AD778" s="3"/>
-      <c r="AE778" s="3"/>
-      <c r="AF778" s="3"/>
-      <c r="AG778" s="3"/>
-    </row>
-    <row r="779" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="779" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -18114,12 +16066,8 @@
       <c r="AA779" s="3"/>
       <c r="AB779" s="3"/>
       <c r="AC779" s="3"/>
-      <c r="AD779" s="3"/>
-      <c r="AE779" s="3"/>
-      <c r="AF779" s="3"/>
-      <c r="AG779" s="3"/>
-    </row>
-    <row r="780" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="780" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -18148,12 +16096,8 @@
       <c r="AA780" s="3"/>
       <c r="AB780" s="3"/>
       <c r="AC780" s="3"/>
-      <c r="AD780" s="3"/>
-      <c r="AE780" s="3"/>
-      <c r="AF780" s="3"/>
-      <c r="AG780" s="3"/>
-    </row>
-    <row r="781" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="781" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -18182,12 +16126,8 @@
       <c r="AA781" s="3"/>
       <c r="AB781" s="3"/>
       <c r="AC781" s="3"/>
-      <c r="AD781" s="3"/>
-      <c r="AE781" s="3"/>
-      <c r="AF781" s="3"/>
-      <c r="AG781" s="3"/>
-    </row>
-    <row r="782" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="782" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -18216,12 +16156,8 @@
       <c r="AA782" s="3"/>
       <c r="AB782" s="3"/>
       <c r="AC782" s="3"/>
-      <c r="AD782" s="3"/>
-      <c r="AE782" s="3"/>
-      <c r="AF782" s="3"/>
-      <c r="AG782" s="3"/>
-    </row>
-    <row r="783" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="783" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -18250,12 +16186,8 @@
       <c r="AA783" s="3"/>
       <c r="AB783" s="3"/>
       <c r="AC783" s="3"/>
-      <c r="AD783" s="3"/>
-      <c r="AE783" s="3"/>
-      <c r="AF783" s="3"/>
-      <c r="AG783" s="3"/>
-    </row>
-    <row r="784" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="784" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -18284,12 +16216,8 @@
       <c r="AA784" s="3"/>
       <c r="AB784" s="3"/>
       <c r="AC784" s="3"/>
-      <c r="AD784" s="3"/>
-      <c r="AE784" s="3"/>
-      <c r="AF784" s="3"/>
-      <c r="AG784" s="3"/>
-    </row>
-    <row r="785" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="785" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -18318,12 +16246,8 @@
       <c r="AA785" s="3"/>
       <c r="AB785" s="3"/>
       <c r="AC785" s="3"/>
-      <c r="AD785" s="3"/>
-      <c r="AE785" s="3"/>
-      <c r="AF785" s="3"/>
-      <c r="AG785" s="3"/>
-    </row>
-    <row r="786" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="786" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -18352,12 +16276,8 @@
       <c r="AA786" s="3"/>
       <c r="AB786" s="3"/>
       <c r="AC786" s="3"/>
-      <c r="AD786" s="3"/>
-      <c r="AE786" s="3"/>
-      <c r="AF786" s="3"/>
-      <c r="AG786" s="3"/>
-    </row>
-    <row r="787" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="787" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -18386,12 +16306,8 @@
       <c r="AA787" s="3"/>
       <c r="AB787" s="3"/>
       <c r="AC787" s="3"/>
-      <c r="AD787" s="3"/>
-      <c r="AE787" s="3"/>
-      <c r="AF787" s="3"/>
-      <c r="AG787" s="3"/>
-    </row>
-    <row r="788" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="788" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -18420,12 +16336,8 @@
       <c r="AA788" s="3"/>
       <c r="AB788" s="3"/>
       <c r="AC788" s="3"/>
-      <c r="AD788" s="3"/>
-      <c r="AE788" s="3"/>
-      <c r="AF788" s="3"/>
-      <c r="AG788" s="3"/>
-    </row>
-    <row r="789" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="789" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -18454,12 +16366,8 @@
       <c r="AA789" s="3"/>
       <c r="AB789" s="3"/>
       <c r="AC789" s="3"/>
-      <c r="AD789" s="3"/>
-      <c r="AE789" s="3"/>
-      <c r="AF789" s="3"/>
-      <c r="AG789" s="3"/>
-    </row>
-    <row r="790" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="790" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -18488,12 +16396,8 @@
       <c r="AA790" s="3"/>
       <c r="AB790" s="3"/>
       <c r="AC790" s="3"/>
-      <c r="AD790" s="3"/>
-      <c r="AE790" s="3"/>
-      <c r="AF790" s="3"/>
-      <c r="AG790" s="3"/>
-    </row>
-    <row r="791" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="791" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -18522,12 +16426,8 @@
       <c r="AA791" s="3"/>
       <c r="AB791" s="3"/>
       <c r="AC791" s="3"/>
-      <c r="AD791" s="3"/>
-      <c r="AE791" s="3"/>
-      <c r="AF791" s="3"/>
-      <c r="AG791" s="3"/>
-    </row>
-    <row r="792" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="792" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -18556,12 +16456,8 @@
       <c r="AA792" s="3"/>
       <c r="AB792" s="3"/>
       <c r="AC792" s="3"/>
-      <c r="AD792" s="3"/>
-      <c r="AE792" s="3"/>
-      <c r="AF792" s="3"/>
-      <c r="AG792" s="3"/>
-    </row>
-    <row r="793" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="793" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -18590,12 +16486,8 @@
       <c r="AA793" s="3"/>
       <c r="AB793" s="3"/>
       <c r="AC793" s="3"/>
-      <c r="AD793" s="3"/>
-      <c r="AE793" s="3"/>
-      <c r="AF793" s="3"/>
-      <c r="AG793" s="3"/>
-    </row>
-    <row r="794" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="794" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -18624,12 +16516,8 @@
       <c r="AA794" s="3"/>
       <c r="AB794" s="3"/>
       <c r="AC794" s="3"/>
-      <c r="AD794" s="3"/>
-      <c r="AE794" s="3"/>
-      <c r="AF794" s="3"/>
-      <c r="AG794" s="3"/>
-    </row>
-    <row r="795" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="795" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -18658,12 +16546,8 @@
       <c r="AA795" s="3"/>
       <c r="AB795" s="3"/>
       <c r="AC795" s="3"/>
-      <c r="AD795" s="3"/>
-      <c r="AE795" s="3"/>
-      <c r="AF795" s="3"/>
-      <c r="AG795" s="3"/>
-    </row>
-    <row r="796" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="796" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -18692,13 +16576,9 @@
       <c r="AA796" s="3"/>
       <c r="AB796" s="3"/>
       <c r="AC796" s="3"/>
-      <c r="AD796" s="3"/>
-      <c r="AE796" s="3"/>
-      <c r="AF796" s="3"/>
-      <c r="AG796" s="3"/>
-      <c r="AJ796" s="6"/>
-    </row>
-    <row r="797" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF796" s="6"/>
+    </row>
+    <row r="797" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -18727,12 +16607,8 @@
       <c r="AA797" s="3"/>
       <c r="AB797" s="3"/>
       <c r="AC797" s="3"/>
-      <c r="AD797" s="3"/>
-      <c r="AE797" s="3"/>
-      <c r="AF797" s="3"/>
-      <c r="AG797" s="3"/>
-    </row>
-    <row r="798" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="798" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -18761,12 +16637,8 @@
       <c r="AA798" s="3"/>
       <c r="AB798" s="3"/>
       <c r="AC798" s="3"/>
-      <c r="AD798" s="3"/>
-      <c r="AE798" s="3"/>
-      <c r="AF798" s="3"/>
-      <c r="AG798" s="3"/>
-    </row>
-    <row r="799" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="799" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -18795,12 +16667,8 @@
       <c r="AA799" s="3"/>
       <c r="AB799" s="3"/>
       <c r="AC799" s="3"/>
-      <c r="AD799" s="3"/>
-      <c r="AE799" s="3"/>
-      <c r="AF799" s="3"/>
-      <c r="AG799" s="3"/>
-    </row>
-    <row r="800" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="800" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -18829,12 +16697,8 @@
       <c r="AA800" s="3"/>
       <c r="AB800" s="3"/>
       <c r="AC800" s="3"/>
-      <c r="AD800" s="3"/>
-      <c r="AE800" s="3"/>
-      <c r="AF800" s="3"/>
-      <c r="AG800" s="3"/>
-    </row>
-    <row r="801" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="801" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -18863,12 +16727,8 @@
       <c r="AA801" s="3"/>
       <c r="AB801" s="3"/>
       <c r="AC801" s="3"/>
-      <c r="AD801" s="3"/>
-      <c r="AE801" s="3"/>
-      <c r="AF801" s="3"/>
-      <c r="AG801" s="3"/>
-    </row>
-    <row r="802" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="802" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -18897,12 +16757,8 @@
       <c r="AA802" s="3"/>
       <c r="AB802" s="3"/>
       <c r="AC802" s="3"/>
-      <c r="AD802" s="3"/>
-      <c r="AE802" s="3"/>
-      <c r="AF802" s="3"/>
-      <c r="AG802" s="3"/>
-    </row>
-    <row r="803" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="803" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -18931,12 +16787,8 @@
       <c r="AA803" s="3"/>
       <c r="AB803" s="3"/>
       <c r="AC803" s="3"/>
-      <c r="AD803" s="3"/>
-      <c r="AE803" s="3"/>
-      <c r="AF803" s="3"/>
-      <c r="AG803" s="3"/>
-    </row>
-    <row r="804" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="804" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -18965,12 +16817,8 @@
       <c r="AA804" s="3"/>
       <c r="AB804" s="3"/>
       <c r="AC804" s="3"/>
-      <c r="AD804" s="3"/>
-      <c r="AE804" s="3"/>
-      <c r="AF804" s="3"/>
-      <c r="AG804" s="3"/>
-    </row>
-    <row r="805" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="805" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -18999,12 +16847,8 @@
       <c r="AA805" s="3"/>
       <c r="AB805" s="3"/>
       <c r="AC805" s="3"/>
-      <c r="AD805" s="3"/>
-      <c r="AE805" s="3"/>
-      <c r="AF805" s="3"/>
-      <c r="AG805" s="3"/>
-    </row>
-    <row r="806" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="806" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -19033,12 +16877,8 @@
       <c r="AA806" s="3"/>
       <c r="AB806" s="3"/>
       <c r="AC806" s="3"/>
-      <c r="AD806" s="3"/>
-      <c r="AE806" s="3"/>
-      <c r="AF806" s="3"/>
-      <c r="AG806" s="3"/>
-    </row>
-    <row r="807" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="807" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -19067,12 +16907,8 @@
       <c r="AA807" s="3"/>
       <c r="AB807" s="3"/>
       <c r="AC807" s="3"/>
-      <c r="AD807" s="3"/>
-      <c r="AE807" s="3"/>
-      <c r="AF807" s="3"/>
-      <c r="AG807" s="3"/>
-    </row>
-    <row r="808" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="808" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -19101,12 +16937,8 @@
       <c r="AA808" s="3"/>
       <c r="AB808" s="3"/>
       <c r="AC808" s="3"/>
-      <c r="AD808" s="3"/>
-      <c r="AE808" s="3"/>
-      <c r="AF808" s="3"/>
-      <c r="AG808" s="3"/>
-    </row>
-    <row r="809" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="809" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -19135,12 +16967,8 @@
       <c r="AA809" s="3"/>
       <c r="AB809" s="3"/>
       <c r="AC809" s="3"/>
-      <c r="AD809" s="3"/>
-      <c r="AE809" s="3"/>
-      <c r="AF809" s="3"/>
-      <c r="AG809" s="3"/>
-    </row>
-    <row r="810" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="810" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -19169,12 +16997,8 @@
       <c r="AA810" s="3"/>
       <c r="AB810" s="3"/>
       <c r="AC810" s="3"/>
-      <c r="AD810" s="3"/>
-      <c r="AE810" s="3"/>
-      <c r="AF810" s="3"/>
-      <c r="AG810" s="3"/>
-    </row>
-    <row r="811" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="811" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -19203,12 +17027,8 @@
       <c r="AA811" s="3"/>
       <c r="AB811" s="3"/>
       <c r="AC811" s="3"/>
-      <c r="AD811" s="3"/>
-      <c r="AE811" s="3"/>
-      <c r="AF811" s="3"/>
-      <c r="AG811" s="3"/>
-    </row>
-    <row r="812" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="812" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -19237,12 +17057,8 @@
       <c r="AA812" s="3"/>
       <c r="AB812" s="3"/>
       <c r="AC812" s="3"/>
-      <c r="AD812" s="3"/>
-      <c r="AE812" s="3"/>
-      <c r="AF812" s="3"/>
-      <c r="AG812" s="3"/>
-    </row>
-    <row r="813" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="813" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -19271,12 +17087,8 @@
       <c r="AA813" s="3"/>
       <c r="AB813" s="3"/>
       <c r="AC813" s="3"/>
-      <c r="AD813" s="3"/>
-      <c r="AE813" s="3"/>
-      <c r="AF813" s="3"/>
-      <c r="AG813" s="3"/>
-    </row>
-    <row r="814" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="814" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -19305,12 +17117,8 @@
       <c r="AA814" s="3"/>
       <c r="AB814" s="3"/>
       <c r="AC814" s="3"/>
-      <c r="AD814" s="3"/>
-      <c r="AE814" s="3"/>
-      <c r="AF814" s="3"/>
-      <c r="AG814" s="3"/>
-    </row>
-    <row r="815" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="815" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -19339,12 +17147,8 @@
       <c r="AA815" s="3"/>
       <c r="AB815" s="3"/>
       <c r="AC815" s="3"/>
-      <c r="AD815" s="3"/>
-      <c r="AE815" s="3"/>
-      <c r="AF815" s="3"/>
-      <c r="AG815" s="3"/>
-    </row>
-    <row r="816" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="816" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -19373,12 +17177,8 @@
       <c r="AA816" s="3"/>
       <c r="AB816" s="3"/>
       <c r="AC816" s="3"/>
-      <c r="AD816" s="3"/>
-      <c r="AE816" s="3"/>
-      <c r="AF816" s="3"/>
-      <c r="AG816" s="3"/>
-    </row>
-    <row r="817" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="817" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -19407,12 +17207,8 @@
       <c r="AA817" s="3"/>
       <c r="AB817" s="3"/>
       <c r="AC817" s="3"/>
-      <c r="AD817" s="3"/>
-      <c r="AE817" s="3"/>
-      <c r="AF817" s="3"/>
-      <c r="AG817" s="3"/>
-    </row>
-    <row r="818" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="818" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -19441,12 +17237,8 @@
       <c r="AA818" s="3"/>
       <c r="AB818" s="3"/>
       <c r="AC818" s="3"/>
-      <c r="AD818" s="3"/>
-      <c r="AE818" s="3"/>
-      <c r="AF818" s="3"/>
-      <c r="AG818" s="3"/>
-    </row>
-    <row r="819" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="819" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -19475,12 +17267,8 @@
       <c r="AA819" s="3"/>
       <c r="AB819" s="3"/>
       <c r="AC819" s="3"/>
-      <c r="AD819" s="3"/>
-      <c r="AE819" s="3"/>
-      <c r="AF819" s="3"/>
-      <c r="AG819" s="3"/>
-    </row>
-    <row r="820" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="820" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -19509,12 +17297,8 @@
       <c r="AA820" s="3"/>
       <c r="AB820" s="3"/>
       <c r="AC820" s="3"/>
-      <c r="AD820" s="3"/>
-      <c r="AE820" s="3"/>
-      <c r="AF820" s="3"/>
-      <c r="AG820" s="3"/>
-    </row>
-    <row r="821" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="821" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -19543,12 +17327,8 @@
       <c r="AA821" s="3"/>
       <c r="AB821" s="3"/>
       <c r="AC821" s="3"/>
-      <c r="AD821" s="3"/>
-      <c r="AE821" s="3"/>
-      <c r="AF821" s="3"/>
-      <c r="AG821" s="3"/>
-    </row>
-    <row r="822" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="822" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -19577,12 +17357,8 @@
       <c r="AA822" s="3"/>
       <c r="AB822" s="3"/>
       <c r="AC822" s="3"/>
-      <c r="AD822" s="3"/>
-      <c r="AE822" s="3"/>
-      <c r="AF822" s="3"/>
-      <c r="AG822" s="3"/>
-    </row>
-    <row r="823" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="823" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -19611,12 +17387,8 @@
       <c r="AA823" s="3"/>
       <c r="AB823" s="3"/>
       <c r="AC823" s="3"/>
-      <c r="AD823" s="3"/>
-      <c r="AE823" s="3"/>
-      <c r="AF823" s="3"/>
-      <c r="AG823" s="3"/>
-    </row>
-    <row r="824" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="824" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -19645,12 +17417,8 @@
       <c r="AA824" s="3"/>
       <c r="AB824" s="5"/>
       <c r="AC824" s="3"/>
-      <c r="AD824" s="3"/>
-      <c r="AE824" s="3"/>
-      <c r="AF824" s="3"/>
-      <c r="AG824" s="5"/>
-    </row>
-    <row r="825" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="825" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -19679,12 +17447,8 @@
       <c r="AA825" s="3"/>
       <c r="AB825" s="3"/>
       <c r="AC825" s="3"/>
-      <c r="AD825" s="3"/>
-      <c r="AE825" s="3"/>
-      <c r="AF825" s="3"/>
-      <c r="AG825" s="5"/>
-    </row>
-    <row r="826" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="826" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -19713,12 +17477,8 @@
       <c r="AA826" s="3"/>
       <c r="AB826" s="3"/>
       <c r="AC826" s="3"/>
-      <c r="AD826" s="3"/>
-      <c r="AE826" s="3"/>
-      <c r="AF826" s="3"/>
-      <c r="AG826" s="5"/>
-    </row>
-    <row r="827" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="827" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -19747,13 +17507,9 @@
       <c r="AA827" s="3"/>
       <c r="AB827" s="3"/>
       <c r="AC827" s="3"/>
-      <c r="AD827" s="3"/>
-      <c r="AE827" s="3"/>
-      <c r="AF827" s="3"/>
-      <c r="AG827" s="5"/>
-      <c r="AJ827" s="6"/>
-    </row>
-    <row r="828" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF827" s="6"/>
+    </row>
+    <row r="828" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -19782,12 +17538,8 @@
       <c r="AA828" s="3"/>
       <c r="AB828" s="3"/>
       <c r="AC828" s="3"/>
-      <c r="AD828" s="3"/>
-      <c r="AE828" s="3"/>
-      <c r="AF828" s="3"/>
-      <c r="AG828" s="5"/>
-    </row>
-    <row r="829" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="829" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -19816,12 +17568,8 @@
       <c r="AA829" s="3"/>
       <c r="AB829" s="5"/>
       <c r="AC829" s="3"/>
-      <c r="AD829" s="3"/>
-      <c r="AE829" s="3"/>
-      <c r="AF829" s="3"/>
-      <c r="AG829" s="5"/>
-    </row>
-    <row r="830" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="830" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -19850,12 +17598,8 @@
       <c r="AA830" s="3"/>
       <c r="AB830" s="3"/>
       <c r="AC830" s="3"/>
-      <c r="AD830" s="3"/>
-      <c r="AE830" s="3"/>
-      <c r="AF830" s="5"/>
-      <c r="AG830" s="5"/>
-    </row>
-    <row r="831" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="831" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -19884,12 +17628,8 @@
       <c r="AA831" s="3"/>
       <c r="AB831" s="3"/>
       <c r="AC831" s="3"/>
-      <c r="AD831" s="3"/>
-      <c r="AE831" s="3"/>
-      <c r="AF831" s="5"/>
-      <c r="AG831" s="5"/>
-    </row>
-    <row r="832" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="832" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -19918,12 +17658,8 @@
       <c r="AA832" s="3"/>
       <c r="AB832" s="3"/>
       <c r="AC832" s="3"/>
-      <c r="AD832" s="3"/>
-      <c r="AE832" s="3"/>
-      <c r="AF832" s="5"/>
-      <c r="AG832" s="5"/>
-    </row>
-    <row r="833" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="833" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -19952,12 +17688,8 @@
       <c r="AA833" s="3"/>
       <c r="AB833" s="3"/>
       <c r="AC833" s="3"/>
-      <c r="AD833" s="3"/>
-      <c r="AE833" s="3"/>
-      <c r="AF833" s="5"/>
-      <c r="AG833" s="5"/>
-    </row>
-    <row r="834" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="834" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -19986,12 +17718,8 @@
       <c r="AA834" s="3"/>
       <c r="AB834" s="3"/>
       <c r="AC834" s="3"/>
-      <c r="AD834" s="3"/>
-      <c r="AE834" s="3"/>
-      <c r="AF834" s="5"/>
-      <c r="AG834" s="5"/>
-    </row>
-    <row r="835" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="835" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -20020,12 +17748,8 @@
       <c r="AA835" s="3"/>
       <c r="AB835" s="3"/>
       <c r="AC835" s="3"/>
-      <c r="AD835" s="3"/>
-      <c r="AE835" s="3"/>
-      <c r="AF835" s="5"/>
-      <c r="AG835" s="3"/>
-    </row>
-    <row r="836" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="836" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -20054,12 +17778,8 @@
       <c r="AA836" s="3"/>
       <c r="AB836" s="3"/>
       <c r="AC836" s="3"/>
-      <c r="AD836" s="3"/>
-      <c r="AE836" s="3"/>
-      <c r="AF836" s="5"/>
-      <c r="AG836" s="5"/>
-    </row>
-    <row r="837" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="837" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -20088,12 +17808,8 @@
       <c r="AA837" s="3"/>
       <c r="AB837" s="3"/>
       <c r="AC837" s="3"/>
-      <c r="AD837" s="3"/>
-      <c r="AE837" s="3"/>
-      <c r="AF837" s="5"/>
-      <c r="AG837" s="5"/>
-    </row>
-    <row r="838" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="838" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -20122,12 +17838,8 @@
       <c r="AA838" s="3"/>
       <c r="AB838" s="3"/>
       <c r="AC838" s="3"/>
-      <c r="AD838" s="3"/>
-      <c r="AE838" s="3"/>
-      <c r="AF838" s="5"/>
-      <c r="AG838" s="5"/>
-    </row>
-    <row r="839" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="839" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -20156,12 +17868,8 @@
       <c r="AA839" s="3"/>
       <c r="AB839" s="3"/>
       <c r="AC839" s="3"/>
-      <c r="AD839" s="3"/>
-      <c r="AE839" s="3"/>
-      <c r="AF839" s="5"/>
-      <c r="AG839" s="5"/>
-    </row>
-    <row r="840" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="840" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -20190,12 +17898,8 @@
       <c r="AA840" s="3"/>
       <c r="AB840" s="3"/>
       <c r="AC840" s="3"/>
-      <c r="AD840" s="3"/>
-      <c r="AE840" s="3"/>
-      <c r="AF840" s="5"/>
-      <c r="AG840" s="3"/>
-    </row>
-    <row r="841" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="841" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -20224,12 +17928,8 @@
       <c r="AA841" s="3"/>
       <c r="AB841" s="3"/>
       <c r="AC841" s="3"/>
-      <c r="AD841" s="3"/>
-      <c r="AE841" s="3"/>
-      <c r="AF841" s="5"/>
-      <c r="AG841" s="3"/>
-    </row>
-    <row r="842" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="842" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -20258,12 +17958,8 @@
       <c r="AA842" s="3"/>
       <c r="AB842" s="3"/>
       <c r="AC842" s="3"/>
-      <c r="AD842" s="3"/>
-      <c r="AE842" s="3"/>
-      <c r="AF842" s="3"/>
-      <c r="AG842" s="3"/>
-    </row>
-    <row r="843" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="843" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -20292,12 +17988,8 @@
       <c r="AA843" s="3"/>
       <c r="AB843" s="3"/>
       <c r="AC843" s="3"/>
-      <c r="AD843" s="3"/>
-      <c r="AE843" s="3"/>
-      <c r="AF843" s="3"/>
-      <c r="AG843" s="3"/>
-    </row>
-    <row r="844" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="844" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -20326,12 +18018,8 @@
       <c r="AA844" s="3"/>
       <c r="AB844" s="3"/>
       <c r="AC844" s="3"/>
-      <c r="AD844" s="3"/>
-      <c r="AE844" s="3"/>
-      <c r="AF844" s="3"/>
-      <c r="AG844" s="3"/>
-    </row>
-    <row r="845" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="845" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -20360,12 +18048,8 @@
       <c r="AA845" s="3"/>
       <c r="AB845" s="3"/>
       <c r="AC845" s="3"/>
-      <c r="AD845" s="3"/>
-      <c r="AE845" s="3"/>
-      <c r="AF845" s="3"/>
-      <c r="AG845" s="3"/>
-    </row>
-    <row r="846" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="846" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -20394,12 +18078,8 @@
       <c r="AA846" s="3"/>
       <c r="AB846" s="3"/>
       <c r="AC846" s="3"/>
-      <c r="AD846" s="3"/>
-      <c r="AE846" s="3"/>
-      <c r="AF846" s="5"/>
-      <c r="AG846" s="3"/>
-    </row>
-    <row r="847" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="847" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -20428,12 +18108,8 @@
       <c r="AA847" s="3"/>
       <c r="AB847" s="3"/>
       <c r="AC847" s="3"/>
-      <c r="AD847" s="3"/>
-      <c r="AE847" s="3"/>
-      <c r="AF847" s="3"/>
-      <c r="AG847" s="3"/>
-    </row>
-    <row r="848" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="848" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -20462,12 +18138,8 @@
       <c r="AA848" s="3"/>
       <c r="AB848" s="3"/>
       <c r="AC848" s="3"/>
-      <c r="AD848" s="3"/>
-      <c r="AE848" s="3"/>
-      <c r="AF848" s="3"/>
-      <c r="AG848" s="3"/>
-    </row>
-    <row r="849" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="849" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -20496,12 +18168,8 @@
       <c r="AA849" s="3"/>
       <c r="AB849" s="3"/>
       <c r="AC849" s="3"/>
-      <c r="AD849" s="3"/>
-      <c r="AE849" s="3"/>
-      <c r="AF849" s="5"/>
-      <c r="AG849" s="3"/>
-    </row>
-    <row r="850" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="850" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -20530,12 +18198,8 @@
       <c r="AA850" s="3"/>
       <c r="AB850" s="3"/>
       <c r="AC850" s="3"/>
-      <c r="AD850" s="3"/>
-      <c r="AE850" s="3"/>
-      <c r="AF850" s="3"/>
-      <c r="AG850" s="3"/>
-    </row>
-    <row r="851" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="851" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -20564,12 +18228,8 @@
       <c r="AA851" s="3"/>
       <c r="AB851" s="5"/>
       <c r="AC851" s="3"/>
-      <c r="AD851" s="3"/>
-      <c r="AE851" s="3"/>
-      <c r="AF851" s="5"/>
-      <c r="AG851" s="5"/>
-    </row>
-    <row r="852" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="852" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -20598,12 +18258,8 @@
       <c r="AA852" s="3"/>
       <c r="AB852" s="3"/>
       <c r="AC852" s="3"/>
-      <c r="AD852" s="3"/>
-      <c r="AE852" s="3"/>
-      <c r="AF852" s="5"/>
-      <c r="AG852" s="3"/>
-    </row>
-    <row r="853" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="853" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -20632,11 +18288,8 @@
       <c r="AA853" s="3"/>
       <c r="AB853" s="3"/>
       <c r="AC853" s="3"/>
-      <c r="AD853" s="3"/>
-      <c r="AE853" s="3"/>
-      <c r="AF853" s="5"/>
-    </row>
-    <row r="854" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="854" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -20665,12 +18318,8 @@
       <c r="AA854" s="3"/>
       <c r="AB854" s="3"/>
       <c r="AC854" s="3"/>
-      <c r="AD854" s="3"/>
-      <c r="AE854" s="3"/>
-      <c r="AF854" s="5"/>
-      <c r="AG854" s="3"/>
-    </row>
-    <row r="855" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="855" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -20699,12 +18348,8 @@
       <c r="AA855" s="3"/>
       <c r="AB855" s="3"/>
       <c r="AC855" s="3"/>
-      <c r="AD855" s="3"/>
-      <c r="AE855" s="3"/>
-      <c r="AF855" s="5"/>
-      <c r="AG855" s="3"/>
-    </row>
-    <row r="856" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="856" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -20733,12 +18378,8 @@
       <c r="AA856" s="3"/>
       <c r="AB856" s="3"/>
       <c r="AC856" s="3"/>
-      <c r="AD856" s="3"/>
-      <c r="AE856" s="3"/>
-      <c r="AF856" s="3"/>
-      <c r="AG856" s="3"/>
-    </row>
-    <row r="857" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="857" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -20767,12 +18408,8 @@
       <c r="AA857" s="3"/>
       <c r="AB857" s="3"/>
       <c r="AC857" s="3"/>
-      <c r="AD857" s="3"/>
-      <c r="AE857" s="3"/>
-      <c r="AF857" s="5"/>
-      <c r="AG857" s="3"/>
-    </row>
-    <row r="858" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="858" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -20801,12 +18438,8 @@
       <c r="AA858" s="3"/>
       <c r="AB858" s="3"/>
       <c r="AC858" s="3"/>
-      <c r="AD858" s="3"/>
-      <c r="AE858" s="3"/>
-      <c r="AF858" s="3"/>
-      <c r="AG858" s="5"/>
-    </row>
-    <row r="860" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="860" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -20835,12 +18468,8 @@
       <c r="AA860" s="3"/>
       <c r="AB860" s="3"/>
       <c r="AC860" s="3"/>
-      <c r="AD860" s="3"/>
-      <c r="AE860" s="3"/>
-      <c r="AF860" s="5"/>
-      <c r="AG860" s="5"/>
-    </row>
-    <row r="861" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="861" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -20869,12 +18498,8 @@
       <c r="AA861" s="3"/>
       <c r="AB861" s="3"/>
       <c r="AC861" s="3"/>
-      <c r="AD861" s="3"/>
-      <c r="AE861" s="3"/>
-      <c r="AF861" s="5"/>
-      <c r="AG861" s="5"/>
-    </row>
-    <row r="862" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="862" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -20903,12 +18528,8 @@
       <c r="AA862" s="3"/>
       <c r="AB862" s="3"/>
       <c r="AC862" s="3"/>
-      <c r="AD862" s="3"/>
-      <c r="AE862" s="3"/>
-      <c r="AF862" s="5"/>
-      <c r="AG862" s="5"/>
-    </row>
-    <row r="863" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="863" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -20937,12 +18558,8 @@
       <c r="AA863" s="3"/>
       <c r="AB863" s="5"/>
       <c r="AC863" s="5"/>
-      <c r="AD863" s="3"/>
-      <c r="AE863" s="3"/>
-      <c r="AF863" s="5"/>
-      <c r="AG863" s="5"/>
-    </row>
-    <row r="864" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="864" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -20971,12 +18588,8 @@
       <c r="AA864" s="3"/>
       <c r="AB864" s="5"/>
       <c r="AC864" s="3"/>
-      <c r="AD864" s="3"/>
-      <c r="AE864" s="3"/>
-      <c r="AF864" s="5"/>
-      <c r="AG864" s="5"/>
-    </row>
-    <row r="865" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="865" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -21005,12 +18618,8 @@
       <c r="AA865" s="3"/>
       <c r="AB865" s="5"/>
       <c r="AC865" s="3"/>
-      <c r="AD865" s="3"/>
-      <c r="AE865" s="3"/>
-      <c r="AF865" s="5"/>
-      <c r="AG865" s="5"/>
-    </row>
-    <row r="868" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="868" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -21039,12 +18648,8 @@
       <c r="AA868" s="3"/>
       <c r="AB868" s="3"/>
       <c r="AC868" s="3"/>
-      <c r="AD868" s="3"/>
-      <c r="AE868" s="3"/>
-      <c r="AF868" s="5"/>
-      <c r="AG868" s="5"/>
-    </row>
-    <row r="869" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="869" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -21073,12 +18678,8 @@
       <c r="AA869" s="3"/>
       <c r="AB869" s="5"/>
       <c r="AC869" s="3"/>
-      <c r="AD869" s="3"/>
-      <c r="AE869" s="3"/>
-      <c r="AF869" s="5"/>
-      <c r="AG869" s="5"/>
-    </row>
-    <row r="870" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="870" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -21107,18 +18708,14 @@
       <c r="AA870" s="3"/>
       <c r="AB870" s="3"/>
       <c r="AC870" s="3"/>
-      <c r="AD870" s="3"/>
-      <c r="AE870" s="3"/>
-      <c r="AF870" s="5"/>
-    </row>
-    <row r="871" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="871" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
-      <c r="AE871" s="3"/>
-    </row>
-    <row r="873" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="873" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -21147,11 +18744,8 @@
       <c r="AA873" s="3"/>
       <c r="AB873" s="3"/>
       <c r="AC873" s="3"/>
-      <c r="AD873" s="3"/>
-      <c r="AE873" s="3"/>
-      <c r="AF873" s="5"/>
-    </row>
-    <row r="874" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="874" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -21180,14 +18774,11 @@
       <c r="AA874" s="3"/>
       <c r="AB874" s="3"/>
       <c r="AC874" s="3"/>
-      <c r="AD874" s="3"/>
-      <c r="AE874" s="3"/>
-      <c r="AF874" s="5"/>
-    </row>
-    <row r="875" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="875" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B875" s="3"/>
     </row>
-    <row r="876" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -21216,11 +18807,8 @@
       <c r="AA876" s="3"/>
       <c r="AB876" s="5"/>
       <c r="AC876" s="3"/>
-      <c r="AD876" s="3"/>
-      <c r="AE876" s="3"/>
-      <c r="AF876" s="5"/>
-    </row>
-    <row r="877" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="877" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -21249,11 +18837,8 @@
       <c r="AA877" s="3"/>
       <c r="AB877" s="3"/>
       <c r="AC877" s="3"/>
-      <c r="AD877" s="3"/>
-      <c r="AE877" s="3"/>
-      <c r="AF877" s="5"/>
-    </row>
-    <row r="878" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="878" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -21282,11 +18867,8 @@
       <c r="AA878" s="3"/>
       <c r="AB878" s="3"/>
       <c r="AC878" s="3"/>
-      <c r="AD878" s="3"/>
-      <c r="AE878" s="3"/>
-      <c r="AF878" s="5"/>
-    </row>
-    <row r="879" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="879" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -21315,10 +18897,8 @@
       <c r="AA879" s="3"/>
       <c r="AB879" s="5"/>
       <c r="AC879" s="3"/>
-      <c r="AD879" s="3"/>
-      <c r="AE879" s="3"/>
-    </row>
-    <row r="880" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="880" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -21347,24 +18927,20 @@
       <c r="AA880" s="3"/>
       <c r="AB880" s="3"/>
       <c r="AC880" s="3"/>
-      <c r="AD880" s="3"/>
-      <c r="AE880" s="3"/>
-    </row>
-    <row r="886" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="886" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
-      <c r="AE886" s="3"/>
-    </row>
-    <row r="901" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="901" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
-      <c r="AE901" s="3"/>
-    </row>
-    <row r="921" spans="2:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="921" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -21393,11 +18969,8 @@
       <c r="AA921" s="3"/>
       <c r="AB921" s="3"/>
       <c r="AC921" s="3"/>
-      <c r="AD921" s="3"/>
-      <c r="AE921" s="3"/>
-      <c r="AF921" s="5"/>
-    </row>
-    <row r="922" spans="2:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="922" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -21422,17 +18995,17 @@
       <c r="X922" s="5"/>
       <c r="Z922" s="5"/>
     </row>
-    <row r="923" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AK2:AK3"/>
+  <mergeCells count="35">
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -21445,9 +19018,8 @@
     <mergeCell ref="B153:B162"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="K2:K3"/>
@@ -21460,15 +19032,12 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="B1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7397D8-3671-4566-B73A-AB7A8C17E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD470F93-6000-4935-83FA-3DCED21417C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>9E82889C248D6BEF848E1AFB27808B21</t>
   </si>
   <si>
     <t>بررسی برنامه تست</t>
@@ -136,10 +133,7 @@
     <t>بررسی عملکرد MBUS</t>
   </si>
   <si>
-    <t>تگ شروع از سیستم دریافت نگردید</t>
-  </si>
-  <si>
-    <t>253FA34D2090A212C17EE2B01A06C139</t>
+    <t>3CEEA4D328CB7107F29A5C53F0538283</t>
   </si>
 </sst>
 </file>
@@ -304,13 +298,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,8 +608,8 @@
   <dimension ref="A1:CU923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE8" sqref="AE8"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,141 +682,141 @@
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
+      <c r="J2" s="9" t="s">
+        <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
+      <c r="L2" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:99" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
     </row>
     <row r="4" spans="1:99" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -865,27 +859,33 @@
       <c r="V4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3">
-        <v>91900</v>
+      <c r="W4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AG4" s="4" t="s">
         <v>11</v>
@@ -5348,7 +5348,7 @@
       <c r="AC152" s="3"/>
     </row>
     <row r="153" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B153" s="10"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5379,7 +5379,7 @@
       <c r="AF153" s="6"/>
     </row>
     <row r="154" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B154" s="10"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5409,7 +5409,7 @@
       <c r="AC154" s="3"/>
     </row>
     <row r="155" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B155" s="10"/>
+      <c r="B155" s="8"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5439,7 +5439,7 @@
       <c r="AC155" s="3"/>
     </row>
     <row r="156" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B156" s="10"/>
+      <c r="B156" s="8"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5470,7 +5470,7 @@
       <c r="AF156" s="6"/>
     </row>
     <row r="157" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B157" s="10"/>
+      <c r="B157" s="8"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5500,7 +5500,7 @@
       <c r="AC157" s="3"/>
     </row>
     <row r="158" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B158" s="10"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5530,7 +5530,7 @@
       <c r="AC158" s="3"/>
     </row>
     <row r="159" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B159" s="10"/>
+      <c r="B159" s="8"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5560,7 +5560,7 @@
       <c r="AC159" s="3"/>
     </row>
     <row r="160" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B160" s="10"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5590,7 +5590,7 @@
       <c r="AC160" s="3"/>
     </row>
     <row r="161" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B161" s="10"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5620,7 +5620,7 @@
       <c r="AC161" s="3"/>
     </row>
     <row r="162" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B162" s="10"/>
+      <c r="B162" s="8"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -19019,6 +19019,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="V2:V3"/>
@@ -19030,6 +19036,8 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="B153:B162"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="W2:W3"/>
@@ -19042,18 +19050,10 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD470F93-6000-4935-83FA-3DCED21417C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9F4E3-96CD-44C0-AAC1-B1353B6EC154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestResult" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>سریال دستگاه ها</t>
   </si>
@@ -133,7 +133,10 @@
     <t>بررسی عملکرد MBUS</t>
   </si>
   <si>
-    <t>3CEEA4D328CB7107F29A5C53F0538283</t>
+    <t>C301B3C04089955B3B5AD891F6408100</t>
+  </si>
+  <si>
+    <t>1402-07-19 12:52:28</t>
   </si>
 </sst>
 </file>
@@ -298,9 +301,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,6 +323,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,177 +645,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="15"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:99" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
     <row r="4" spans="1:99" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -846,16 +849,36 @@
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="V4" s="3" t="s">
         <v>13</v>
       </c>
@@ -882,7 +905,7 @@
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>37</v>
@@ -5348,7 +5371,7 @@
       <c r="AC152" s="3"/>
     </row>
     <row r="153" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B153" s="8"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5379,7 +5402,7 @@
       <c r="AF153" s="6"/>
     </row>
     <row r="154" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B154" s="8"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5409,7 +5432,7 @@
       <c r="AC154" s="3"/>
     </row>
     <row r="155" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B155" s="8"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5439,7 +5462,7 @@
       <c r="AC155" s="3"/>
     </row>
     <row r="156" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B156" s="8"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5470,7 +5493,7 @@
       <c r="AF156" s="6"/>
     </row>
     <row r="157" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B157" s="8"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5500,7 +5523,7 @@
       <c r="AC157" s="3"/>
     </row>
     <row r="158" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B158" s="8"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5530,7 +5553,7 @@
       <c r="AC158" s="3"/>
     </row>
     <row r="159" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B159" s="8"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5560,7 +5583,7 @@
       <c r="AC159" s="3"/>
     </row>
     <row r="160" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B160" s="8"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5590,7 +5613,7 @@
       <c r="AC160" s="3"/>
     </row>
     <row r="161" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B161" s="8"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5620,7 +5643,7 @@
       <c r="AC161" s="3"/>
     </row>
     <row r="162" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B162" s="8"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -19019,9 +19042,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
@@ -19038,22 +19077,6 @@
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MWM/TestApp/_Files/Exel/MWM.xlsx
+++ b/MWM/TestApp/_Files/Exel/MWM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9F4E3-96CD-44C0-AAC1-B1353B6EC154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DB454A-FA07-461C-AD0B-EC7F03C9CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestResult" sheetId="1" r:id="rId1"/>
@@ -133,10 +133,10 @@
     <t>بررسی عملکرد MBUS</t>
   </si>
   <si>
-    <t>C301B3C04089955B3B5AD891F6408100</t>
+    <t>1403-01-19 12:01:55</t>
   </si>
   <si>
-    <t>1402-07-19 12:52:28</t>
+    <t>C301B3C04089955B3B5AD891F6408100</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>13</v>
@@ -908,7 +908,7 @@
         <v>2800</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="4" t="s">
         <v>11</v>
@@ -19042,11 +19042,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B153:B162"/>
     <mergeCell ref="Z2:Z3"/>
@@ -19060,10 +19061,9 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="V2:V3"/>
